--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="264">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -807,6 +807,18 @@
   </si>
   <si>
     <t>Outward</t>
+  </si>
+  <si>
+    <t>Dishonored 2</t>
+  </si>
+  <si>
+    <t>Arcade Classics Anniversary Collection</t>
+  </si>
+  <si>
+    <t>Castlevania Anniversary Collection</t>
+  </si>
+  <si>
+    <t>Dishonored Definitive Edition</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A129"/>
+  <dimension ref="A2:A133"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,6 +1787,26 @@
         <v>257</v>
       </c>
     </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1784,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
@@ -2440,7 +2472,7 @@
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="267">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -819,6 +819,15 @@
   </si>
   <si>
     <t>Dishonored Definitive Edition</t>
+  </si>
+  <si>
+    <t>Odin Sphere Leifthrasir</t>
+  </si>
+  <si>
+    <t>Hentai vs. Evil</t>
+  </si>
+  <si>
+    <t>Darksiders 3</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A133"/>
+  <dimension ref="A2:A136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,6 +1814,21 @@
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -828,14 +828,40 @@
   </si>
   <si>
     <t>Darksiders 3</t>
+  </si>
+  <si>
+    <t>Final fantasy xii the zodiac age</t>
+  </si>
+  <si>
+    <t>Black clover: quartet knights</t>
+  </si>
+  <si>
+    <t>My hero one's justice</t>
+  </si>
+  <si>
+    <t>One piece world seeker</t>
+  </si>
+  <si>
+    <t>One punch man: a hero nobody knows</t>
+  </si>
+  <si>
+    <t>TITOLI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -863,8 +889,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1145,80 +1172,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A136"/>
+  <dimension ref="A1:A141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1228,527 +1260,527 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
@@ -1758,710 +1790,743 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A141">
+    <sortCondition ref="A2:A141"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A126"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -2471,11 +2536,15 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A126">
+    <sortCondition ref="A2:A126"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2486,17 +2555,26 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,6 +2582,11 @@
     <col min="1" max="1" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="274">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>TITOLI</t>
+  </si>
+  <si>
+    <t>Anima: Gate of Memories - The Nameless Chronicles</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,6 +1889,11 @@
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
     <sheet name="HD2 - pieno" sheetId="2" r:id="rId2"/>
-    <sheet name="HD3 - comprare" sheetId="4" r:id="rId3"/>
+    <sheet name="HD3" sheetId="4" r:id="rId3"/>
     <sheet name="disco interno" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="279">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -539,9 +539,6 @@
     <t>robinson the journey</t>
   </si>
   <si>
-    <t>sowrd art online fatal bullet</t>
-  </si>
-  <si>
     <t>deus ex mankind divided</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>kingdom hearts vr experience</t>
   </si>
   <si>
-    <t>senran kagura estival versus</t>
-  </si>
-  <si>
     <t>plague inc evolved</t>
   </si>
   <si>
@@ -849,6 +843,27 @@
   </si>
   <si>
     <t>Anima: Gate of Memories - The Nameless Chronicles</t>
+  </si>
+  <si>
+    <t>sword art online fatal bullet</t>
+  </si>
+  <si>
+    <t>BioShock: The Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sid Meier's Civilization VI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Theft Auto V: Premium Edition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warhammer: Chaosbane </t>
+  </si>
+  <si>
+    <t>Bioshok Infinite: the complete edition</t>
+  </si>
+  <si>
+    <t>senran kagura festival versus</t>
   </si>
 </sst>
 </file>
@@ -1177,9 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1188,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1213,7 +1226,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1253,7 +1266,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1263,7 +1276,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1298,7 +1311,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1333,12 +1346,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -1383,7 +1396,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -1423,7 +1436,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -1453,7 +1466,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -1498,7 +1511,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
@@ -1543,22 +1556,22 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -1578,7 +1591,7 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -1608,7 +1621,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -1638,17 +1651,17 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -1893,7 +1906,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1908,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,22 +1932,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1954,7 +1967,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1964,7 +1977,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1979,7 +1992,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -1989,52 +2002,52 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -2044,37 +2057,37 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2094,12 +2107,12 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -2109,17 +2122,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -2129,7 +2142,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
@@ -2139,22 +2152,22 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -2164,7 +2177,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -2174,7 +2187,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -2184,12 +2197,12 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -2204,22 +2217,22 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -2249,7 +2262,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -2259,17 +2272,17 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -2279,7 +2292,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -2299,27 +2312,27 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -2349,7 +2362,7 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -2364,12 +2377,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -2379,27 +2392,27 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -2429,12 +2442,12 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -2449,47 +2462,47 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -2499,7 +2512,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
@@ -2524,7 +2537,7 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -2539,12 +2552,12 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2558,9 +2571,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2569,7 +2584,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2627,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,52 +2637,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
-    <sheet name="HD2 - pieno" sheetId="2" r:id="rId2"/>
+    <sheet name="HD2" sheetId="2" r:id="rId2"/>
     <sheet name="HD3" sheetId="4" r:id="rId3"/>
     <sheet name="disco interno" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="280">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>senran kagura festival versus</t>
+  </si>
+  <si>
+    <t>CODE VEIN</t>
   </si>
 </sst>
 </file>
@@ -1919,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,81 +2485,76 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2571,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,6 +2613,16 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="289">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -867,6 +867,33 @@
   </si>
   <si>
     <t>CODE VEIN</t>
+  </si>
+  <si>
+    <t>Shadow of the Tomb Raider Definitive Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Seven Deadly Sins: Knights of Britannia </t>
+  </si>
+  <si>
+    <t>Torchlight III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torchlight II </t>
+  </si>
+  <si>
+    <t>Saints Row: Gat out of Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valkyria Revolution </t>
+  </si>
+  <si>
+    <t>Shadow of the Tomb Raider - Original Soundtrack</t>
+  </si>
+  <si>
+    <t>final fantasy xiv</t>
+  </si>
+  <si>
+    <t>elder scoll online (eso)</t>
   </si>
 </sst>
 </file>
@@ -1193,9 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A142"/>
+  <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:A144"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1910,6 +1939,16 @@
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2569,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,22 +2664,58 @@
         <v>279</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2683,8 +2758,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>245</v>
       </c>
     </row>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="290">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t>elder scoll online (eso)</t>
+  </si>
+  <si>
+    <t>Cyberdimension Neptunia: 4 Goddesses Online</t>
   </si>
 </sst>
 </file>
@@ -2608,15 +2611,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2697,6 +2700,11 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2718,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="291">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>Cyberdimension Neptunia: 4 Goddesses Online</t>
+  </si>
+  <si>
+    <t>Saints Row IV: Re-Elected</t>
   </si>
 </sst>
 </file>
@@ -2611,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,6 +2710,11 @@
         <v>289</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2717,7 +2725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="296">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -900,6 +900,21 @@
   </si>
   <si>
     <t>Saints Row IV: Re-Elected</t>
+  </si>
+  <si>
+    <t>Children of Zodiarcs</t>
+  </si>
+  <si>
+    <t>Grand Kingdom</t>
+  </si>
+  <si>
+    <t>Eternity: The Last Unicorn</t>
+  </si>
+  <si>
+    <t>Deiland special pack</t>
+  </si>
+  <si>
+    <t>Persona 5</t>
   </si>
 </sst>
 </file>
@@ -2614,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,6 +2730,31 @@
         <v>290</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2725,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="298">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -915,6 +915,13 @@
   </si>
   <si>
     <t>Persona 5</t>
+  </si>
+  <si>
+    <t>Dragon Quest XI S: echi di Un'era Perduta - Edizione Definitiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Cyberpunk 2077 D1 Edition</t>
   </si>
 </sst>
 </file>
@@ -958,9 +965,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2629,15 +2639,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2753,6 +2763,16 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2765,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
     <sheet name="HD2" sheetId="2" r:id="rId2"/>
     <sheet name="HD3" sheetId="4" r:id="rId3"/>
     <sheet name="disco interno" sheetId="3" r:id="rId4"/>
+    <sheet name="PS3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="303">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -922,6 +923,21 @@
   <si>
     <t xml:space="preserve"> 
 Cyberpunk 2077 D1 Edition</t>
+  </si>
+  <si>
+    <t>Dishonored®: Death of the Outsider</t>
+  </si>
+  <si>
+    <t>SaGa SCARLET GRACE: AMBITIONS</t>
+  </si>
+  <si>
+    <t>mass effect</t>
+  </si>
+  <si>
+    <t>mass effect 2</t>
+  </si>
+  <si>
+    <t>mass effect 3</t>
   </si>
 </sst>
 </file>
@@ -1253,9 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:A144"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2639,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,6 +2789,16 @@
         <v>297</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2785,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,4 +2866,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="304">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>mass effect 3</t>
+  </si>
+  <si>
+    <t>Assalto alla Rocca del Drago di Tiny Tina: Un'avventura unica in Wonderlands</t>
   </si>
 </sst>
 </file>
@@ -2653,15 +2656,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2797,6 +2800,11 @@
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2818,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="307">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>titan quest</t>
-  </si>
-  <si>
-    <t>dissidia final fantasy nt free</t>
   </si>
   <si>
     <t>kinetica</t>
@@ -941,6 +938,18 @@
   </si>
   <si>
     <t>Assalto alla Rocca del Drago di Tiny Tina: Un'avventura unica in Wonderlands</t>
+  </si>
+  <si>
+    <t>risen 3 titan lords</t>
+  </si>
+  <si>
+    <t>DISSIDIA® FINAL FANTASY® NT</t>
+  </si>
+  <si>
+    <t>STAR OCEAN First Departure R</t>
+  </si>
+  <si>
+    <t>Shenmue III - Digital Deluxe Edition</t>
   </si>
 </sst>
 </file>
@@ -1270,9 +1279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A144"/>
+  <dimension ref="A1:A146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1281,7 +1292,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1306,257 +1317,257 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -1566,47 +1577,47 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -1616,392 +1627,402 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>280</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A141">
-    <sortCondition ref="A2:A141"/>
+  <sortState ref="A2:A146">
+    <sortCondition ref="A2:A146"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2011,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,632 +2043,632 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A126">
-    <sortCondition ref="A2:A126"/>
+  <sortState ref="A2:A125">
+    <sortCondition ref="A2:A125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2658,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,22 +2690,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2694,7 +2715,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2704,110 +2725,113 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2817,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,47 +2852,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2878,35 +2902,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="315">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -918,10 +918,6 @@
     <t>Dragon Quest XI S: echi di Un'era Perduta - Edizione Definitiva</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Cyberpunk 2077 D1 Edition</t>
-  </si>
-  <si>
     <t>Dishonored®: Death of the Outsider</t>
   </si>
   <si>
@@ -950,6 +946,33 @@
   </si>
   <si>
     <t>Shenmue III - Digital Deluxe Edition</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 D1 Edition</t>
+  </si>
+  <si>
+    <t>The Legend of Heroes: Trails of Cold Steel II</t>
+  </si>
+  <si>
+    <t>The Legend of Heroes: Trails of Cold Steel</t>
+  </si>
+  <si>
+    <t>The Outer Worlds</t>
+  </si>
+  <si>
+    <t>Azur Lane: Crosswave</t>
+  </si>
+  <si>
+    <t>Nexomon: Extinction</t>
+  </si>
+  <si>
+    <t>Pathfinder: Kingmaker - Definitive Edition</t>
+  </si>
+  <si>
+    <t>Sephirothic Stories</t>
+  </si>
+  <si>
+    <t>A Plague Tale: Innocence</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1475,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -1847,7 +1870,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -1867,7 +1890,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -2677,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,14 +2716,14 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2735,7 +2758,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2775,7 +2798,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2826,6 +2849,46 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2920,22 +2983,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="317">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -973,6 +973,12 @@
   </si>
   <si>
     <t>A Plague Tale: Innocence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy Fencer F: Advent Dark Force </t>
+  </si>
+  <si>
+    <t>FINAL FANTASY CRYSTAL CHRONICLES Remastered Edition</t>
   </si>
 </sst>
 </file>
@@ -2700,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,44 +2857,54 @@
         <v>275</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>307</v>
+      </c>
+    </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="319">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>FINAL FANTASY CRYSTAL CHRONICLES Remastered Edition</t>
+  </si>
+  <si>
+    <t>WARTILE Complete Edition</t>
+  </si>
+  <si>
+    <t>Nexomon</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -2918,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,6 +2978,16 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
     <sheet name="HD2" sheetId="2" r:id="rId2"/>
     <sheet name="HD3" sheetId="4" r:id="rId3"/>
     <sheet name="disco interno" sheetId="3" r:id="rId4"/>
-    <sheet name="PS3" sheetId="5" r:id="rId5"/>
+    <sheet name="nintendo switch" sheetId="7" r:id="rId5"/>
+    <sheet name="da scaricare" sheetId="6" r:id="rId6"/>
+    <sheet name="PS3" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="336">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -985,6 +987,57 @@
   </si>
   <si>
     <t>Nexomon</t>
+  </si>
+  <si>
+    <t>Tokyo Xanadu eX+</t>
+  </si>
+  <si>
+    <t>SENRAN KAGURA Burst Re:Newal</t>
+  </si>
+  <si>
+    <t>STAR WARS™: Squadrons</t>
+  </si>
+  <si>
+    <t>NAtURAL DOCtRINE</t>
+  </si>
+  <si>
+    <t>Dragon Star Varnir™</t>
+  </si>
+  <si>
+    <t>Planescape: Torment and Icewind Dale: Enhanced Editions</t>
+  </si>
+  <si>
+    <t>Neverwinter Nights: Enhanced Edition</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Breath of the Wild</t>
+  </si>
+  <si>
+    <t>Super Mario 3D World + Bowser's Fury</t>
+  </si>
+  <si>
+    <t>Hyrule Warriors: L'era della calamità</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles™ 2</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Link's awakening</t>
+  </si>
+  <si>
+    <t>Super Mario 3D all stars</t>
+  </si>
+  <si>
+    <t>Super Mario bros U deluxe</t>
+  </si>
+  <si>
+    <t>Blades</t>
+  </si>
+  <si>
+    <t>Super Mario Odyssey</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles definitive edition</t>
   </si>
 </sst>
 </file>
@@ -2712,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2911,6 +2964,31 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2926,9 +3004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2996,6 +3072,106 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="340">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1038,6 +1038,18 @@
   </si>
   <si>
     <t>Xenoblade Chronicles definitive edition</t>
+  </si>
+  <si>
+    <t>Darksiders Genesis</t>
+  </si>
+  <si>
+    <t>WORLD OF FINAL FANTASY</t>
+  </si>
+  <si>
+    <t>inFAMOUS™ First Light</t>
+  </si>
+  <si>
+    <t>Book of Demons</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A146"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -3156,17 +3168,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -2777,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,29 +2978,49 @@
         <v>316</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3168,38 +3188,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HD1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="343">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1050,6 +1050,15 @@
   </si>
   <si>
     <t>Book of Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Gi-Oh! MASTER DUEL </t>
+  </si>
+  <si>
+    <t>Seasons after Fall</t>
+  </si>
+  <si>
+    <t>Shiness The Lightning Kingdom</t>
   </si>
 </sst>
 </file>
@@ -2779,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -3188,17 +3197,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="HD1" sheetId="1" r:id="rId1"/>
-    <sheet name="HD2" sheetId="2" r:id="rId2"/>
-    <sheet name="HD3" sheetId="4" r:id="rId3"/>
-    <sheet name="disco interno" sheetId="3" r:id="rId4"/>
+    <sheet name="PS4-HD1" sheetId="1" r:id="rId1"/>
+    <sheet name="PS4-HD2" sheetId="2" r:id="rId2"/>
+    <sheet name="PS4-HD3" sheetId="4" r:id="rId3"/>
+    <sheet name="PS4-disco interno" sheetId="3" r:id="rId4"/>
     <sheet name="nintendo switch" sheetId="7" r:id="rId5"/>
     <sheet name="da scaricare" sheetId="6" r:id="rId6"/>
     <sheet name="PS3" sheetId="5" r:id="rId7"/>
+    <sheet name="PS2" sheetId="10" r:id="rId8"/>
+    <sheet name="PC" sheetId="9" r:id="rId9"/>
+    <sheet name="TOTALE" sheetId="8" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TOTALE!$A$1:$G$377</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="453">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1059,6 +1065,336 @@
   </si>
   <si>
     <t>Shiness The Lightning Kingdom</t>
+  </si>
+  <si>
+    <t>Titolo</t>
+  </si>
+  <si>
+    <t>Genere</t>
+  </si>
+  <si>
+    <t>Sottogenere</t>
+  </si>
+  <si>
+    <t>Piattaforma</t>
+  </si>
+  <si>
+    <t>Giocato</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>Digitale/Fisico</t>
+  </si>
+  <si>
+    <t>Digitale</t>
+  </si>
+  <si>
+    <t>3D Billiards - Pool and Snooker</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>biliardo</t>
+  </si>
+  <si>
+    <t>schacchi</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>Fighting game</t>
+  </si>
+  <si>
+    <t>sci-fi</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>card game</t>
+  </si>
+  <si>
+    <t>horizon zero dawn + DLC</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>musica</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>aerei</t>
+  </si>
+  <si>
+    <t>image gallery</t>
+  </si>
+  <si>
+    <t>astronavi</t>
+  </si>
+  <si>
+    <t>modalità</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>epico</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>football americano</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>giocati su PS2</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>PlaystationPlus</t>
+  </si>
+  <si>
+    <t>Turni</t>
+  </si>
+  <si>
+    <t>giocato su PS2</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>isometrica</t>
+  </si>
+  <si>
+    <t>in parte</t>
+  </si>
+  <si>
+    <t>librogame</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>naruto shippuden ultimate ninja storm trilogy (1, 2, 3)</t>
+  </si>
+  <si>
+    <t>rhytm</t>
+  </si>
+  <si>
+    <t>varie</t>
+  </si>
+  <si>
+    <t>neve</t>
+  </si>
+  <si>
+    <t>Uncharted 2: Il covo dei ladri</t>
+  </si>
+  <si>
+    <t>uncharted the nathan drake collection (1, 2, 3)</t>
+  </si>
+  <si>
+    <t>mare</t>
+  </si>
+  <si>
+    <t>3D pochi poligoni</t>
+  </si>
+  <si>
+    <t>deserto</t>
+  </si>
+  <si>
+    <t>prato</t>
+  </si>
+  <si>
+    <t>vario</t>
+  </si>
+  <si>
+    <t>final fantasy x | x-2 hd remaster</t>
+  </si>
+  <si>
+    <t>tales of symphonia chronicles</t>
+  </si>
+  <si>
+    <t>enchanted arms</t>
+  </si>
+  <si>
+    <t>sacred 2</t>
+  </si>
+  <si>
+    <t>dante's inferno st. lucia edition</t>
+  </si>
+  <si>
+    <t>Fisico</t>
+  </si>
+  <si>
+    <t>fallout new vegas</t>
+  </si>
+  <si>
+    <t>in corso</t>
+  </si>
+  <si>
+    <t>dragon age II</t>
+  </si>
+  <si>
+    <t>dragon age: origins</t>
+  </si>
+  <si>
+    <t>prince of persia: spirito guerriero</t>
+  </si>
+  <si>
+    <t>prince of persia: i due troni</t>
+  </si>
+  <si>
+    <t>prince of persia: le sabbie del tempo</t>
+  </si>
+  <si>
+    <t>maximo vs army of zin</t>
+  </si>
+  <si>
+    <t>maximo</t>
+  </si>
+  <si>
+    <t>okami hd</t>
+  </si>
+  <si>
+    <t>retro PS2/PS3</t>
+  </si>
+  <si>
+    <t>avatar il gioco</t>
+  </si>
+  <si>
+    <t>eterna sonata</t>
+  </si>
+  <si>
+    <t>kingdom hearts hd II.5 ReMix</t>
+  </si>
+  <si>
+    <t>kingdom hearts hd I.5 ReMix</t>
+  </si>
+  <si>
+    <t>tales of xillia</t>
+  </si>
+  <si>
+    <t>tales of xillia 2</t>
+  </si>
+  <si>
+    <t>tales of graces</t>
+  </si>
+  <si>
+    <t>dead or alive 5</t>
+  </si>
+  <si>
+    <t>star ocean the last hope international</t>
+  </si>
+  <si>
+    <t>gran turismo 5</t>
+  </si>
+  <si>
+    <t>diablo III reaper of souls</t>
+  </si>
+  <si>
+    <t>kingdoms of amalur reckoning</t>
+  </si>
+  <si>
+    <t>cross X edge</t>
+  </si>
+  <si>
+    <t>fallout 3</t>
+  </si>
+  <si>
+    <t>the elder scroll V Skyrim</t>
+  </si>
+  <si>
+    <t>the elder scroll IV Oblivion</t>
+  </si>
+  <si>
+    <t>white knight chronicles</t>
+  </si>
+  <si>
+    <t>white knight chronicles II</t>
+  </si>
+  <si>
+    <t>final fantasy XIII - lightning returns</t>
+  </si>
+  <si>
+    <t>final fantasy XIII - 2</t>
+  </si>
+  <si>
+    <t>final fantasy XIII</t>
+  </si>
+  <si>
+    <t>uncharted 2 - il covo dei ladri</t>
+  </si>
+  <si>
+    <t>demon souls</t>
+  </si>
+  <si>
+    <t>diablo III</t>
+  </si>
+  <si>
+    <t>avventura</t>
+  </si>
+  <si>
+    <t>3D First Person</t>
+  </si>
+  <si>
+    <t>final fantasy XV</t>
+  </si>
+  <si>
+    <t>final fantasy XV multiplayer comrades</t>
+  </si>
+  <si>
+    <t>final fantasy IX</t>
+  </si>
+  <si>
+    <t>prince of persia: Prodigy</t>
+  </si>
+  <si>
+    <t>prince of persia: le sabbie dimenticate</t>
+  </si>
+  <si>
+    <t>Metroid Dread</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Skyward Sword HD</t>
+  </si>
+  <si>
+    <t>Luigi's Mansion 3</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1098,16 +1434,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1390,9 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A146"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2137,13 +2481,5310 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H380"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A381" sqref="A381"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" t="s">
+        <v>407</v>
+      </c>
+      <c r="G26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D41" t="s">
+        <v>354</v>
+      </c>
+      <c r="E41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>431</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" t="s">
+        <v>348</v>
+      </c>
+      <c r="C51" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>406</v>
+      </c>
+      <c r="B52" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>352</v>
+      </c>
+      <c r="D53" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" t="s">
+        <v>358</v>
+      </c>
+      <c r="F53" t="s">
+        <v>444</v>
+      </c>
+      <c r="H53" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>336</v>
+      </c>
+      <c r="B59" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>352</v>
+      </c>
+      <c r="F62" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>426</v>
+      </c>
+      <c r="B63" t="s">
+        <v>350</v>
+      </c>
+      <c r="C63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
+        <v>348</v>
+      </c>
+      <c r="C65" t="s">
+        <v>352</v>
+      </c>
+      <c r="D65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>441</v>
+      </c>
+      <c r="B67" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" t="s">
+        <v>407</v>
+      </c>
+      <c r="G67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C69" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" t="s">
+        <v>357</v>
+      </c>
+      <c r="E69" t="s">
+        <v>358</v>
+      </c>
+      <c r="F69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G69" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>442</v>
+      </c>
+      <c r="B70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" t="s">
+        <v>407</v>
+      </c>
+      <c r="G70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>429</v>
+      </c>
+      <c r="B71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" t="s">
+        <v>407</v>
+      </c>
+      <c r="G71" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" t="s">
+        <v>348</v>
+      </c>
+      <c r="C74" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" t="s">
+        <v>352</v>
+      </c>
+      <c r="D77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>352</v>
+      </c>
+      <c r="D78" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" t="s">
+        <v>377</v>
+      </c>
+      <c r="G78" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79" t="s">
+        <v>382</v>
+      </c>
+      <c r="F79" t="s">
+        <v>377</v>
+      </c>
+      <c r="G79" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" t="s">
+        <v>382</v>
+      </c>
+      <c r="F80" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>410</v>
+      </c>
+      <c r="B81" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="s">
+        <v>352</v>
+      </c>
+      <c r="D82" t="s">
+        <v>357</v>
+      </c>
+      <c r="E82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>411</v>
+      </c>
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C83" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" t="s">
+        <v>352</v>
+      </c>
+      <c r="D84" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>352</v>
+      </c>
+      <c r="D85" t="s">
+        <v>359</v>
+      </c>
+      <c r="E85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" t="s">
+        <v>357</v>
+      </c>
+      <c r="E88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" t="s">
+        <v>357</v>
+      </c>
+      <c r="E89" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="F93" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+      <c r="C95" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" t="s">
+        <v>357</v>
+      </c>
+      <c r="E97" t="s">
+        <v>358</v>
+      </c>
+      <c r="F97" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>348</v>
+      </c>
+      <c r="C100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>420</v>
+      </c>
+      <c r="B103" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" t="s">
+        <v>407</v>
+      </c>
+      <c r="G103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
+        <v>352</v>
+      </c>
+      <c r="D108" t="s">
+        <v>365</v>
+      </c>
+      <c r="E108" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
+        <v>352</v>
+      </c>
+      <c r="D109" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" t="s">
+        <v>373</v>
+      </c>
+      <c r="F109" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" t="s">
+        <v>352</v>
+      </c>
+      <c r="D110" t="s">
+        <v>382</v>
+      </c>
+      <c r="E110" t="s">
+        <v>358</v>
+      </c>
+      <c r="F110" t="s">
+        <v>398</v>
+      </c>
+      <c r="G110" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>248</v>
+      </c>
+      <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>432</v>
+      </c>
+      <c r="B114" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" t="s">
+        <v>357</v>
+      </c>
+      <c r="E114" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" t="s">
+        <v>444</v>
+      </c>
+      <c r="G114" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" t="s">
+        <v>352</v>
+      </c>
+      <c r="D115" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" t="s">
+        <v>360</v>
+      </c>
+      <c r="F115" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" t="s">
+        <v>407</v>
+      </c>
+      <c r="D116" t="s">
+        <v>357</v>
+      </c>
+      <c r="E116" t="s">
+        <v>360</v>
+      </c>
+      <c r="F116" t="s">
+        <v>444</v>
+      </c>
+      <c r="G116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>447</v>
+      </c>
+      <c r="B119" t="s">
+        <v>348</v>
+      </c>
+      <c r="C119" t="s">
+        <v>352</v>
+      </c>
+      <c r="D119" t="s">
+        <v>357</v>
+      </c>
+      <c r="E119" t="s">
+        <v>358</v>
+      </c>
+      <c r="F119" t="s">
+        <v>384</v>
+      </c>
+      <c r="H119" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>226</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" t="s">
+        <v>352</v>
+      </c>
+      <c r="D120" t="s">
+        <v>357</v>
+      </c>
+      <c r="E120" t="s">
+        <v>358</v>
+      </c>
+      <c r="F120" t="s">
+        <v>444</v>
+      </c>
+      <c r="G120" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>402</v>
+      </c>
+      <c r="B121" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121" t="s">
+        <v>407</v>
+      </c>
+      <c r="D121" t="s">
+        <v>357</v>
+      </c>
+      <c r="E121" t="s">
+        <v>358</v>
+      </c>
+      <c r="F121" t="s">
+        <v>384</v>
+      </c>
+      <c r="H121" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" t="s">
+        <v>348</v>
+      </c>
+      <c r="C122" t="s">
+        <v>352</v>
+      </c>
+      <c r="D122" t="s">
+        <v>357</v>
+      </c>
+      <c r="E122" t="s">
+        <v>358</v>
+      </c>
+      <c r="F122" t="s">
+        <v>444</v>
+      </c>
+      <c r="H122" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>439</v>
+      </c>
+      <c r="B123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123" t="s">
+        <v>357</v>
+      </c>
+      <c r="E123" t="s">
+        <v>358</v>
+      </c>
+      <c r="F123" t="s">
+        <v>384</v>
+      </c>
+      <c r="G123" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>438</v>
+      </c>
+      <c r="B124" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" t="s">
+        <v>407</v>
+      </c>
+      <c r="D124" t="s">
+        <v>357</v>
+      </c>
+      <c r="E124" t="s">
+        <v>358</v>
+      </c>
+      <c r="F124" t="s">
+        <v>384</v>
+      </c>
+      <c r="G124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>437</v>
+      </c>
+      <c r="B125" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" t="s">
+        <v>357</v>
+      </c>
+      <c r="E125" t="s">
+        <v>358</v>
+      </c>
+      <c r="F125" t="s">
+        <v>384</v>
+      </c>
+      <c r="G125" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s">
+        <v>348</v>
+      </c>
+      <c r="C126" t="s">
+        <v>352</v>
+      </c>
+      <c r="D126" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126" t="s">
+        <v>358</v>
+      </c>
+      <c r="F126" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>445</v>
+      </c>
+      <c r="B127" t="s">
+        <v>348</v>
+      </c>
+      <c r="C127" t="s">
+        <v>352</v>
+      </c>
+      <c r="D127" t="s">
+        <v>357</v>
+      </c>
+      <c r="E127" t="s">
+        <v>358</v>
+      </c>
+      <c r="F127" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>446</v>
+      </c>
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" t="s">
+        <v>357</v>
+      </c>
+      <c r="E128" t="s">
+        <v>358</v>
+      </c>
+      <c r="F128" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" t="s">
+        <v>354</v>
+      </c>
+      <c r="E129" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" t="s">
+        <v>352</v>
+      </c>
+      <c r="D130" t="s">
+        <v>359</v>
+      </c>
+      <c r="E130" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" t="s">
+        <v>382</v>
+      </c>
+      <c r="E132" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" t="s">
+        <v>352</v>
+      </c>
+      <c r="D133" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>237</v>
+      </c>
+      <c r="B134" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" t="s">
+        <v>352</v>
+      </c>
+      <c r="D134" t="s">
+        <v>357</v>
+      </c>
+      <c r="E134" t="s">
+        <v>358</v>
+      </c>
+      <c r="F134" t="s">
+        <v>444</v>
+      </c>
+      <c r="G134" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>207</v>
+      </c>
+      <c r="B135" t="s">
+        <v>348</v>
+      </c>
+      <c r="C135" t="s">
+        <v>352</v>
+      </c>
+      <c r="D135" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" t="s">
+        <v>352</v>
+      </c>
+      <c r="D136" t="s">
+        <v>357</v>
+      </c>
+      <c r="E136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" t="s">
+        <v>348</v>
+      </c>
+      <c r="C137" t="s">
+        <v>352</v>
+      </c>
+      <c r="D137" t="s">
+        <v>357</v>
+      </c>
+      <c r="E137" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>428</v>
+      </c>
+      <c r="B138" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" t="s">
+        <v>407</v>
+      </c>
+      <c r="G138" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>348</v>
+      </c>
+      <c r="C139" t="s">
+        <v>352</v>
+      </c>
+      <c r="D139" t="s">
+        <v>361</v>
+      </c>
+      <c r="E139" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>291</v>
+      </c>
+      <c r="B140" t="s">
+        <v>348</v>
+      </c>
+      <c r="C140" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" t="s">
+        <v>348</v>
+      </c>
+      <c r="C141" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>107</v>
+      </c>
+      <c r="B142" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" t="s">
+        <v>348</v>
+      </c>
+      <c r="C143" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>348</v>
+      </c>
+      <c r="C145" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" t="s">
+        <v>348</v>
+      </c>
+      <c r="C146" t="s">
+        <v>352</v>
+      </c>
+      <c r="D146" t="s">
+        <v>361</v>
+      </c>
+      <c r="E146" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" t="s">
+        <v>348</v>
+      </c>
+      <c r="C147" t="s">
+        <v>352</v>
+      </c>
+      <c r="D147" t="s">
+        <v>363</v>
+      </c>
+      <c r="E147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" t="s">
+        <v>348</v>
+      </c>
+      <c r="C149" t="s">
+        <v>352</v>
+      </c>
+      <c r="F149" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" t="s">
+        <v>348</v>
+      </c>
+      <c r="C150" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" t="s">
+        <v>348</v>
+      </c>
+      <c r="C152" t="s">
+        <v>352</v>
+      </c>
+      <c r="F152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>364</v>
+      </c>
+      <c r="B153" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" t="s">
+        <v>352</v>
+      </c>
+      <c r="D153" t="s">
+        <v>357</v>
+      </c>
+      <c r="E153" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" t="s">
+        <v>352</v>
+      </c>
+      <c r="D154" t="s">
+        <v>357</v>
+      </c>
+      <c r="E154" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" t="s">
+        <v>348</v>
+      </c>
+      <c r="C155" t="s">
+        <v>352</v>
+      </c>
+      <c r="F155" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>328</v>
+      </c>
+      <c r="B156" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>348</v>
+      </c>
+      <c r="C157" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" t="s">
+        <v>348</v>
+      </c>
+      <c r="C158" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160" t="s">
+        <v>348</v>
+      </c>
+      <c r="C160" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" t="s">
+        <v>352</v>
+      </c>
+      <c r="D161" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" t="s">
+        <v>358</v>
+      </c>
+      <c r="F161" t="s">
+        <v>389</v>
+      </c>
+      <c r="G161" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" t="s">
+        <v>352</v>
+      </c>
+      <c r="D162" t="s">
+        <v>365</v>
+      </c>
+      <c r="E162" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>250</v>
+      </c>
+      <c r="B163" t="s">
+        <v>348</v>
+      </c>
+      <c r="C163" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" t="s">
+        <v>352</v>
+      </c>
+      <c r="F164" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" t="s">
+        <v>352</v>
+      </c>
+      <c r="D165" t="s">
+        <v>382</v>
+      </c>
+      <c r="E165" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+      <c r="C166" t="s">
+        <v>352</v>
+      </c>
+      <c r="D166" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>246</v>
+      </c>
+      <c r="B167" t="s">
+        <v>348</v>
+      </c>
+      <c r="C167" t="s">
+        <v>352</v>
+      </c>
+      <c r="D167" t="s">
+        <v>390</v>
+      </c>
+      <c r="E167" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" t="s">
+        <v>352</v>
+      </c>
+      <c r="F171" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>254</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>241</v>
+      </c>
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>422</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" t="s">
+        <v>407</v>
+      </c>
+      <c r="G177" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>421</v>
+      </c>
+      <c r="B178" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" t="s">
+        <v>407</v>
+      </c>
+      <c r="G178" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179" t="s">
+        <v>348</v>
+      </c>
+      <c r="C179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>430</v>
+      </c>
+      <c r="B180" t="s">
+        <v>350</v>
+      </c>
+      <c r="C180" t="s">
+        <v>407</v>
+      </c>
+      <c r="G180" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" t="s">
+        <v>352</v>
+      </c>
+      <c r="D181" t="s">
+        <v>375</v>
+      </c>
+      <c r="E181" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" t="s">
+        <v>348</v>
+      </c>
+      <c r="C182" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>37</v>
+      </c>
+      <c r="B183" t="s">
+        <v>348</v>
+      </c>
+      <c r="C183" t="s">
+        <v>352</v>
+      </c>
+      <c r="D183" t="s">
+        <v>375</v>
+      </c>
+      <c r="E183" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>249</v>
+      </c>
+      <c r="B184" t="s">
+        <v>348</v>
+      </c>
+      <c r="C184" t="s">
+        <v>352</v>
+      </c>
+      <c r="D184" t="s">
+        <v>375</v>
+      </c>
+      <c r="E184" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" t="s">
+        <v>348</v>
+      </c>
+      <c r="C185" t="s">
+        <v>352</v>
+      </c>
+      <c r="D185" t="s">
+        <v>375</v>
+      </c>
+      <c r="E185" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>298</v>
+      </c>
+      <c r="B186" t="s">
+        <v>350</v>
+      </c>
+      <c r="C186" t="s">
+        <v>352</v>
+      </c>
+      <c r="D186" t="s">
+        <v>357</v>
+      </c>
+      <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
+        <v>444</v>
+      </c>
+      <c r="G186" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>299</v>
+      </c>
+      <c r="B187" t="s">
+        <v>350</v>
+      </c>
+      <c r="C187" t="s">
+        <v>352</v>
+      </c>
+      <c r="D187" t="s">
+        <v>357</v>
+      </c>
+      <c r="E187" t="s">
+        <v>360</v>
+      </c>
+      <c r="F187" t="s">
+        <v>444</v>
+      </c>
+      <c r="G187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>300</v>
+      </c>
+      <c r="B188" t="s">
+        <v>350</v>
+      </c>
+      <c r="C188" t="s">
+        <v>352</v>
+      </c>
+      <c r="D188" t="s">
+        <v>357</v>
+      </c>
+      <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
+        <v>444</v>
+      </c>
+      <c r="G188" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>209</v>
+      </c>
+      <c r="B189" t="s">
+        <v>348</v>
+      </c>
+      <c r="C189" t="s">
+        <v>352</v>
+      </c>
+      <c r="D189" t="s">
+        <v>357</v>
+      </c>
+      <c r="E189" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>416</v>
+      </c>
+      <c r="B190" t="s">
+        <v>418</v>
+      </c>
+      <c r="C190" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>415</v>
+      </c>
+      <c r="B191" t="s">
+        <v>418</v>
+      </c>
+      <c r="C191" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>54</v>
+      </c>
+      <c r="B192" t="s">
+        <v>348</v>
+      </c>
+      <c r="C192" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>189</v>
+      </c>
+      <c r="B193" t="s">
+        <v>348</v>
+      </c>
+      <c r="C193" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>80</v>
+      </c>
+      <c r="B194" t="s">
+        <v>348</v>
+      </c>
+      <c r="C194" t="s">
+        <v>352</v>
+      </c>
+      <c r="D194" t="s">
+        <v>354</v>
+      </c>
+      <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>348</v>
+      </c>
+      <c r="C195" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196" t="s">
+        <v>348</v>
+      </c>
+      <c r="C196" t="s">
+        <v>352</v>
+      </c>
+      <c r="D196" t="s">
+        <v>359</v>
+      </c>
+      <c r="E196" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" t="s">
+        <v>348</v>
+      </c>
+      <c r="C197" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>22</v>
+      </c>
+      <c r="B198" t="s">
+        <v>348</v>
+      </c>
+      <c r="C198" t="s">
+        <v>352</v>
+      </c>
+      <c r="D198" t="s">
+        <v>357</v>
+      </c>
+      <c r="E198" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>266</v>
+      </c>
+      <c r="B199" t="s">
+        <v>348</v>
+      </c>
+      <c r="C199" t="s">
+        <v>352</v>
+      </c>
+      <c r="D199" t="s">
+        <v>359</v>
+      </c>
+      <c r="E199" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>87</v>
+      </c>
+      <c r="B200" t="s">
+        <v>348</v>
+      </c>
+      <c r="C200" t="s">
+        <v>352</v>
+      </c>
+      <c r="D200" t="s">
+        <v>359</v>
+      </c>
+      <c r="E200" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" t="s">
+        <v>348</v>
+      </c>
+      <c r="C201" t="s">
+        <v>352</v>
+      </c>
+      <c r="D201" t="s">
+        <v>359</v>
+      </c>
+      <c r="E201" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" t="s">
+        <v>348</v>
+      </c>
+      <c r="C202" t="s">
+        <v>352</v>
+      </c>
+      <c r="D202" t="s">
+        <v>359</v>
+      </c>
+      <c r="E202" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>322</v>
+      </c>
+      <c r="B203" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204" t="s">
+        <v>348</v>
+      </c>
+      <c r="C204" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>325</v>
+      </c>
+      <c r="B205" t="s">
+        <v>349</v>
+      </c>
+      <c r="C205" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>318</v>
+      </c>
+      <c r="B206" t="s">
+        <v>348</v>
+      </c>
+      <c r="C206" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>311</v>
+      </c>
+      <c r="B207" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>161</v>
+      </c>
+      <c r="B208" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>90</v>
+      </c>
+      <c r="B209" t="s">
+        <v>348</v>
+      </c>
+      <c r="C209" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>92</v>
+      </c>
+      <c r="B210" t="s">
+        <v>348</v>
+      </c>
+      <c r="C210" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" t="s">
+        <v>348</v>
+      </c>
+      <c r="C211" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>261</v>
+      </c>
+      <c r="B212" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>123</v>
+      </c>
+      <c r="B214" t="s">
+        <v>348</v>
+      </c>
+      <c r="C214" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>228</v>
+      </c>
+      <c r="B215" t="s">
+        <v>348</v>
+      </c>
+      <c r="C215" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>151</v>
+      </c>
+      <c r="B216" t="s">
+        <v>348</v>
+      </c>
+      <c r="C216" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>179</v>
+      </c>
+      <c r="B217" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C218" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>267</v>
+      </c>
+      <c r="B219" t="s">
+        <v>348</v>
+      </c>
+      <c r="C219" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>268</v>
+      </c>
+      <c r="B220" t="s">
+        <v>348</v>
+      </c>
+      <c r="C220" t="s">
+        <v>352</v>
+      </c>
+      <c r="D220" t="s">
+        <v>359</v>
+      </c>
+      <c r="E220" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221" t="s">
+        <v>348</v>
+      </c>
+      <c r="C221" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>256</v>
+      </c>
+      <c r="B222" t="s">
+        <v>348</v>
+      </c>
+      <c r="C222" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>62</v>
+      </c>
+      <c r="B223" t="s">
+        <v>348</v>
+      </c>
+      <c r="C223" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>140</v>
+      </c>
+      <c r="B224" t="s">
+        <v>348</v>
+      </c>
+      <c r="C224" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>312</v>
+      </c>
+      <c r="B225" t="s">
+        <v>348</v>
+      </c>
+      <c r="C225" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>184</v>
+      </c>
+      <c r="B226" t="s">
+        <v>348</v>
+      </c>
+      <c r="C226" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>124</v>
+      </c>
+      <c r="B227" t="s">
+        <v>348</v>
+      </c>
+      <c r="C227" t="s">
+        <v>352</v>
+      </c>
+      <c r="D227" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>125</v>
+      </c>
+      <c r="B228" t="s">
+        <v>348</v>
+      </c>
+      <c r="C228" t="s">
+        <v>352</v>
+      </c>
+      <c r="D228" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>294</v>
+      </c>
+      <c r="B229" t="s">
+        <v>348</v>
+      </c>
+      <c r="C229" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>126</v>
+      </c>
+      <c r="B230" t="s">
+        <v>348</v>
+      </c>
+      <c r="C230" t="s">
+        <v>352</v>
+      </c>
+      <c r="D230" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>17</v>
+      </c>
+      <c r="B231" t="s">
+        <v>348</v>
+      </c>
+      <c r="C231" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>244</v>
+      </c>
+      <c r="B232" t="s">
+        <v>348</v>
+      </c>
+      <c r="C232" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>324</v>
+      </c>
+      <c r="B233" t="s">
+        <v>349</v>
+      </c>
+      <c r="C233" t="s">
+        <v>352</v>
+      </c>
+      <c r="D233" t="s">
+        <v>357</v>
+      </c>
+      <c r="E233" t="s">
+        <v>358</v>
+      </c>
+      <c r="F233" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>212</v>
+      </c>
+      <c r="B234" t="s">
+        <v>348</v>
+      </c>
+      <c r="C234" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>129</v>
+      </c>
+      <c r="B235" t="s">
+        <v>348</v>
+      </c>
+      <c r="C235" t="s">
+        <v>352</v>
+      </c>
+      <c r="D235" t="s">
+        <v>375</v>
+      </c>
+      <c r="E235" t="s">
+        <v>360</v>
+      </c>
+      <c r="F235" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>413</v>
+      </c>
+      <c r="B236" t="s">
+        <v>348</v>
+      </c>
+      <c r="C236" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>414</v>
+      </c>
+      <c r="B237" t="s">
+        <v>348</v>
+      </c>
+      <c r="C237" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>449</v>
+      </c>
+      <c r="B238" t="s">
+        <v>350</v>
+      </c>
+      <c r="C238" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>448</v>
+      </c>
+      <c r="B239" t="s">
+        <v>350</v>
+      </c>
+      <c r="C239" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>84</v>
+      </c>
+      <c r="B241" t="s">
+        <v>348</v>
+      </c>
+      <c r="C241" t="s">
+        <v>352</v>
+      </c>
+      <c r="D241" t="s">
+        <v>354</v>
+      </c>
+      <c r="E241" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242" t="s">
+        <v>348</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+      <c r="D242" t="s">
+        <v>354</v>
+      </c>
+      <c r="E242" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>134</v>
+      </c>
+      <c r="B243" t="s">
+        <v>348</v>
+      </c>
+      <c r="C243" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>133</v>
+      </c>
+      <c r="B244" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>135</v>
+      </c>
+      <c r="B245" t="s">
+        <v>348</v>
+      </c>
+      <c r="C245" t="s">
+        <v>352</v>
+      </c>
+      <c r="D245" t="s">
+        <v>365</v>
+      </c>
+      <c r="E245" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>132</v>
+      </c>
+      <c r="B246" t="s">
+        <v>348</v>
+      </c>
+      <c r="C246" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>348</v>
+      </c>
+      <c r="C247" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>196</v>
+      </c>
+      <c r="B249" t="s">
+        <v>348</v>
+      </c>
+      <c r="C249" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>68</v>
+      </c>
+      <c r="B250" t="s">
+        <v>348</v>
+      </c>
+      <c r="C250" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>138</v>
+      </c>
+      <c r="B251" t="s">
+        <v>348</v>
+      </c>
+      <c r="C251" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>96</v>
+      </c>
+      <c r="B252" t="s">
+        <v>348</v>
+      </c>
+      <c r="C252" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>302</v>
+      </c>
+      <c r="B253" t="s">
+        <v>350</v>
+      </c>
+      <c r="C253" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>100</v>
+      </c>
+      <c r="B254" t="s">
+        <v>348</v>
+      </c>
+      <c r="C254" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>168</v>
+      </c>
+      <c r="B255" t="s">
+        <v>348</v>
+      </c>
+      <c r="C255" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>175</v>
+      </c>
+      <c r="B256" t="s">
+        <v>348</v>
+      </c>
+      <c r="C256" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>72</v>
+      </c>
+      <c r="B257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>239</v>
+      </c>
+      <c r="B258" t="s">
+        <v>348</v>
+      </c>
+      <c r="C258" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>405</v>
+      </c>
+      <c r="B259" t="s">
+        <v>350</v>
+      </c>
+      <c r="C259" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>297</v>
+      </c>
+      <c r="B260" t="s">
+        <v>348</v>
+      </c>
+      <c r="C260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>178</v>
+      </c>
+      <c r="B261" t="s">
+        <v>348</v>
+      </c>
+      <c r="C261" t="s">
+        <v>352</v>
+      </c>
+      <c r="D261" t="s">
+        <v>359</v>
+      </c>
+      <c r="E261" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>289</v>
+      </c>
+      <c r="B262" t="s">
+        <v>348</v>
+      </c>
+      <c r="C262" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>283</v>
+      </c>
+      <c r="B263" t="s">
+        <v>348</v>
+      </c>
+      <c r="C263" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>341</v>
+      </c>
+      <c r="B264" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>58</v>
+      </c>
+      <c r="B265" t="s">
+        <v>348</v>
+      </c>
+      <c r="C265" t="s">
+        <v>352</v>
+      </c>
+      <c r="D265" t="s">
+        <v>365</v>
+      </c>
+      <c r="E265" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>320</v>
+      </c>
+      <c r="B266" t="s">
+        <v>348</v>
+      </c>
+      <c r="C266" t="s">
+        <v>352</v>
+      </c>
+      <c r="D266" t="s">
+        <v>359</v>
+      </c>
+      <c r="E266" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>277</v>
+      </c>
+      <c r="B267" t="s">
+        <v>348</v>
+      </c>
+      <c r="C267" t="s">
+        <v>352</v>
+      </c>
+      <c r="D267" t="s">
+        <v>359</v>
+      </c>
+      <c r="E267" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>57</v>
+      </c>
+      <c r="B268" t="s">
+        <v>348</v>
+      </c>
+      <c r="C268" t="s">
+        <v>352</v>
+      </c>
+      <c r="D268" t="s">
+        <v>359</v>
+      </c>
+      <c r="E268" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>313</v>
+      </c>
+      <c r="B269" t="s">
+        <v>348</v>
+      </c>
+      <c r="C269" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>285</v>
+      </c>
+      <c r="B270" t="s">
+        <v>348</v>
+      </c>
+      <c r="C270" t="s">
+        <v>352</v>
+      </c>
+      <c r="D270" t="s">
+        <v>365</v>
+      </c>
+      <c r="E270" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271" t="s">
+        <v>348</v>
+      </c>
+      <c r="C271" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" t="s">
+        <v>348</v>
+      </c>
+      <c r="C273" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>305</v>
+      </c>
+      <c r="B274" t="s">
+        <v>348</v>
+      </c>
+      <c r="C274" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>342</v>
+      </c>
+      <c r="B275" t="s">
+        <v>348</v>
+      </c>
+      <c r="C275" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>145</v>
+      </c>
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277" t="s">
+        <v>348</v>
+      </c>
+      <c r="C277" t="s">
+        <v>352</v>
+      </c>
+      <c r="D277" t="s">
+        <v>390</v>
+      </c>
+      <c r="E277" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>66</v>
+      </c>
+      <c r="B278" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" t="s">
+        <v>352</v>
+      </c>
+      <c r="D278" t="s">
+        <v>390</v>
+      </c>
+      <c r="E278" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>185</v>
+      </c>
+      <c r="B279" t="s">
+        <v>348</v>
+      </c>
+      <c r="C279" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>234</v>
+      </c>
+      <c r="B280" t="s">
+        <v>348</v>
+      </c>
+      <c r="C280" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" t="s">
+        <v>348</v>
+      </c>
+      <c r="C281" t="s">
+        <v>352</v>
+      </c>
+      <c r="D281" t="s">
+        <v>357</v>
+      </c>
+      <c r="E281" t="s">
+        <v>358</v>
+      </c>
+      <c r="F281" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>348</v>
+      </c>
+      <c r="C282" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>223</v>
+      </c>
+      <c r="B283" t="s">
+        <v>348</v>
+      </c>
+      <c r="C283" t="s">
+        <v>352</v>
+      </c>
+      <c r="D283" t="s">
+        <v>354</v>
+      </c>
+      <c r="E283" t="s">
+        <v>393</v>
+      </c>
+      <c r="F283" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>304</v>
+      </c>
+      <c r="B284" t="s">
+        <v>348</v>
+      </c>
+      <c r="C284" t="s">
+        <v>352</v>
+      </c>
+      <c r="D284" t="s">
+        <v>357</v>
+      </c>
+      <c r="E284" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>198</v>
+      </c>
+      <c r="B285" t="s">
+        <v>348</v>
+      </c>
+      <c r="C285" t="s">
+        <v>352</v>
+      </c>
+      <c r="D285" t="s">
+        <v>357</v>
+      </c>
+      <c r="E285" t="s">
+        <v>360</v>
+      </c>
+      <c r="F285" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>427</v>
+      </c>
+      <c r="B286" t="s">
+        <v>350</v>
+      </c>
+      <c r="C286" t="s">
+        <v>407</v>
+      </c>
+      <c r="G286" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>160</v>
+      </c>
+      <c r="B287" t="s">
+        <v>348</v>
+      </c>
+      <c r="C287" t="s">
+        <v>352</v>
+      </c>
+      <c r="D287" t="s">
+        <v>357</v>
+      </c>
+      <c r="E287" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>21</v>
+      </c>
+      <c r="B288" t="s">
+        <v>348</v>
+      </c>
+      <c r="C288" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>153</v>
+      </c>
+      <c r="B289" t="s">
+        <v>348</v>
+      </c>
+      <c r="C289" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>120</v>
+      </c>
+      <c r="B290" t="s">
+        <v>348</v>
+      </c>
+      <c r="C290" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>321</v>
+      </c>
+      <c r="B291" t="s">
+        <v>348</v>
+      </c>
+      <c r="C291" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>109</v>
+      </c>
+      <c r="B292" t="s">
+        <v>348</v>
+      </c>
+      <c r="C292" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>122</v>
+      </c>
+      <c r="B293" t="s">
+        <v>348</v>
+      </c>
+      <c r="C293" t="s">
+        <v>352</v>
+      </c>
+      <c r="D293" t="s">
+        <v>354</v>
+      </c>
+      <c r="E293" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>148</v>
+      </c>
+      <c r="B294" t="s">
+        <v>348</v>
+      </c>
+      <c r="C294" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>204</v>
+      </c>
+      <c r="B295" t="s">
+        <v>348</v>
+      </c>
+      <c r="C295" t="s">
+        <v>352</v>
+      </c>
+      <c r="F295" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>220</v>
+      </c>
+      <c r="B296" t="s">
+        <v>348</v>
+      </c>
+      <c r="C296" t="s">
+        <v>352</v>
+      </c>
+      <c r="D296" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>91</v>
+      </c>
+      <c r="B297" t="s">
+        <v>348</v>
+      </c>
+      <c r="C297" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>53</v>
+      </c>
+      <c r="B298" t="s">
+        <v>348</v>
+      </c>
+      <c r="C298" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>130</v>
+      </c>
+      <c r="B299" t="s">
+        <v>348</v>
+      </c>
+      <c r="C299" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>331</v>
+      </c>
+      <c r="B300" t="s">
+        <v>349</v>
+      </c>
+      <c r="C300" t="s">
+        <v>407</v>
+      </c>
+      <c r="D300" t="s">
+        <v>378</v>
+      </c>
+      <c r="F300" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>327</v>
+      </c>
+      <c r="B301" t="s">
+        <v>349</v>
+      </c>
+      <c r="C301" t="s">
+        <v>352</v>
+      </c>
+      <c r="D301" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>332</v>
+      </c>
+      <c r="B302" t="s">
+        <v>349</v>
+      </c>
+      <c r="C302" t="s">
+        <v>407</v>
+      </c>
+      <c r="D302" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>334</v>
+      </c>
+      <c r="B303" t="s">
+        <v>349</v>
+      </c>
+      <c r="C303" t="s">
+        <v>407</v>
+      </c>
+      <c r="D303" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>61</v>
+      </c>
+      <c r="B304" t="s">
+        <v>348</v>
+      </c>
+      <c r="C304" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>121</v>
+      </c>
+      <c r="B305" t="s">
+        <v>348</v>
+      </c>
+      <c r="C305" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>271</v>
+      </c>
+      <c r="B306" t="s">
+        <v>348</v>
+      </c>
+      <c r="C306" t="s">
+        <v>352</v>
+      </c>
+      <c r="D306" t="s">
+        <v>357</v>
+      </c>
+      <c r="E306" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307" t="s">
+        <v>348</v>
+      </c>
+      <c r="C307" t="s">
+        <v>352</v>
+      </c>
+      <c r="D307" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>40</v>
+      </c>
+      <c r="B308" t="s">
+        <v>348</v>
+      </c>
+      <c r="C308" t="s">
+        <v>352</v>
+      </c>
+      <c r="D308" t="s">
+        <v>357</v>
+      </c>
+      <c r="E308" t="s">
+        <v>358</v>
+      </c>
+      <c r="F308" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>235</v>
+      </c>
+      <c r="B309" t="s">
+        <v>348</v>
+      </c>
+      <c r="C309" t="s">
+        <v>352</v>
+      </c>
+      <c r="D309" t="s">
+        <v>357</v>
+      </c>
+      <c r="E309" t="s">
+        <v>358</v>
+      </c>
+      <c r="F309" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>39</v>
+      </c>
+      <c r="B310" t="s">
+        <v>348</v>
+      </c>
+      <c r="C310" t="s">
+        <v>352</v>
+      </c>
+      <c r="D310" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>425</v>
+      </c>
+      <c r="B311" t="s">
+        <v>350</v>
+      </c>
+      <c r="C311" t="s">
+        <v>407</v>
+      </c>
+      <c r="G311" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>403</v>
+      </c>
+      <c r="B312" t="s">
+        <v>350</v>
+      </c>
+      <c r="C312" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>113</v>
+      </c>
+      <c r="B313" t="s">
+        <v>348</v>
+      </c>
+      <c r="C313" t="s">
+        <v>352</v>
+      </c>
+      <c r="D313" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>423</v>
+      </c>
+      <c r="B314" t="s">
+        <v>350</v>
+      </c>
+      <c r="C314" t="s">
+        <v>407</v>
+      </c>
+      <c r="G314" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>424</v>
+      </c>
+      <c r="B315" t="s">
+        <v>350</v>
+      </c>
+      <c r="C315" t="s">
+        <v>407</v>
+      </c>
+      <c r="G315" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>225</v>
+      </c>
+      <c r="B316" t="s">
+        <v>348</v>
+      </c>
+      <c r="C316" t="s">
+        <v>352</v>
+      </c>
+      <c r="D316" t="s">
+        <v>357</v>
+      </c>
+      <c r="E316" t="s">
+        <v>358</v>
+      </c>
+      <c r="F316" t="s">
+        <v>444</v>
+      </c>
+      <c r="G316" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>171</v>
+      </c>
+      <c r="B317" t="s">
+        <v>348</v>
+      </c>
+      <c r="C317" t="s">
+        <v>352</v>
+      </c>
+      <c r="D317" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>227</v>
+      </c>
+      <c r="B318" t="s">
+        <v>348</v>
+      </c>
+      <c r="C318" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>188</v>
+      </c>
+      <c r="B319" t="s">
+        <v>348</v>
+      </c>
+      <c r="C319" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>211</v>
+      </c>
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>116</v>
+      </c>
+      <c r="B321" t="s">
+        <v>348</v>
+      </c>
+      <c r="C321" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>76</v>
+      </c>
+      <c r="B322" t="s">
+        <v>348</v>
+      </c>
+      <c r="C322" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>434</v>
+      </c>
+      <c r="B323" t="s">
+        <v>350</v>
+      </c>
+      <c r="C323" t="s">
+        <v>407</v>
+      </c>
+      <c r="G323" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>433</v>
+      </c>
+      <c r="B324" t="s">
+        <v>350</v>
+      </c>
+      <c r="C324" t="s">
+        <v>407</v>
+      </c>
+      <c r="G324" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>217</v>
+      </c>
+      <c r="B325" t="s">
+        <v>348</v>
+      </c>
+      <c r="C325" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>191</v>
+      </c>
+      <c r="B326" t="s">
+        <v>348</v>
+      </c>
+      <c r="C326" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>193</v>
+      </c>
+      <c r="B327" t="s">
+        <v>348</v>
+      </c>
+      <c r="C327" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>50</v>
+      </c>
+      <c r="B328" t="s">
+        <v>348</v>
+      </c>
+      <c r="C328" t="s">
+        <v>352</v>
+      </c>
+      <c r="D328" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>104</v>
+      </c>
+      <c r="B329" t="s">
+        <v>348</v>
+      </c>
+      <c r="C329" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>44</v>
+      </c>
+      <c r="B330" t="s">
+        <v>348</v>
+      </c>
+      <c r="C330" t="s">
+        <v>352</v>
+      </c>
+      <c r="D330" t="s">
+        <v>357</v>
+      </c>
+      <c r="E330" t="s">
+        <v>358</v>
+      </c>
+      <c r="F330" t="s">
+        <v>444</v>
+      </c>
+      <c r="G330" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>308</v>
+      </c>
+      <c r="B331" t="s">
+        <v>348</v>
+      </c>
+      <c r="C331" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>307</v>
+      </c>
+      <c r="B332" t="s">
+        <v>348</v>
+      </c>
+      <c r="C332" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>326</v>
+      </c>
+      <c r="B333" t="s">
+        <v>349</v>
+      </c>
+      <c r="C333" t="s">
+        <v>407</v>
+      </c>
+      <c r="D333" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>330</v>
+      </c>
+      <c r="B334" t="s">
+        <v>349</v>
+      </c>
+      <c r="C334" t="s">
+        <v>407</v>
+      </c>
+      <c r="D334" t="s">
+        <v>443</v>
+      </c>
+      <c r="F334" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>117</v>
+      </c>
+      <c r="B335" t="s">
+        <v>348</v>
+      </c>
+      <c r="C335" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>309</v>
+      </c>
+      <c r="B336" t="s">
+        <v>348</v>
+      </c>
+      <c r="C336" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>280</v>
+      </c>
+      <c r="B337" t="s">
+        <v>348</v>
+      </c>
+      <c r="C337" t="s">
+        <v>352</v>
+      </c>
+      <c r="D337" t="s">
+        <v>359</v>
+      </c>
+      <c r="E337" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>165</v>
+      </c>
+      <c r="B338" t="s">
+        <v>348</v>
+      </c>
+      <c r="C338" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>194</v>
+      </c>
+      <c r="B339" t="s">
+        <v>348</v>
+      </c>
+      <c r="C339" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>86</v>
+      </c>
+      <c r="B340" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>26</v>
+      </c>
+      <c r="B341" t="s">
+        <v>348</v>
+      </c>
+      <c r="C341" t="s">
+        <v>352</v>
+      </c>
+      <c r="D341" t="s">
+        <v>357</v>
+      </c>
+      <c r="E341" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>137</v>
+      </c>
+      <c r="B342" t="s">
+        <v>348</v>
+      </c>
+      <c r="C342" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>158</v>
+      </c>
+      <c r="B343" t="s">
+        <v>348</v>
+      </c>
+      <c r="C343" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>136</v>
+      </c>
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>93</v>
+      </c>
+      <c r="B346" t="s">
+        <v>348</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>319</v>
+      </c>
+      <c r="B347" t="s">
+        <v>348</v>
+      </c>
+      <c r="C347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" t="s">
+        <v>352</v>
+      </c>
+      <c r="D348" t="s">
+        <v>375</v>
+      </c>
+      <c r="E348" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>282</v>
+      </c>
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>281</v>
+      </c>
+      <c r="B350" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>36</v>
+      </c>
+      <c r="B351" t="s">
+        <v>348</v>
+      </c>
+      <c r="C351" t="s">
+        <v>352</v>
+      </c>
+      <c r="D351" t="s">
+        <v>357</v>
+      </c>
+      <c r="F351" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>152</v>
+      </c>
+      <c r="B352" t="s">
+        <v>348</v>
+      </c>
+      <c r="C352" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>183</v>
+      </c>
+      <c r="B353" t="s">
+        <v>348</v>
+      </c>
+      <c r="C353" t="s">
+        <v>352</v>
+      </c>
+      <c r="D353" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>440</v>
+      </c>
+      <c r="B354" t="s">
+        <v>350</v>
+      </c>
+      <c r="C354" t="s">
+        <v>407</v>
+      </c>
+      <c r="G354" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>395</v>
+      </c>
+      <c r="B355" t="s">
+        <v>350</v>
+      </c>
+      <c r="D355" t="s">
+        <v>375</v>
+      </c>
+      <c r="E355" t="s">
+        <v>358</v>
+      </c>
+      <c r="F355" t="s">
+        <v>444</v>
+      </c>
+      <c r="G355" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>396</v>
+      </c>
+      <c r="B356" t="s">
+        <v>348</v>
+      </c>
+      <c r="C356" t="s">
+        <v>352</v>
+      </c>
+      <c r="D356" t="s">
+        <v>375</v>
+      </c>
+      <c r="E356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>127</v>
+      </c>
+      <c r="B357" t="s">
+        <v>348</v>
+      </c>
+      <c r="C357" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>348</v>
+      </c>
+      <c r="C358" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>284</v>
+      </c>
+      <c r="B359" t="s">
+        <v>348</v>
+      </c>
+      <c r="C359" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>114</v>
+      </c>
+      <c r="B360" t="s">
+        <v>348</v>
+      </c>
+      <c r="C360" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>24</v>
+      </c>
+      <c r="B361" t="s">
+        <v>348</v>
+      </c>
+      <c r="C361" t="s">
+        <v>352</v>
+      </c>
+      <c r="F361" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>97</v>
+      </c>
+      <c r="B362" t="s">
+        <v>348</v>
+      </c>
+      <c r="C362" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>162</v>
+      </c>
+      <c r="B363" t="s">
+        <v>348</v>
+      </c>
+      <c r="C363" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>16</v>
+      </c>
+      <c r="B364" t="s">
+        <v>348</v>
+      </c>
+      <c r="C364" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365" t="s">
+        <v>348</v>
+      </c>
+      <c r="C365" t="s">
+        <v>352</v>
+      </c>
+      <c r="D365" t="s">
+        <v>365</v>
+      </c>
+      <c r="E365" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>275</v>
+      </c>
+      <c r="B366" t="s">
+        <v>348</v>
+      </c>
+      <c r="C366" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>317</v>
+      </c>
+      <c r="B367" t="s">
+        <v>348</v>
+      </c>
+      <c r="C367" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>435</v>
+      </c>
+      <c r="B368" t="s">
+        <v>350</v>
+      </c>
+      <c r="C368" t="s">
+        <v>407</v>
+      </c>
+      <c r="G368" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>436</v>
+      </c>
+      <c r="B369" t="s">
+        <v>350</v>
+      </c>
+      <c r="C369" t="s">
+        <v>407</v>
+      </c>
+      <c r="G369" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>106</v>
+      </c>
+      <c r="B370" t="s">
+        <v>348</v>
+      </c>
+      <c r="C370" t="s">
+        <v>352</v>
+      </c>
+      <c r="D370" t="s">
+        <v>361</v>
+      </c>
+      <c r="E370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>337</v>
+      </c>
+      <c r="B371" t="s">
+        <v>348</v>
+      </c>
+      <c r="C371" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>73</v>
+      </c>
+      <c r="B372" t="s">
+        <v>348</v>
+      </c>
+      <c r="C372" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>335</v>
+      </c>
+      <c r="B373" t="s">
+        <v>349</v>
+      </c>
+      <c r="C373" t="s">
+        <v>407</v>
+      </c>
+      <c r="D373" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>329</v>
+      </c>
+      <c r="B374" t="s">
+        <v>349</v>
+      </c>
+      <c r="C374" t="s">
+        <v>352</v>
+      </c>
+      <c r="D374" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>255</v>
+      </c>
+      <c r="B375" t="s">
+        <v>348</v>
+      </c>
+      <c r="C375" t="s">
+        <v>352</v>
+      </c>
+      <c r="D375" t="s">
+        <v>363</v>
+      </c>
+      <c r="E375" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>340</v>
+      </c>
+      <c r="B376" t="s">
+        <v>348</v>
+      </c>
+      <c r="C376" t="s">
+        <v>352</v>
+      </c>
+      <c r="D376" t="s">
+        <v>363</v>
+      </c>
+      <c r="E376" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>236</v>
+      </c>
+      <c r="B377" t="s">
+        <v>348</v>
+      </c>
+      <c r="C377" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>450</v>
+      </c>
+      <c r="B378" t="s">
+        <v>349</v>
+      </c>
+      <c r="C378" t="s">
+        <v>352</v>
+      </c>
+      <c r="D378" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>451</v>
+      </c>
+      <c r="B379" t="s">
+        <v>349</v>
+      </c>
+      <c r="C379" t="s">
+        <v>352</v>
+      </c>
+      <c r="D379" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>452</v>
+      </c>
+      <c r="B380" t="s">
+        <v>349</v>
+      </c>
+      <c r="C380" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G377">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Nintendo Switch"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:H377">
+    <sortCondition ref="A2:A377"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2786,11 +8427,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3030,6 +8669,31 @@
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3043,9 +8707,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3097,16 +8763,6 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>318</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3114,10 +8770,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,6 +8846,21 @@
         <v>335</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3197,48 +8868,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3266,7 +8921,231 @@
         <v>302</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PS4-HD1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="TOTALE" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TOTALE!$A$1:$G$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TOTALE!$A$1:$G$380</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="455">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1395,6 +1395,12 @@
   </si>
   <si>
     <t>Luigi's Mansion 3</t>
+  </si>
+  <si>
+    <t>Lords of the Fallen Complete Edition</t>
+  </si>
+  <si>
+    <t>Zenith</t>
   </si>
 </sst>
 </file>
@@ -2483,14 +2489,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H380"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A381" sqref="A381"/>
+      <selection pane="bottomRight" activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2535,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>353</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>229</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -2601,7 +2606,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2697,7 +2702,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>270</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>258</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>419</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>221</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>272</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>276</v>
       </c>
@@ -2980,7 +2985,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>265</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -3030,7 +3035,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -3063,7 +3068,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>218</v>
       </c>
@@ -3113,7 +3118,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>290</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>278</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>431</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>190</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>306</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>406</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -3258,7 +3263,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -3281,7 +3286,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -3303,7 +3308,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -3336,7 +3341,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -3347,7 +3352,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -3372,7 +3377,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>426</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -3400,7 +3405,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>293</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -3439,7 +3444,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>442</v>
       </c>
@@ -3487,7 +3492,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>429</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -3512,7 +3517,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>257</v>
       </c>
@@ -3534,7 +3539,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>296</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>303</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>56</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3610,7 +3615,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -3630,7 +3635,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>410</v>
       </c>
@@ -3641,7 +3646,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>411</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>181</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>295</v>
       </c>
@@ -3768,7 +3773,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>323</v>
       </c>
@@ -3779,7 +3784,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -3790,7 +3795,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +3806,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>208</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3837,7 +3842,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>253</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>60</v>
       </c>
@@ -3901,7 +3906,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>404</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>292</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4021,7 +4026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>248</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>315</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>432</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -4120,7 +4125,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>408</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>95</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>316</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>447</v>
       </c>
@@ -4188,7 +4193,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>226</v>
       </c>
@@ -4211,7 +4216,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>264</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>439</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>438</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>437</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>286</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>445</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>446</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>205</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>83</v>
       </c>
@@ -4448,7 +4453,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>214</v>
       </c>
@@ -4465,7 +4470,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>237</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>207</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -4539,7 +4544,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>428</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>291</v>
       </c>
@@ -4581,7 +4586,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -4592,7 +4597,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>107</v>
       </c>
@@ -4603,7 +4608,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>274</v>
       </c>
@@ -4614,7 +4619,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>105</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>233</v>
       </c>
@@ -4653,7 +4658,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -4670,7 +4675,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>219</v>
       </c>
@@ -4681,7 +4686,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>200</v>
       </c>
@@ -4695,7 +4700,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>262</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>69</v>
       </c>
@@ -4717,7 +4722,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>48</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>364</v>
       </c>
@@ -4748,7 +4753,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +4770,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4801,7 +4806,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>338</v>
       </c>
@@ -4812,7 +4817,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>192</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>108</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>82</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -4888,7 +4893,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>154</v>
       </c>
@@ -4902,7 +4907,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>186</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -4933,7 +4938,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>246</v>
       </c>
@@ -4950,7 +4955,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>251</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>252</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>247</v>
       </c>
@@ -4983,7 +4988,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>163</v>
       </c>
@@ -4997,7 +5002,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>254</v>
       </c>
@@ -5008,7 +5013,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>94</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>118</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>241</v>
       </c>
@@ -5041,7 +5046,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>242</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>422</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>421</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>243</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>430</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>55</v>
       </c>
@@ -5133,7 +5138,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -5167,7 +5172,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -5184,55 +5189,31 @@
         <v>360</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>453</v>
+      </c>
+      <c r="B186" t="s">
+        <v>348</v>
+      </c>
+      <c r="C186" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>452</v>
+      </c>
+      <c r="B187" t="s">
+        <v>349</v>
+      </c>
+      <c r="C187" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>298</v>
-      </c>
-      <c r="B186" t="s">
-        <v>350</v>
-      </c>
-      <c r="C186" t="s">
-        <v>352</v>
-      </c>
-      <c r="D186" t="s">
-        <v>357</v>
-      </c>
-      <c r="E186" t="s">
-        <v>360</v>
-      </c>
-      <c r="F186" t="s">
-        <v>444</v>
-      </c>
-      <c r="G186" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>299</v>
-      </c>
-      <c r="B187" t="s">
-        <v>350</v>
-      </c>
-      <c r="C187" t="s">
-        <v>352</v>
-      </c>
-      <c r="D187" t="s">
-        <v>357</v>
-      </c>
-      <c r="E187" t="s">
-        <v>360</v>
-      </c>
-      <c r="F187" t="s">
-        <v>444</v>
-      </c>
-      <c r="G187" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>300</v>
       </c>
       <c r="B188" t="s">
         <v>350</v>
@@ -5253,12 +5234,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="B189" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C189" t="s">
         <v>352</v>
@@ -5269,130 +5250,145 @@
       <c r="E189" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>444</v>
+      </c>
+      <c r="G189" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>300</v>
+      </c>
+      <c r="B190" t="s">
+        <v>350</v>
+      </c>
+      <c r="C190" t="s">
+        <v>352</v>
+      </c>
+      <c r="D190" t="s">
+        <v>357</v>
+      </c>
+      <c r="E190" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" t="s">
+        <v>444</v>
+      </c>
+      <c r="G190" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191" t="s">
+        <v>348</v>
+      </c>
+      <c r="C191" t="s">
+        <v>352</v>
+      </c>
+      <c r="D191" t="s">
+        <v>357</v>
+      </c>
+      <c r="E191" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>416</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
         <v>418</v>
       </c>
-      <c r="C190" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C192" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>415</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B193" t="s">
         <v>418</v>
       </c>
-      <c r="C191" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C193" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>450</v>
+      </c>
+      <c r="B194" t="s">
+        <v>349</v>
+      </c>
+      <c r="C194" t="s">
+        <v>352</v>
+      </c>
+      <c r="D194" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>54</v>
       </c>
-      <c r="B192" t="s">
-        <v>348</v>
-      </c>
-      <c r="C192" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B195" t="s">
+        <v>348</v>
+      </c>
+      <c r="C195" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>189</v>
       </c>
-      <c r="B193" t="s">
-        <v>348</v>
-      </c>
-      <c r="C193" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B196" t="s">
+        <v>348</v>
+      </c>
+      <c r="C196" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>80</v>
       </c>
-      <c r="B194" t="s">
-        <v>348</v>
-      </c>
-      <c r="C194" t="s">
-        <v>352</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="B197" t="s">
+        <v>348</v>
+      </c>
+      <c r="C197" t="s">
+        <v>352</v>
+      </c>
+      <c r="D197" t="s">
         <v>354</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E197" t="s">
         <v>386</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F197" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>222</v>
       </c>
-      <c r="B195" t="s">
-        <v>348</v>
-      </c>
-      <c r="C195" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B198" t="s">
+        <v>348</v>
+      </c>
+      <c r="C198" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>52</v>
-      </c>
-      <c r="B196" t="s">
-        <v>348</v>
-      </c>
-      <c r="C196" t="s">
-        <v>352</v>
-      </c>
-      <c r="D196" t="s">
-        <v>359</v>
-      </c>
-      <c r="E196" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>139</v>
-      </c>
-      <c r="B197" t="s">
-        <v>348</v>
-      </c>
-      <c r="C197" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>22</v>
-      </c>
-      <c r="B198" t="s">
-        <v>348</v>
-      </c>
-      <c r="C198" t="s">
-        <v>352</v>
-      </c>
-      <c r="D198" t="s">
-        <v>357</v>
-      </c>
-      <c r="E198" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>266</v>
       </c>
       <c r="B199" t="s">
         <v>348</v>
@@ -5407,9 +5403,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B200" t="s">
         <v>348</v>
@@ -5417,16 +5413,10 @@
       <c r="C200" t="s">
         <v>352</v>
       </c>
-      <c r="D200" t="s">
-        <v>359</v>
-      </c>
-      <c r="E200" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>22</v>
       </c>
       <c r="B201" t="s">
         <v>348</v>
@@ -5435,15 +5425,15 @@
         <v>352</v>
       </c>
       <c r="D201" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E201" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="B202" t="s">
         <v>348</v>
@@ -5455,324 +5445,336 @@
         <v>359</v>
       </c>
       <c r="E202" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>87</v>
+      </c>
+      <c r="B203" t="s">
+        <v>348</v>
+      </c>
+      <c r="C203" t="s">
+        <v>352</v>
+      </c>
+      <c r="D203" t="s">
+        <v>359</v>
+      </c>
+      <c r="E203" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>322</v>
-      </c>
-      <c r="B203" t="s">
-        <v>348</v>
-      </c>
-      <c r="C203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="B204" t="s">
         <v>348</v>
       </c>
       <c r="C204" t="s">
         <v>352</v>
+      </c>
+      <c r="D204" t="s">
+        <v>359</v>
+      </c>
+      <c r="E204" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" t="s">
+        <v>348</v>
+      </c>
+      <c r="C205" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" t="s">
+        <v>359</v>
+      </c>
+      <c r="E205" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>322</v>
+      </c>
+      <c r="B206" t="s">
+        <v>348</v>
+      </c>
+      <c r="C206" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>325</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B208" t="s">
         <v>349</v>
       </c>
-      <c r="C205" t="s">
-        <v>352</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C208" t="s">
+        <v>352</v>
+      </c>
+      <c r="D208" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>318</v>
       </c>
-      <c r="B206" t="s">
-        <v>348</v>
-      </c>
-      <c r="C206" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B209" t="s">
+        <v>348</v>
+      </c>
+      <c r="C209" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>311</v>
       </c>
-      <c r="B207" t="s">
-        <v>348</v>
-      </c>
-      <c r="C207" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B210" t="s">
+        <v>348</v>
+      </c>
+      <c r="C210" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>161</v>
       </c>
-      <c r="B208" t="s">
-        <v>348</v>
-      </c>
-      <c r="C208" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B211" t="s">
+        <v>348</v>
+      </c>
+      <c r="C211" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>90</v>
       </c>
-      <c r="B209" t="s">
-        <v>348</v>
-      </c>
-      <c r="C209" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B212" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>92</v>
       </c>
-      <c r="B210" t="s">
-        <v>348</v>
-      </c>
-      <c r="C210" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B213" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>38</v>
       </c>
-      <c r="B211" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B214" t="s">
+        <v>348</v>
+      </c>
+      <c r="C214" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>261</v>
       </c>
-      <c r="B212" t="s">
-        <v>348</v>
-      </c>
-      <c r="C212" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B215" t="s">
+        <v>348</v>
+      </c>
+      <c r="C215" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>417</v>
       </c>
-      <c r="B213" t="s">
-        <v>348</v>
-      </c>
-      <c r="C213" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B216" t="s">
+        <v>348</v>
+      </c>
+      <c r="C216" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>123</v>
       </c>
-      <c r="B214" t="s">
-        <v>348</v>
-      </c>
-      <c r="C214" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B217" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>228</v>
       </c>
-      <c r="B215" t="s">
-        <v>348</v>
-      </c>
-      <c r="C215" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C218" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>151</v>
       </c>
-      <c r="B216" t="s">
-        <v>348</v>
-      </c>
-      <c r="C216" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B219" t="s">
+        <v>348</v>
+      </c>
+      <c r="C219" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>179</v>
       </c>
-      <c r="B217" t="s">
-        <v>348</v>
-      </c>
-      <c r="C217" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B220" t="s">
+        <v>348</v>
+      </c>
+      <c r="C220" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>245</v>
       </c>
-      <c r="B218" t="s">
-        <v>348</v>
-      </c>
-      <c r="C218" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B221" t="s">
+        <v>348</v>
+      </c>
+      <c r="C221" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>267</v>
       </c>
-      <c r="B219" t="s">
-        <v>348</v>
-      </c>
-      <c r="C219" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B222" t="s">
+        <v>348</v>
+      </c>
+      <c r="C222" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>268</v>
       </c>
-      <c r="B220" t="s">
-        <v>348</v>
-      </c>
-      <c r="C220" t="s">
-        <v>352</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="B223" t="s">
+        <v>348</v>
+      </c>
+      <c r="C223" t="s">
+        <v>352</v>
+      </c>
+      <c r="D223" t="s">
         <v>359</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E223" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>67</v>
       </c>
-      <c r="B221" t="s">
-        <v>348</v>
-      </c>
-      <c r="C221" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B224" t="s">
+        <v>348</v>
+      </c>
+      <c r="C224" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>256</v>
       </c>
-      <c r="B222" t="s">
-        <v>348</v>
-      </c>
-      <c r="C222" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B225" t="s">
+        <v>348</v>
+      </c>
+      <c r="C225" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>62</v>
       </c>
-      <c r="B223" t="s">
-        <v>348</v>
-      </c>
-      <c r="C223" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B226" t="s">
+        <v>348</v>
+      </c>
+      <c r="C226" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>140</v>
       </c>
-      <c r="B224" t="s">
-        <v>348</v>
-      </c>
-      <c r="C224" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B227" t="s">
+        <v>348</v>
+      </c>
+      <c r="C227" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>312</v>
       </c>
-      <c r="B225" t="s">
-        <v>348</v>
-      </c>
-      <c r="C225" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B228" t="s">
+        <v>348</v>
+      </c>
+      <c r="C228" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>184</v>
       </c>
-      <c r="B226" t="s">
-        <v>348</v>
-      </c>
-      <c r="C226" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B229" t="s">
+        <v>348</v>
+      </c>
+      <c r="C229" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>124</v>
-      </c>
-      <c r="B227" t="s">
-        <v>348</v>
-      </c>
-      <c r="C227" t="s">
-        <v>352</v>
-      </c>
-      <c r="D227" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>125</v>
-      </c>
-      <c r="B228" t="s">
-        <v>348</v>
-      </c>
-      <c r="C228" t="s">
-        <v>352</v>
-      </c>
-      <c r="D228" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>294</v>
-      </c>
-      <c r="B229" t="s">
-        <v>348</v>
-      </c>
-      <c r="C229" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>126</v>
       </c>
       <c r="B230" t="s">
         <v>348</v>
@@ -5784,9 +5786,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B231" t="s">
         <v>348</v>
@@ -5794,10 +5796,13 @@
       <c r="C231" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="B232" t="s">
         <v>348</v>
@@ -5808,670 +5813,655 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>126</v>
+      </c>
+      <c r="B233" t="s">
+        <v>348</v>
+      </c>
+      <c r="C233" t="s">
+        <v>352</v>
+      </c>
+      <c r="D233" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" t="s">
+        <v>348</v>
+      </c>
+      <c r="C234" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>244</v>
+      </c>
+      <c r="B235" t="s">
+        <v>348</v>
+      </c>
+      <c r="C235" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>324</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B236" t="s">
         <v>349</v>
       </c>
-      <c r="C233" t="s">
-        <v>352</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="C236" t="s">
+        <v>352</v>
+      </c>
+      <c r="D236" t="s">
         <v>357</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E236" t="s">
         <v>358</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F236" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>212</v>
       </c>
-      <c r="B234" t="s">
-        <v>348</v>
-      </c>
-      <c r="C234" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B237" t="s">
+        <v>348</v>
+      </c>
+      <c r="C237" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>129</v>
       </c>
-      <c r="B235" t="s">
-        <v>348</v>
-      </c>
-      <c r="C235" t="s">
-        <v>352</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="B238" t="s">
+        <v>348</v>
+      </c>
+      <c r="C238" t="s">
+        <v>352</v>
+      </c>
+      <c r="D238" t="s">
         <v>375</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E238" t="s">
         <v>360</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F238" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>413</v>
       </c>
-      <c r="B236" t="s">
-        <v>348</v>
-      </c>
-      <c r="C236" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B239" t="s">
+        <v>348</v>
+      </c>
+      <c r="C239" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>414</v>
       </c>
-      <c r="B237" t="s">
-        <v>348</v>
-      </c>
-      <c r="C237" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B240" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>449</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B241" t="s">
         <v>350</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C241" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>448</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B242" t="s">
         <v>350</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C242" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>412</v>
       </c>
-      <c r="B240" t="s">
-        <v>348</v>
-      </c>
-      <c r="C240" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B243" t="s">
+        <v>348</v>
+      </c>
+      <c r="C243" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>84</v>
       </c>
-      <c r="B241" t="s">
-        <v>348</v>
-      </c>
-      <c r="C241" t="s">
-        <v>352</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="B244" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244" t="s">
+        <v>352</v>
+      </c>
+      <c r="D244" t="s">
         <v>354</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E244" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>51</v>
       </c>
-      <c r="B242" t="s">
-        <v>348</v>
-      </c>
-      <c r="C242" t="s">
-        <v>352</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="B245" t="s">
+        <v>348</v>
+      </c>
+      <c r="C245" t="s">
+        <v>352</v>
+      </c>
+      <c r="D245" t="s">
         <v>354</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E245" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>134</v>
       </c>
-      <c r="B243" t="s">
-        <v>348</v>
-      </c>
-      <c r="C243" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B246" t="s">
+        <v>348</v>
+      </c>
+      <c r="C246" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>133</v>
       </c>
-      <c r="B244" t="s">
-        <v>348</v>
-      </c>
-      <c r="C244" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B247" t="s">
+        <v>348</v>
+      </c>
+      <c r="C247" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>135</v>
       </c>
-      <c r="B245" t="s">
-        <v>348</v>
-      </c>
-      <c r="C245" t="s">
-        <v>352</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="B248" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" t="s">
+        <v>352</v>
+      </c>
+      <c r="D248" t="s">
         <v>365</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E248" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>132</v>
       </c>
-      <c r="B246" t="s">
-        <v>348</v>
-      </c>
-      <c r="C246" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B249" t="s">
+        <v>348</v>
+      </c>
+      <c r="C249" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>7</v>
       </c>
-      <c r="B247" t="s">
-        <v>348</v>
-      </c>
-      <c r="C247" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B250" t="s">
+        <v>348</v>
+      </c>
+      <c r="C250" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>6</v>
       </c>
-      <c r="B248" t="s">
-        <v>348</v>
-      </c>
-      <c r="C248" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B251" t="s">
+        <v>348</v>
+      </c>
+      <c r="C251" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>196</v>
       </c>
-      <c r="B249" t="s">
-        <v>348</v>
-      </c>
-      <c r="C249" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B252" t="s">
+        <v>348</v>
+      </c>
+      <c r="C252" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>68</v>
       </c>
-      <c r="B250" t="s">
-        <v>348</v>
-      </c>
-      <c r="C250" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B253" t="s">
+        <v>348</v>
+      </c>
+      <c r="C253" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>138</v>
       </c>
-      <c r="B251" t="s">
-        <v>348</v>
-      </c>
-      <c r="C251" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B254" t="s">
+        <v>348</v>
+      </c>
+      <c r="C254" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>96</v>
       </c>
-      <c r="B252" t="s">
-        <v>348</v>
-      </c>
-      <c r="C252" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B255" t="s">
+        <v>348</v>
+      </c>
+      <c r="C255" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>302</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B256" t="s">
         <v>350</v>
       </c>
-      <c r="C253" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="C256" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>100</v>
       </c>
-      <c r="B254" t="s">
-        <v>348</v>
-      </c>
-      <c r="C254" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>168</v>
       </c>
-      <c r="B255" t="s">
-        <v>348</v>
-      </c>
-      <c r="C255" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="B258" t="s">
+        <v>348</v>
+      </c>
+      <c r="C258" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>175</v>
       </c>
-      <c r="B256" t="s">
-        <v>348</v>
-      </c>
-      <c r="C256" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B259" t="s">
+        <v>348</v>
+      </c>
+      <c r="C259" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>72</v>
       </c>
-      <c r="B257" t="s">
-        <v>348</v>
-      </c>
-      <c r="C257" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B260" t="s">
+        <v>348</v>
+      </c>
+      <c r="C260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>239</v>
       </c>
-      <c r="B258" t="s">
-        <v>348</v>
-      </c>
-      <c r="C258" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B261" t="s">
+        <v>348</v>
+      </c>
+      <c r="C261" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>405</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B262" t="s">
         <v>350</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C262" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>297</v>
       </c>
-      <c r="B260" t="s">
-        <v>348</v>
-      </c>
-      <c r="C260" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B263" t="s">
+        <v>348</v>
+      </c>
+      <c r="C263" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>178</v>
       </c>
-      <c r="B261" t="s">
-        <v>348</v>
-      </c>
-      <c r="C261" t="s">
-        <v>352</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="B264" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" t="s">
+        <v>352</v>
+      </c>
+      <c r="D264" t="s">
         <v>359</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E264" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>289</v>
       </c>
-      <c r="B262" t="s">
-        <v>348</v>
-      </c>
-      <c r="C262" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B265" t="s">
+        <v>348</v>
+      </c>
+      <c r="C265" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>283</v>
       </c>
-      <c r="B263" t="s">
-        <v>348</v>
-      </c>
-      <c r="C263" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B266" t="s">
+        <v>348</v>
+      </c>
+      <c r="C266" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>341</v>
       </c>
-      <c r="B264" t="s">
-        <v>348</v>
-      </c>
-      <c r="C264" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B267" t="s">
+        <v>348</v>
+      </c>
+      <c r="C267" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>58</v>
       </c>
-      <c r="B265" t="s">
-        <v>348</v>
-      </c>
-      <c r="C265" t="s">
-        <v>352</v>
-      </c>
-      <c r="D265" t="s">
+      <c r="B268" t="s">
+        <v>348</v>
+      </c>
+      <c r="C268" t="s">
+        <v>352</v>
+      </c>
+      <c r="D268" t="s">
         <v>365</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E268" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>320</v>
       </c>
-      <c r="B266" t="s">
-        <v>348</v>
-      </c>
-      <c r="C266" t="s">
-        <v>352</v>
-      </c>
-      <c r="D266" t="s">
+      <c r="B269" t="s">
+        <v>348</v>
+      </c>
+      <c r="C269" t="s">
+        <v>352</v>
+      </c>
+      <c r="D269" t="s">
         <v>359</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E269" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>277</v>
       </c>
-      <c r="B267" t="s">
-        <v>348</v>
-      </c>
-      <c r="C267" t="s">
-        <v>352</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="B270" t="s">
+        <v>348</v>
+      </c>
+      <c r="C270" t="s">
+        <v>352</v>
+      </c>
+      <c r="D270" t="s">
         <v>359</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E270" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>57</v>
       </c>
-      <c r="B268" t="s">
-        <v>348</v>
-      </c>
-      <c r="C268" t="s">
-        <v>352</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="B271" t="s">
+        <v>348</v>
+      </c>
+      <c r="C271" t="s">
+        <v>352</v>
+      </c>
+      <c r="D271" t="s">
         <v>359</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E271" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>313</v>
       </c>
-      <c r="B269" t="s">
-        <v>348</v>
-      </c>
-      <c r="C269" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B272" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>285</v>
       </c>
-      <c r="B270" t="s">
-        <v>348</v>
-      </c>
-      <c r="C270" t="s">
-        <v>352</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="B273" t="s">
+        <v>348</v>
+      </c>
+      <c r="C273" t="s">
+        <v>352</v>
+      </c>
+      <c r="D273" t="s">
         <v>365</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E273" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>279</v>
       </c>
-      <c r="B271" t="s">
-        <v>348</v>
-      </c>
-      <c r="C271" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B274" t="s">
+        <v>348</v>
+      </c>
+      <c r="C274" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>8</v>
       </c>
-      <c r="B272" t="s">
-        <v>348</v>
-      </c>
-      <c r="C272" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="B275" t="s">
+        <v>348</v>
+      </c>
+      <c r="C275" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>9</v>
       </c>
-      <c r="B273" t="s">
-        <v>348</v>
-      </c>
-      <c r="C273" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>305</v>
       </c>
-      <c r="B274" t="s">
-        <v>348</v>
-      </c>
-      <c r="C274" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B277" t="s">
+        <v>348</v>
+      </c>
+      <c r="C277" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>342</v>
       </c>
-      <c r="B275" t="s">
-        <v>348</v>
-      </c>
-      <c r="C275" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B278" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>145</v>
       </c>
-      <c r="B276" t="s">
-        <v>348</v>
-      </c>
-      <c r="C276" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="B279" t="s">
+        <v>348</v>
+      </c>
+      <c r="C279" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>273</v>
       </c>
-      <c r="B277" t="s">
-        <v>348</v>
-      </c>
-      <c r="C277" t="s">
-        <v>352</v>
-      </c>
-      <c r="D277" t="s">
+      <c r="B280" t="s">
+        <v>348</v>
+      </c>
+      <c r="C280" t="s">
+        <v>352</v>
+      </c>
+      <c r="D280" t="s">
         <v>390</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E280" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>66</v>
       </c>
-      <c r="B278" t="s">
-        <v>348</v>
-      </c>
-      <c r="C278" t="s">
-        <v>352</v>
-      </c>
-      <c r="D278" t="s">
+      <c r="B281" t="s">
+        <v>348</v>
+      </c>
+      <c r="C281" t="s">
+        <v>352</v>
+      </c>
+      <c r="D281" t="s">
         <v>390</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E281" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>185</v>
       </c>
-      <c r="B279" t="s">
-        <v>348</v>
-      </c>
-      <c r="C279" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B282" t="s">
+        <v>348</v>
+      </c>
+      <c r="C282" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>234</v>
       </c>
-      <c r="B280" t="s">
-        <v>348</v>
-      </c>
-      <c r="C280" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B283" t="s">
+        <v>348</v>
+      </c>
+      <c r="C283" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>19</v>
-      </c>
-      <c r="B281" t="s">
-        <v>348</v>
-      </c>
-      <c r="C281" t="s">
-        <v>352</v>
-      </c>
-      <c r="D281" t="s">
-        <v>357</v>
-      </c>
-      <c r="E281" t="s">
-        <v>358</v>
-      </c>
-      <c r="F281" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>0</v>
-      </c>
-      <c r="B282" t="s">
-        <v>348</v>
-      </c>
-      <c r="C282" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>223</v>
-      </c>
-      <c r="B283" t="s">
-        <v>348</v>
-      </c>
-      <c r="C283" t="s">
-        <v>352</v>
-      </c>
-      <c r="D283" t="s">
-        <v>354</v>
-      </c>
-      <c r="E283" t="s">
-        <v>393</v>
-      </c>
-      <c r="F283" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>304</v>
       </c>
       <c r="B284" t="s">
         <v>348</v>
@@ -6483,12 +6473,15 @@
         <v>357</v>
       </c>
       <c r="E284" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F284" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="B285" t="s">
         <v>348</v>
@@ -6496,33 +6489,30 @@
       <c r="C285" t="s">
         <v>352</v>
       </c>
-      <c r="D285" t="s">
-        <v>357</v>
-      </c>
-      <c r="E285" t="s">
-        <v>360</v>
-      </c>
-      <c r="F285" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>427</v>
+        <v>223</v>
       </c>
       <c r="B286" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C286" t="s">
-        <v>407</v>
-      </c>
-      <c r="G286" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D286" t="s">
+        <v>354</v>
+      </c>
+      <c r="E286" t="s">
+        <v>393</v>
+      </c>
+      <c r="F286" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B287" t="s">
         <v>348</v>
@@ -6537,198 +6527,204 @@
         <v>360</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>198</v>
+      </c>
+      <c r="B288" t="s">
+        <v>348</v>
+      </c>
+      <c r="C288" t="s">
+        <v>352</v>
+      </c>
+      <c r="D288" t="s">
+        <v>357</v>
+      </c>
+      <c r="E288" t="s">
+        <v>360</v>
+      </c>
+      <c r="F288" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>427</v>
+      </c>
+      <c r="B289" t="s">
+        <v>350</v>
+      </c>
+      <c r="C289" t="s">
+        <v>407</v>
+      </c>
+      <c r="G289" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>160</v>
+      </c>
+      <c r="B290" t="s">
+        <v>348</v>
+      </c>
+      <c r="C290" t="s">
+        <v>352</v>
+      </c>
+      <c r="D290" t="s">
+        <v>357</v>
+      </c>
+      <c r="E290" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>21</v>
       </c>
-      <c r="B288" t="s">
-        <v>348</v>
-      </c>
-      <c r="C288" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B291" t="s">
+        <v>348</v>
+      </c>
+      <c r="C291" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>153</v>
       </c>
-      <c r="B289" t="s">
-        <v>348</v>
-      </c>
-      <c r="C289" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B292" t="s">
+        <v>348</v>
+      </c>
+      <c r="C292" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>120</v>
       </c>
-      <c r="B290" t="s">
-        <v>348</v>
-      </c>
-      <c r="C290" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B293" t="s">
+        <v>348</v>
+      </c>
+      <c r="C293" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>321</v>
       </c>
-      <c r="B291" t="s">
-        <v>348</v>
-      </c>
-      <c r="C291" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B294" t="s">
+        <v>348</v>
+      </c>
+      <c r="C294" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>109</v>
       </c>
-      <c r="B292" t="s">
-        <v>348</v>
-      </c>
-      <c r="C292" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="B295" t="s">
+        <v>348</v>
+      </c>
+      <c r="C295" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>122</v>
       </c>
-      <c r="B293" t="s">
-        <v>348</v>
-      </c>
-      <c r="C293" t="s">
-        <v>352</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="B296" t="s">
+        <v>348</v>
+      </c>
+      <c r="C296" t="s">
+        <v>352</v>
+      </c>
+      <c r="D296" t="s">
         <v>354</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E296" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>148</v>
       </c>
-      <c r="B294" t="s">
-        <v>348</v>
-      </c>
-      <c r="C294" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B297" t="s">
+        <v>348</v>
+      </c>
+      <c r="C297" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>204</v>
       </c>
-      <c r="B295" t="s">
-        <v>348</v>
-      </c>
-      <c r="C295" t="s">
-        <v>352</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="B298" t="s">
+        <v>348</v>
+      </c>
+      <c r="C298" t="s">
+        <v>352</v>
+      </c>
+      <c r="F298" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>220</v>
       </c>
-      <c r="B296" t="s">
-        <v>348</v>
-      </c>
-      <c r="C296" t="s">
-        <v>352</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="B299" t="s">
+        <v>348</v>
+      </c>
+      <c r="C299" t="s">
+        <v>352</v>
+      </c>
+      <c r="D299" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>91</v>
       </c>
-      <c r="B297" t="s">
-        <v>348</v>
-      </c>
-      <c r="C297" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B300" t="s">
+        <v>348</v>
+      </c>
+      <c r="C300" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>53</v>
       </c>
-      <c r="B298" t="s">
-        <v>348</v>
-      </c>
-      <c r="C298" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B301" t="s">
+        <v>348</v>
+      </c>
+      <c r="C301" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>130</v>
       </c>
-      <c r="B299" t="s">
-        <v>348</v>
-      </c>
-      <c r="C299" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B302" t="s">
+        <v>348</v>
+      </c>
+      <c r="C302" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>331</v>
-      </c>
-      <c r="B300" t="s">
-        <v>349</v>
-      </c>
-      <c r="C300" t="s">
-        <v>407</v>
-      </c>
-      <c r="D300" t="s">
-        <v>378</v>
-      </c>
-      <c r="F300" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>327</v>
-      </c>
-      <c r="B301" t="s">
-        <v>349</v>
-      </c>
-      <c r="C301" t="s">
-        <v>352</v>
-      </c>
-      <c r="D301" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>332</v>
-      </c>
-      <c r="B302" t="s">
-        <v>349</v>
-      </c>
-      <c r="C302" t="s">
-        <v>407</v>
-      </c>
-      <c r="D302" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>334</v>
       </c>
       <c r="B303" t="s">
         <v>349</v>
@@ -6739,83 +6735,77 @@
       <c r="D303" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F303" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>327</v>
+      </c>
+      <c r="B304" t="s">
+        <v>349</v>
+      </c>
+      <c r="C304" t="s">
+        <v>352</v>
+      </c>
+      <c r="D304" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>332</v>
+      </c>
+      <c r="B305" t="s">
+        <v>349</v>
+      </c>
+      <c r="C305" t="s">
+        <v>407</v>
+      </c>
+      <c r="D305" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>334</v>
+      </c>
+      <c r="B306" t="s">
+        <v>349</v>
+      </c>
+      <c r="C306" t="s">
+        <v>407</v>
+      </c>
+      <c r="D306" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>61</v>
       </c>
-      <c r="B304" t="s">
-        <v>348</v>
-      </c>
-      <c r="C304" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B307" t="s">
+        <v>348</v>
+      </c>
+      <c r="C307" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>121</v>
       </c>
-      <c r="B305" t="s">
-        <v>348</v>
-      </c>
-      <c r="C305" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B308" t="s">
+        <v>348</v>
+      </c>
+      <c r="C308" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>271</v>
-      </c>
-      <c r="B306" t="s">
-        <v>348</v>
-      </c>
-      <c r="C306" t="s">
-        <v>352</v>
-      </c>
-      <c r="D306" t="s">
-        <v>357</v>
-      </c>
-      <c r="E306" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>28</v>
-      </c>
-      <c r="B307" t="s">
-        <v>348</v>
-      </c>
-      <c r="C307" t="s">
-        <v>352</v>
-      </c>
-      <c r="D307" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>40</v>
-      </c>
-      <c r="B308" t="s">
-        <v>348</v>
-      </c>
-      <c r="C308" t="s">
-        <v>352</v>
-      </c>
-      <c r="D308" t="s">
-        <v>357</v>
-      </c>
-      <c r="E308" t="s">
-        <v>358</v>
-      </c>
-      <c r="F308" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>235</v>
       </c>
       <c r="B309" t="s">
         <v>348</v>
@@ -6827,15 +6817,12 @@
         <v>357</v>
       </c>
       <c r="E309" t="s">
-        <v>358</v>
-      </c>
-      <c r="F309" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B310" t="s">
         <v>348</v>
@@ -6847,34 +6834,49 @@
         <v>357</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="B311" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C311" t="s">
-        <v>407</v>
-      </c>
-      <c r="G311" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D311" t="s">
+        <v>357</v>
+      </c>
+      <c r="E311" t="s">
+        <v>358</v>
+      </c>
+      <c r="F311" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="B312" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C312" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D312" t="s">
+        <v>357</v>
+      </c>
+      <c r="E312" t="s">
+        <v>358</v>
+      </c>
+      <c r="F312" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B313" t="s">
         <v>348</v>
@@ -6886,9 +6888,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B314" t="s">
         <v>350</v>
@@ -6900,9 +6902,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B315" t="s">
         <v>350</v>
@@ -6910,13 +6912,10 @@
       <c r="C315" t="s">
         <v>407</v>
       </c>
-      <c r="G315" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="B316" t="s">
         <v>348</v>
@@ -6927,208 +6926,205 @@
       <c r="D316" t="s">
         <v>357</v>
       </c>
-      <c r="E316" t="s">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>423</v>
+      </c>
+      <c r="B317" t="s">
+        <v>350</v>
+      </c>
+      <c r="C317" t="s">
+        <v>407</v>
+      </c>
+      <c r="G317" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>424</v>
+      </c>
+      <c r="B318" t="s">
+        <v>350</v>
+      </c>
+      <c r="C318" t="s">
+        <v>407</v>
+      </c>
+      <c r="G318" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>225</v>
+      </c>
+      <c r="B319" t="s">
+        <v>348</v>
+      </c>
+      <c r="C319" t="s">
+        <v>352</v>
+      </c>
+      <c r="D319" t="s">
+        <v>357</v>
+      </c>
+      <c r="E319" t="s">
         <v>358</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F319" t="s">
         <v>444</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G319" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>171</v>
       </c>
-      <c r="B317" t="s">
-        <v>348</v>
-      </c>
-      <c r="C317" t="s">
-        <v>352</v>
-      </c>
-      <c r="D317" t="s">
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320" t="s">
+        <v>352</v>
+      </c>
+      <c r="D320" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>227</v>
       </c>
-      <c r="B318" t="s">
-        <v>348</v>
-      </c>
-      <c r="C318" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="B321" t="s">
+        <v>348</v>
+      </c>
+      <c r="C321" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>188</v>
       </c>
-      <c r="B319" t="s">
-        <v>348</v>
-      </c>
-      <c r="C319" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B322" t="s">
+        <v>348</v>
+      </c>
+      <c r="C322" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>211</v>
       </c>
-      <c r="B320" t="s">
-        <v>348</v>
-      </c>
-      <c r="C320" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B323" t="s">
+        <v>348</v>
+      </c>
+      <c r="C323" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>116</v>
       </c>
-      <c r="B321" t="s">
-        <v>348</v>
-      </c>
-      <c r="C321" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="B324" t="s">
+        <v>348</v>
+      </c>
+      <c r="C324" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>76</v>
       </c>
-      <c r="B322" t="s">
-        <v>348</v>
-      </c>
-      <c r="C322" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="B325" t="s">
+        <v>348</v>
+      </c>
+      <c r="C325" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>434</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B326" t="s">
         <v>350</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C326" t="s">
         <v>407</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G326" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>433</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B327" t="s">
         <v>350</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C327" t="s">
         <v>407</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G327" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>217</v>
       </c>
-      <c r="B325" t="s">
-        <v>348</v>
-      </c>
-      <c r="C325" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B328" t="s">
+        <v>348</v>
+      </c>
+      <c r="C328" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>191</v>
       </c>
-      <c r="B326" t="s">
-        <v>348</v>
-      </c>
-      <c r="C326" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B329" t="s">
+        <v>348</v>
+      </c>
+      <c r="C329" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>193</v>
       </c>
-      <c r="B327" t="s">
-        <v>348</v>
-      </c>
-      <c r="C327" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B330" t="s">
+        <v>348</v>
+      </c>
+      <c r="C330" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>50</v>
       </c>
-      <c r="B328" t="s">
-        <v>348</v>
-      </c>
-      <c r="C328" t="s">
-        <v>352</v>
-      </c>
-      <c r="D328" t="s">
+      <c r="B331" t="s">
+        <v>348</v>
+      </c>
+      <c r="C331" t="s">
+        <v>352</v>
+      </c>
+      <c r="D331" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>104</v>
-      </c>
-      <c r="B329" t="s">
-        <v>348</v>
-      </c>
-      <c r="C329" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>44</v>
-      </c>
-      <c r="B330" t="s">
-        <v>348</v>
-      </c>
-      <c r="C330" t="s">
-        <v>352</v>
-      </c>
-      <c r="D330" t="s">
-        <v>357</v>
-      </c>
-      <c r="E330" t="s">
-        <v>358</v>
-      </c>
-      <c r="F330" t="s">
-        <v>444</v>
-      </c>
-      <c r="G330" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>308</v>
-      </c>
-      <c r="B331" t="s">
-        <v>348</v>
-      </c>
-      <c r="C331" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>307</v>
       </c>
       <c r="B332" t="s">
         <v>348</v>
@@ -7139,595 +7135,595 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="B333" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C333" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="D333" t="s">
-        <v>443</v>
+        <v>357</v>
+      </c>
+      <c r="E333" t="s">
+        <v>358</v>
+      </c>
+      <c r="F333" t="s">
+        <v>444</v>
+      </c>
+      <c r="G333" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>308</v>
+      </c>
+      <c r="B334" t="s">
+        <v>348</v>
+      </c>
+      <c r="C334" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>307</v>
+      </c>
+      <c r="B335" t="s">
+        <v>348</v>
+      </c>
+      <c r="C335" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>326</v>
+      </c>
+      <c r="B336" t="s">
+        <v>349</v>
+      </c>
+      <c r="C336" t="s">
+        <v>407</v>
+      </c>
+      <c r="D336" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>330</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B337" t="s">
         <v>349</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C337" t="s">
         <v>407</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D337" t="s">
         <v>443</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F337" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>451</v>
+      </c>
+      <c r="B338" t="s">
+        <v>349</v>
+      </c>
+      <c r="C338" t="s">
+        <v>352</v>
+      </c>
+      <c r="D338" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>117</v>
       </c>
-      <c r="B335" t="s">
-        <v>348</v>
-      </c>
-      <c r="C335" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="B339" t="s">
+        <v>348</v>
+      </c>
+      <c r="C339" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>309</v>
       </c>
-      <c r="B336" t="s">
-        <v>348</v>
-      </c>
-      <c r="C336" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="B340" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>280</v>
       </c>
-      <c r="B337" t="s">
-        <v>348</v>
-      </c>
-      <c r="C337" t="s">
-        <v>352</v>
-      </c>
-      <c r="D337" t="s">
+      <c r="B341" t="s">
+        <v>348</v>
+      </c>
+      <c r="C341" t="s">
+        <v>352</v>
+      </c>
+      <c r="D341" t="s">
         <v>359</v>
-      </c>
-      <c r="E337" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>165</v>
-      </c>
-      <c r="B338" t="s">
-        <v>348</v>
-      </c>
-      <c r="C338" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>194</v>
-      </c>
-      <c r="B339" t="s">
-        <v>348</v>
-      </c>
-      <c r="C339" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>86</v>
-      </c>
-      <c r="B340" t="s">
-        <v>348</v>
-      </c>
-      <c r="C340" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>26</v>
-      </c>
-      <c r="B341" t="s">
-        <v>348</v>
-      </c>
-      <c r="C341" t="s">
-        <v>352</v>
-      </c>
-      <c r="D341" t="s">
-        <v>357</v>
       </c>
       <c r="E341" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>165</v>
+      </c>
+      <c r="B342" t="s">
+        <v>348</v>
+      </c>
+      <c r="C342" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>194</v>
+      </c>
+      <c r="B343" t="s">
+        <v>348</v>
+      </c>
+      <c r="C343" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>86</v>
+      </c>
+      <c r="B344" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>26</v>
+      </c>
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" t="s">
+        <v>352</v>
+      </c>
+      <c r="D345" t="s">
+        <v>357</v>
+      </c>
+      <c r="E345" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>137</v>
       </c>
-      <c r="B342" t="s">
-        <v>348</v>
-      </c>
-      <c r="C342" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="B346" t="s">
+        <v>348</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>158</v>
       </c>
-      <c r="B343" t="s">
-        <v>348</v>
-      </c>
-      <c r="C343" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="B347" t="s">
+        <v>348</v>
+      </c>
+      <c r="C347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
         <v>43</v>
       </c>
-      <c r="B344" t="s">
-        <v>348</v>
-      </c>
-      <c r="C344" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>136</v>
       </c>
-      <c r="B345" t="s">
-        <v>348</v>
-      </c>
-      <c r="C345" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>93</v>
       </c>
-      <c r="B346" t="s">
-        <v>348</v>
-      </c>
-      <c r="C346" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="B350" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>319</v>
       </c>
-      <c r="B347" t="s">
-        <v>348</v>
-      </c>
-      <c r="C347" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="B351" t="s">
+        <v>348</v>
+      </c>
+      <c r="C351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>32</v>
       </c>
-      <c r="B348" t="s">
-        <v>348</v>
-      </c>
-      <c r="C348" t="s">
-        <v>352</v>
-      </c>
-      <c r="D348" t="s">
+      <c r="B352" t="s">
+        <v>348</v>
+      </c>
+      <c r="C352" t="s">
+        <v>352</v>
+      </c>
+      <c r="D352" t="s">
         <v>375</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E352" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>282</v>
       </c>
-      <c r="B349" t="s">
-        <v>348</v>
-      </c>
-      <c r="C349" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="B353" t="s">
+        <v>348</v>
+      </c>
+      <c r="C353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>281</v>
       </c>
-      <c r="B350" t="s">
-        <v>348</v>
-      </c>
-      <c r="C350" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="B354" t="s">
+        <v>348</v>
+      </c>
+      <c r="C354" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>36</v>
       </c>
-      <c r="B351" t="s">
-        <v>348</v>
-      </c>
-      <c r="C351" t="s">
-        <v>352</v>
-      </c>
-      <c r="D351" t="s">
+      <c r="B355" t="s">
+        <v>348</v>
+      </c>
+      <c r="C355" t="s">
+        <v>352</v>
+      </c>
+      <c r="D355" t="s">
         <v>357</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F355" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>152</v>
       </c>
-      <c r="B352" t="s">
-        <v>348</v>
-      </c>
-      <c r="C352" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="B356" t="s">
+        <v>348</v>
+      </c>
+      <c r="C356" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>183</v>
       </c>
-      <c r="B353" t="s">
-        <v>348</v>
-      </c>
-      <c r="C353" t="s">
-        <v>352</v>
-      </c>
-      <c r="D353" t="s">
+      <c r="B357" t="s">
+        <v>348</v>
+      </c>
+      <c r="C357" t="s">
+        <v>352</v>
+      </c>
+      <c r="D357" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>440</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B358" t="s">
         <v>350</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C358" t="s">
         <v>407</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G358" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>395</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B359" t="s">
         <v>350</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D359" t="s">
         <v>375</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E359" t="s">
         <v>358</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F359" t="s">
         <v>444</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G359" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
         <v>396</v>
       </c>
-      <c r="B356" t="s">
-        <v>348</v>
-      </c>
-      <c r="C356" t="s">
-        <v>352</v>
-      </c>
-      <c r="D356" t="s">
+      <c r="B360" t="s">
+        <v>348</v>
+      </c>
+      <c r="C360" t="s">
+        <v>352</v>
+      </c>
+      <c r="D360" t="s">
         <v>375</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E360" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>127</v>
       </c>
-      <c r="B357" t="s">
-        <v>348</v>
-      </c>
-      <c r="C357" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="B361" t="s">
+        <v>348</v>
+      </c>
+      <c r="C361" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>14</v>
       </c>
-      <c r="B358" t="s">
-        <v>348</v>
-      </c>
-      <c r="C358" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="B362" t="s">
+        <v>348</v>
+      </c>
+      <c r="C362" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>284</v>
       </c>
-      <c r="B359" t="s">
-        <v>348</v>
-      </c>
-      <c r="C359" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="B363" t="s">
+        <v>348</v>
+      </c>
+      <c r="C363" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>114</v>
       </c>
-      <c r="B360" t="s">
-        <v>348</v>
-      </c>
-      <c r="C360" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="B364" t="s">
+        <v>348</v>
+      </c>
+      <c r="C364" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>24</v>
       </c>
-      <c r="B361" t="s">
-        <v>348</v>
-      </c>
-      <c r="C361" t="s">
-        <v>352</v>
-      </c>
-      <c r="F361" t="s">
+      <c r="B365" t="s">
+        <v>348</v>
+      </c>
+      <c r="C365" t="s">
+        <v>352</v>
+      </c>
+      <c r="F365" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>97</v>
       </c>
-      <c r="B362" t="s">
-        <v>348</v>
-      </c>
-      <c r="C362" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="B366" t="s">
+        <v>348</v>
+      </c>
+      <c r="C366" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>162</v>
       </c>
-      <c r="B363" t="s">
-        <v>348</v>
-      </c>
-      <c r="C363" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="B367" t="s">
+        <v>348</v>
+      </c>
+      <c r="C367" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>16</v>
       </c>
-      <c r="B364" t="s">
-        <v>348</v>
-      </c>
-      <c r="C364" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="B368" t="s">
+        <v>348</v>
+      </c>
+      <c r="C368" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>3</v>
       </c>
-      <c r="B365" t="s">
-        <v>348</v>
-      </c>
-      <c r="C365" t="s">
-        <v>352</v>
-      </c>
-      <c r="D365" t="s">
+      <c r="B369" t="s">
+        <v>348</v>
+      </c>
+      <c r="C369" t="s">
+        <v>352</v>
+      </c>
+      <c r="D369" t="s">
         <v>365</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E369" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>275</v>
       </c>
-      <c r="B366" t="s">
-        <v>348</v>
-      </c>
-      <c r="C366" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="B370" t="s">
+        <v>348</v>
+      </c>
+      <c r="C370" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>317</v>
       </c>
-      <c r="B367" t="s">
-        <v>348</v>
-      </c>
-      <c r="C367" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="B371" t="s">
+        <v>348</v>
+      </c>
+      <c r="C371" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
         <v>435</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B372" t="s">
         <v>350</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C372" t="s">
         <v>407</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G372" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>436</v>
-      </c>
-      <c r="B369" t="s">
-        <v>350</v>
-      </c>
-      <c r="C369" t="s">
-        <v>407</v>
-      </c>
-      <c r="G369" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>106</v>
-      </c>
-      <c r="B370" t="s">
-        <v>348</v>
-      </c>
-      <c r="C370" t="s">
-        <v>352</v>
-      </c>
-      <c r="D370" t="s">
-        <v>361</v>
-      </c>
-      <c r="E370" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>337</v>
-      </c>
-      <c r="B371" t="s">
-        <v>348</v>
-      </c>
-      <c r="C371" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>73</v>
-      </c>
-      <c r="B372" t="s">
-        <v>348</v>
-      </c>
-      <c r="C372" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
       <c r="B373" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C373" t="s">
         <v>407</v>
       </c>
-      <c r="D373" t="s">
-        <v>357</v>
+      <c r="G373" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c r="B374" t="s">
+        <v>348</v>
+      </c>
+      <c r="C374" t="s">
+        <v>352</v>
+      </c>
+      <c r="D374" t="s">
+        <v>361</v>
+      </c>
+      <c r="E374" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>337</v>
+      </c>
+      <c r="B375" t="s">
+        <v>348</v>
+      </c>
+      <c r="C375" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>73</v>
+      </c>
+      <c r="B376" t="s">
+        <v>348</v>
+      </c>
+      <c r="C376" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>335</v>
+      </c>
+      <c r="B377" t="s">
         <v>349</v>
       </c>
-      <c r="C374" t="s">
-        <v>352</v>
-      </c>
-      <c r="D374" t="s">
+      <c r="C377" t="s">
+        <v>407</v>
+      </c>
+      <c r="D377" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>255</v>
-      </c>
-      <c r="B375" t="s">
-        <v>348</v>
-      </c>
-      <c r="C375" t="s">
-        <v>352</v>
-      </c>
-      <c r="D375" t="s">
-        <v>363</v>
-      </c>
-      <c r="E375" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>340</v>
-      </c>
-      <c r="B376" t="s">
-        <v>348</v>
-      </c>
-      <c r="C376" t="s">
-        <v>352</v>
-      </c>
-      <c r="D376" t="s">
-        <v>363</v>
-      </c>
-      <c r="E376" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>236</v>
-      </c>
-      <c r="B377" t="s">
-        <v>348</v>
-      </c>
-      <c r="C377" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>450</v>
+        <v>329</v>
       </c>
       <c r="B378" t="s">
         <v>349</v>
@@ -7736,44 +7732,58 @@
         <v>352</v>
       </c>
       <c r="D378" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>451</v>
+        <v>255</v>
       </c>
       <c r="B379" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C379" t="s">
         <v>352</v>
       </c>
       <c r="D379" t="s">
-        <v>443</v>
+        <v>363</v>
+      </c>
+      <c r="E379" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>452</v>
+        <v>340</v>
       </c>
       <c r="B380" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C380" t="s">
         <v>352</v>
       </c>
+      <c r="D380" t="s">
+        <v>363</v>
+      </c>
+      <c r="E380" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>454</v>
+      </c>
+      <c r="B381" t="s">
+        <v>348</v>
+      </c>
+      <c r="C381" t="s">
+        <v>352</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G377">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Nintendo Switch"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:H377">
-    <sortCondition ref="A2:A377"/>
+  <autoFilter ref="A1:G380"/>
+  <sortState ref="A2:H381">
+    <sortCondition ref="A2:A381"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8427,9 +8437,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8694,6 +8706,11 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -8870,9 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="462">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1401,6 +1401,27 @@
   </si>
   <si>
     <t>Zenith</t>
+  </si>
+  <si>
+    <t>Orbital Racer</t>
+  </si>
+  <si>
+    <t>Plants vs Zombies GW2</t>
+  </si>
+  <si>
+    <t>Need for Speed</t>
+  </si>
+  <si>
+    <t>Liftoff: Drone Racing</t>
+  </si>
+  <si>
+    <t>TRON RUN /r</t>
+  </si>
+  <si>
+    <t>Unravel</t>
+  </si>
+  <si>
+    <t>Saints Row: The Third Remastered</t>
   </si>
 </sst>
 </file>
@@ -2489,13 +2510,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H381"/>
+  <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B359" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A382" sqref="A382"/>
+      <selection pane="bottomRight" activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,7 +5212,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B186" t="s">
         <v>348</v>
@@ -5202,10 +5223,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B187" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C187" t="s">
         <v>352</v>
@@ -5213,30 +5234,18 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>298</v>
+        <v>452</v>
       </c>
       <c r="B188" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C188" t="s">
         <v>352</v>
-      </c>
-      <c r="D188" t="s">
-        <v>357</v>
-      </c>
-      <c r="E188" t="s">
-        <v>360</v>
-      </c>
-      <c r="F188" t="s">
-        <v>444</v>
-      </c>
-      <c r="G188" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>350</v>
@@ -5259,7 +5268,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>350</v>
@@ -5282,10 +5291,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C191" t="s">
         <v>352</v>
@@ -5296,21 +5305,33 @@
       <c r="E191" t="s">
         <v>360</v>
       </c>
+      <c r="F191" t="s">
+        <v>444</v>
+      </c>
+      <c r="G191" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>416</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="C192" t="s">
         <v>352</v>
+      </c>
+      <c r="D192" t="s">
+        <v>357</v>
+      </c>
+      <c r="E192" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B193" t="s">
         <v>418</v>
@@ -5321,32 +5342,32 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B194" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="C194" t="s">
         <v>352</v>
-      </c>
-      <c r="D194" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="B195" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C195" t="s">
         <v>352</v>
+      </c>
+      <c r="D195" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="B196" t="s">
         <v>348</v>
@@ -5357,83 +5378,77 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B197" t="s">
         <v>348</v>
       </c>
       <c r="C197" t="s">
         <v>352</v>
-      </c>
-      <c r="D197" t="s">
-        <v>354</v>
-      </c>
-      <c r="E197" t="s">
-        <v>386</v>
-      </c>
-      <c r="F197" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="B198" t="s">
         <v>348</v>
       </c>
       <c r="C198" t="s">
         <v>352</v>
+      </c>
+      <c r="D198" t="s">
+        <v>354</v>
+      </c>
+      <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="B199" t="s">
         <v>348</v>
       </c>
       <c r="C199" t="s">
         <v>352</v>
-      </c>
-      <c r="D199" t="s">
-        <v>359</v>
-      </c>
-      <c r="E199" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="B200" t="s">
         <v>348</v>
       </c>
       <c r="C200" t="s">
         <v>352</v>
+      </c>
+      <c r="D200" t="s">
+        <v>359</v>
+      </c>
+      <c r="E200" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B201" t="s">
         <v>348</v>
       </c>
       <c r="C201" t="s">
         <v>352</v>
-      </c>
-      <c r="D201" t="s">
-        <v>357</v>
-      </c>
-      <c r="E201" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="B202" t="s">
         <v>348</v>
@@ -5442,15 +5457,15 @@
         <v>352</v>
       </c>
       <c r="D202" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E202" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="B203" t="s">
         <v>348</v>
@@ -5462,12 +5477,12 @@
         <v>359</v>
       </c>
       <c r="E203" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="B204" t="s">
         <v>348</v>
@@ -5484,7 +5499,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="B205" t="s">
         <v>348</v>
@@ -5501,18 +5516,24 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="B206" t="s">
         <v>348</v>
       </c>
       <c r="C206" t="s">
         <v>352</v>
+      </c>
+      <c r="D206" t="s">
+        <v>359</v>
+      </c>
+      <c r="E206" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="B207" t="s">
         <v>348</v>
@@ -5523,192 +5544,186 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" t="s">
+        <v>348</v>
+      </c>
+      <c r="C209" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>325</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B210" t="s">
         <v>349</v>
       </c>
-      <c r="C208" t="s">
-        <v>352</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="C210" t="s">
+        <v>352</v>
+      </c>
+      <c r="D210" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>318</v>
       </c>
-      <c r="B209" t="s">
-        <v>348</v>
-      </c>
-      <c r="C209" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B211" t="s">
+        <v>348</v>
+      </c>
+      <c r="C211" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>311</v>
       </c>
-      <c r="B210" t="s">
-        <v>348</v>
-      </c>
-      <c r="C210" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B212" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>161</v>
       </c>
-      <c r="B211" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B213" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>90</v>
       </c>
-      <c r="B212" t="s">
-        <v>348</v>
-      </c>
-      <c r="C212" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B214" t="s">
+        <v>348</v>
+      </c>
+      <c r="C214" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>92</v>
       </c>
-      <c r="B213" t="s">
-        <v>348</v>
-      </c>
-      <c r="C213" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B215" t="s">
+        <v>348</v>
+      </c>
+      <c r="C215" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>38</v>
       </c>
-      <c r="B214" t="s">
-        <v>348</v>
-      </c>
-      <c r="C214" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B216" t="s">
+        <v>348</v>
+      </c>
+      <c r="C216" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>261</v>
       </c>
-      <c r="B215" t="s">
-        <v>348</v>
-      </c>
-      <c r="C215" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B217" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>417</v>
       </c>
-      <c r="B216" t="s">
-        <v>348</v>
-      </c>
-      <c r="C216" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C218" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>123</v>
       </c>
-      <c r="B217" t="s">
-        <v>348</v>
-      </c>
-      <c r="C217" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B219" t="s">
+        <v>348</v>
+      </c>
+      <c r="C219" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>228</v>
       </c>
-      <c r="B218" t="s">
-        <v>348</v>
-      </c>
-      <c r="C218" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B220" t="s">
+        <v>348</v>
+      </c>
+      <c r="C220" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>151</v>
       </c>
-      <c r="B219" t="s">
-        <v>348</v>
-      </c>
-      <c r="C219" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B221" t="s">
+        <v>348</v>
+      </c>
+      <c r="C221" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>179</v>
       </c>
-      <c r="B220" t="s">
-        <v>348</v>
-      </c>
-      <c r="C220" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B222" t="s">
+        <v>348</v>
+      </c>
+      <c r="C222" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>245</v>
       </c>
-      <c r="B221" t="s">
-        <v>348</v>
-      </c>
-      <c r="C221" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B223" t="s">
+        <v>348</v>
+      </c>
+      <c r="C223" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>267</v>
-      </c>
-      <c r="B222" t="s">
-        <v>348</v>
-      </c>
-      <c r="C222" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>268</v>
-      </c>
-      <c r="B223" t="s">
-        <v>348</v>
-      </c>
-      <c r="C223" t="s">
-        <v>352</v>
-      </c>
-      <c r="D223" t="s">
-        <v>359</v>
-      </c>
-      <c r="E223" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>67</v>
       </c>
       <c r="B224" t="s">
         <v>348</v>
@@ -5719,18 +5734,24 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B225" t="s">
         <v>348</v>
       </c>
       <c r="C225" t="s">
         <v>352</v>
+      </c>
+      <c r="D225" t="s">
+        <v>359</v>
+      </c>
+      <c r="E225" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s">
         <v>348</v>
@@ -5741,7 +5762,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>140</v>
+        <v>455</v>
       </c>
       <c r="B227" t="s">
         <v>348</v>
@@ -5752,7 +5773,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B228" t="s">
         <v>348</v>
@@ -5763,7 +5784,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="B229" t="s">
         <v>348</v>
@@ -5774,35 +5795,29 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B230" t="s">
         <v>348</v>
       </c>
       <c r="C230" t="s">
         <v>352</v>
-      </c>
-      <c r="D230" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="B231" t="s">
         <v>348</v>
       </c>
       <c r="C231" t="s">
         <v>352</v>
-      </c>
-      <c r="D231" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="B232" t="s">
         <v>348</v>
@@ -5813,7 +5828,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B233" t="s">
         <v>348</v>
@@ -5827,18 +5842,21 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B234" t="s">
         <v>348</v>
       </c>
       <c r="C234" t="s">
         <v>352</v>
+      </c>
+      <c r="D234" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="B235" t="s">
         <v>348</v>
@@ -5849,27 +5867,21 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="B236" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C236" t="s">
         <v>352</v>
       </c>
       <c r="D236" t="s">
-        <v>357</v>
-      </c>
-      <c r="E236" t="s">
-        <v>358</v>
-      </c>
-      <c r="F236" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="B237" t="s">
         <v>348</v>
@@ -5880,235 +5892,244 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>348</v>
       </c>
       <c r="C238" t="s">
         <v>352</v>
-      </c>
-      <c r="D238" t="s">
-        <v>375</v>
-      </c>
-      <c r="E238" t="s">
-        <v>360</v>
-      </c>
-      <c r="F238" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C239" t="s">
         <v>352</v>
+      </c>
+      <c r="D239" t="s">
+        <v>357</v>
+      </c>
+      <c r="E239" t="s">
+        <v>358</v>
+      </c>
+      <c r="F239" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>212</v>
+      </c>
+      <c r="B240" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>456</v>
+      </c>
+      <c r="B241" t="s">
+        <v>348</v>
+      </c>
+      <c r="C241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>129</v>
+      </c>
+      <c r="B242" t="s">
+        <v>348</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+      <c r="D242" t="s">
+        <v>375</v>
+      </c>
+      <c r="E242" t="s">
+        <v>360</v>
+      </c>
+      <c r="F242" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>413</v>
+      </c>
+      <c r="B243" t="s">
+        <v>348</v>
+      </c>
+      <c r="C243" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>414</v>
       </c>
-      <c r="B240" t="s">
-        <v>348</v>
-      </c>
-      <c r="C240" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B244" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>449</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B245" t="s">
         <v>350</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C245" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>448</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B246" t="s">
         <v>350</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C246" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>412</v>
       </c>
-      <c r="B243" t="s">
-        <v>348</v>
-      </c>
-      <c r="C243" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B247" t="s">
+        <v>348</v>
+      </c>
+      <c r="C247" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>84</v>
       </c>
-      <c r="B244" t="s">
-        <v>348</v>
-      </c>
-      <c r="C244" t="s">
-        <v>352</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="B248" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" t="s">
+        <v>352</v>
+      </c>
+      <c r="D248" t="s">
         <v>354</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E248" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>51</v>
       </c>
-      <c r="B245" t="s">
-        <v>348</v>
-      </c>
-      <c r="C245" t="s">
-        <v>352</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="B249" t="s">
+        <v>348</v>
+      </c>
+      <c r="C249" t="s">
+        <v>352</v>
+      </c>
+      <c r="D249" t="s">
         <v>354</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E249" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>134</v>
       </c>
-      <c r="B246" t="s">
-        <v>348</v>
-      </c>
-      <c r="C246" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B250" t="s">
+        <v>348</v>
+      </c>
+      <c r="C250" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>133</v>
       </c>
-      <c r="B247" t="s">
-        <v>348</v>
-      </c>
-      <c r="C247" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B251" t="s">
+        <v>348</v>
+      </c>
+      <c r="C251" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>135</v>
       </c>
-      <c r="B248" t="s">
-        <v>348</v>
-      </c>
-      <c r="C248" t="s">
-        <v>352</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="B252" t="s">
+        <v>348</v>
+      </c>
+      <c r="C252" t="s">
+        <v>352</v>
+      </c>
+      <c r="D252" t="s">
         <v>365</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E252" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>132</v>
       </c>
-      <c r="B249" t="s">
-        <v>348</v>
-      </c>
-      <c r="C249" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B253" t="s">
+        <v>348</v>
+      </c>
+      <c r="C253" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>7</v>
       </c>
-      <c r="B250" t="s">
-        <v>348</v>
-      </c>
-      <c r="C250" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B254" t="s">
+        <v>348</v>
+      </c>
+      <c r="C254" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>6</v>
       </c>
-      <c r="B251" t="s">
-        <v>348</v>
-      </c>
-      <c r="C251" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B255" t="s">
+        <v>348</v>
+      </c>
+      <c r="C255" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>196</v>
       </c>
-      <c r="B252" t="s">
-        <v>348</v>
-      </c>
-      <c r="C252" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>68</v>
-      </c>
-      <c r="B253" t="s">
-        <v>348</v>
-      </c>
-      <c r="C253" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>138</v>
-      </c>
-      <c r="B254" t="s">
-        <v>348</v>
-      </c>
-      <c r="C254" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>96</v>
-      </c>
-      <c r="B255" t="s">
-        <v>348</v>
-      </c>
-      <c r="C255" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>302</v>
-      </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C256" t="s">
         <v>352</v>
@@ -6116,7 +6137,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B257" t="s">
         <v>348</v>
@@ -6127,7 +6148,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B258" t="s">
         <v>348</v>
@@ -6138,7 +6159,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="B259" t="s">
         <v>348</v>
@@ -6149,10 +6170,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="B260" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C260" t="s">
         <v>352</v>
@@ -6160,7 +6181,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B261" t="s">
         <v>348</v>
@@ -6171,18 +6192,18 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>405</v>
+        <v>168</v>
       </c>
       <c r="B262" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C262" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="B263" t="s">
         <v>348</v>
@@ -6193,24 +6214,18 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="B264" t="s">
         <v>348</v>
       </c>
       <c r="C264" t="s">
         <v>352</v>
-      </c>
-      <c r="D264" t="s">
-        <v>359</v>
-      </c>
-      <c r="E264" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B265" t="s">
         <v>348</v>
@@ -6221,18 +6236,18 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="B266" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C266" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="B267" t="s">
         <v>348</v>
@@ -6243,7 +6258,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="B268" t="s">
         <v>348</v>
@@ -6252,66 +6267,48 @@
         <v>352</v>
       </c>
       <c r="D268" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E268" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B269" t="s">
         <v>348</v>
       </c>
       <c r="C269" t="s">
         <v>352</v>
-      </c>
-      <c r="D269" t="s">
-        <v>359</v>
-      </c>
-      <c r="E269" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B270" t="s">
         <v>348</v>
       </c>
       <c r="C270" t="s">
         <v>352</v>
-      </c>
-      <c r="D270" t="s">
-        <v>359</v>
-      </c>
-      <c r="E270" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>57</v>
+        <v>461</v>
       </c>
       <c r="B271" t="s">
         <v>348</v>
       </c>
       <c r="C271" t="s">
         <v>352</v>
-      </c>
-      <c r="D271" t="s">
-        <v>359</v>
-      </c>
-      <c r="E271" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B272" t="s">
         <v>348</v>
@@ -6320,9 +6317,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="B273" t="s">
         <v>348</v>
@@ -6337,322 +6334,340 @@
         <v>366</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>320</v>
+      </c>
+      <c r="B274" t="s">
+        <v>348</v>
+      </c>
+      <c r="C274" t="s">
+        <v>352</v>
+      </c>
+      <c r="D274" t="s">
+        <v>359</v>
+      </c>
+      <c r="E274" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>348</v>
+      </c>
+      <c r="C275" t="s">
+        <v>352</v>
+      </c>
+      <c r="D275" t="s">
+        <v>359</v>
+      </c>
+      <c r="E275" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>57</v>
+      </c>
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>352</v>
+      </c>
+      <c r="D276" t="s">
+        <v>359</v>
+      </c>
+      <c r="E276" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>313</v>
+      </c>
+      <c r="B277" t="s">
+        <v>348</v>
+      </c>
+      <c r="C277" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>285</v>
+      </c>
+      <c r="B278" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" t="s">
+        <v>352</v>
+      </c>
+      <c r="D278" t="s">
+        <v>365</v>
+      </c>
+      <c r="E278" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>279</v>
       </c>
-      <c r="B274" t="s">
-        <v>348</v>
-      </c>
-      <c r="C274" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B279" t="s">
+        <v>348</v>
+      </c>
+      <c r="C279" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>8</v>
       </c>
-      <c r="B275" t="s">
-        <v>348</v>
-      </c>
-      <c r="C275" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B280" t="s">
+        <v>348</v>
+      </c>
+      <c r="C280" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>9</v>
       </c>
-      <c r="B276" t="s">
-        <v>348</v>
-      </c>
-      <c r="C276" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="B281" t="s">
+        <v>348</v>
+      </c>
+      <c r="C281" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>305</v>
       </c>
-      <c r="B277" t="s">
-        <v>348</v>
-      </c>
-      <c r="C277" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B282" t="s">
+        <v>348</v>
+      </c>
+      <c r="C282" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>342</v>
       </c>
-      <c r="B278" t="s">
-        <v>348</v>
-      </c>
-      <c r="C278" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B283" t="s">
+        <v>348</v>
+      </c>
+      <c r="C283" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>145</v>
       </c>
-      <c r="B279" t="s">
-        <v>348</v>
-      </c>
-      <c r="C279" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B284" t="s">
+        <v>348</v>
+      </c>
+      <c r="C284" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>273</v>
       </c>
-      <c r="B280" t="s">
-        <v>348</v>
-      </c>
-      <c r="C280" t="s">
-        <v>352</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="B285" t="s">
+        <v>348</v>
+      </c>
+      <c r="C285" t="s">
+        <v>352</v>
+      </c>
+      <c r="D285" t="s">
         <v>390</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E285" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>66</v>
       </c>
-      <c r="B281" t="s">
-        <v>348</v>
-      </c>
-      <c r="C281" t="s">
-        <v>352</v>
-      </c>
-      <c r="D281" t="s">
+      <c r="B286" t="s">
+        <v>348</v>
+      </c>
+      <c r="C286" t="s">
+        <v>352</v>
+      </c>
+      <c r="D286" t="s">
         <v>390</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E286" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>185</v>
       </c>
-      <c r="B282" t="s">
-        <v>348</v>
-      </c>
-      <c r="C282" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B287" t="s">
+        <v>348</v>
+      </c>
+      <c r="C287" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>234</v>
       </c>
-      <c r="B283" t="s">
-        <v>348</v>
-      </c>
-      <c r="C283" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>19</v>
-      </c>
-      <c r="B284" t="s">
-        <v>348</v>
-      </c>
-      <c r="C284" t="s">
-        <v>352</v>
-      </c>
-      <c r="D284" t="s">
-        <v>357</v>
-      </c>
-      <c r="E284" t="s">
-        <v>358</v>
-      </c>
-      <c r="F284" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" t="s">
-        <v>348</v>
-      </c>
-      <c r="C285" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>223</v>
-      </c>
-      <c r="B286" t="s">
-        <v>348</v>
-      </c>
-      <c r="C286" t="s">
-        <v>352</v>
-      </c>
-      <c r="D286" t="s">
-        <v>354</v>
-      </c>
-      <c r="E286" t="s">
-        <v>393</v>
-      </c>
-      <c r="F286" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>304</v>
-      </c>
-      <c r="B287" t="s">
-        <v>348</v>
-      </c>
-      <c r="C287" t="s">
-        <v>352</v>
-      </c>
-      <c r="D287" t="s">
-        <v>357</v>
-      </c>
-      <c r="E287" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>198</v>
-      </c>
       <c r="B288" t="s">
         <v>348</v>
       </c>
       <c r="C288" t="s">
         <v>352</v>
-      </c>
-      <c r="D288" t="s">
-        <v>357</v>
-      </c>
-      <c r="E288" t="s">
-        <v>360</v>
-      </c>
-      <c r="F288" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="B289" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C289" t="s">
-        <v>407</v>
-      </c>
-      <c r="G289" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="D289" t="s">
+        <v>357</v>
+      </c>
+      <c r="E289" t="s">
+        <v>358</v>
+      </c>
+      <c r="F289" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B290" t="s">
         <v>348</v>
       </c>
       <c r="C290" t="s">
         <v>352</v>
-      </c>
-      <c r="D290" t="s">
-        <v>357</v>
-      </c>
-      <c r="E290" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="B291" t="s">
         <v>348</v>
       </c>
       <c r="C291" t="s">
         <v>352</v>
+      </c>
+      <c r="D291" t="s">
+        <v>354</v>
+      </c>
+      <c r="E291" t="s">
+        <v>393</v>
+      </c>
+      <c r="F291" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="B292" t="s">
         <v>348</v>
       </c>
       <c r="C292" t="s">
         <v>352</v>
+      </c>
+      <c r="D292" t="s">
+        <v>357</v>
+      </c>
+      <c r="E292" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B293" t="s">
         <v>348</v>
       </c>
       <c r="C293" t="s">
         <v>352</v>
+      </c>
+      <c r="D293" t="s">
+        <v>357</v>
+      </c>
+      <c r="E293" t="s">
+        <v>360</v>
+      </c>
+      <c r="F293" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>321</v>
+        <v>427</v>
       </c>
       <c r="B294" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C294" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G294" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B295" t="s">
         <v>348</v>
       </c>
       <c r="C295" t="s">
         <v>352</v>
+      </c>
+      <c r="D295" t="s">
+        <v>357</v>
+      </c>
+      <c r="E295" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B296" t="s">
         <v>348</v>
       </c>
       <c r="C296" t="s">
         <v>352</v>
-      </c>
-      <c r="D296" t="s">
-        <v>354</v>
-      </c>
-      <c r="E296" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B297" t="s">
         <v>348</v>
@@ -6663,35 +6678,29 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="B298" t="s">
         <v>348</v>
       </c>
       <c r="C298" t="s">
         <v>352</v>
-      </c>
-      <c r="F298" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="B299" t="s">
         <v>348</v>
       </c>
       <c r="C299" t="s">
         <v>352</v>
-      </c>
-      <c r="D299" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B300" t="s">
         <v>348</v>
@@ -6702,18 +6711,24 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B301" t="s">
         <v>348</v>
       </c>
       <c r="C301" t="s">
         <v>352</v>
+      </c>
+      <c r="D301" t="s">
+        <v>354</v>
+      </c>
+      <c r="E301" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B302" t="s">
         <v>348</v>
@@ -6724,66 +6739,57 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="B303" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C303" t="s">
-        <v>407</v>
-      </c>
-      <c r="D303" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="F303" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>327</v>
+        <v>220</v>
       </c>
       <c r="B304" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C304" t="s">
         <v>352</v>
       </c>
       <c r="D304" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="B305" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C305" t="s">
-        <v>407</v>
-      </c>
-      <c r="D305" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>53</v>
       </c>
       <c r="B306" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C306" t="s">
-        <v>407</v>
-      </c>
-      <c r="D306" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="B307" t="s">
         <v>348</v>
@@ -6794,128 +6800,119 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>121</v>
+        <v>331</v>
       </c>
       <c r="B308" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C308" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="D308" t="s">
+        <v>378</v>
+      </c>
+      <c r="F308" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="B309" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C309" t="s">
         <v>352</v>
       </c>
       <c r="D309" t="s">
-        <v>357</v>
-      </c>
-      <c r="E309" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>28</v>
+        <v>332</v>
       </c>
       <c r="B310" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C310" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D310" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="B311" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C311" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D311" t="s">
-        <v>357</v>
-      </c>
-      <c r="E311" t="s">
-        <v>358</v>
-      </c>
-      <c r="F311" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="B312" t="s">
         <v>348</v>
       </c>
       <c r="C312" t="s">
         <v>352</v>
-      </c>
-      <c r="D312" t="s">
-        <v>357</v>
-      </c>
-      <c r="E312" t="s">
-        <v>358</v>
-      </c>
-      <c r="F312" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B313" t="s">
         <v>348</v>
       </c>
       <c r="C313" t="s">
         <v>352</v>
-      </c>
-      <c r="D313" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>425</v>
+        <v>271</v>
       </c>
       <c r="B314" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C314" t="s">
-        <v>407</v>
-      </c>
-      <c r="G314" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="D314" t="s">
+        <v>357</v>
+      </c>
+      <c r="E314" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>403</v>
+        <v>28</v>
       </c>
       <c r="B315" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C315" t="s">
-        <v>407</v>
+        <v>352</v>
+      </c>
+      <c r="D315" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="B316" t="s">
         <v>348</v>
@@ -6926,53 +6923,56 @@
       <c r="D316" t="s">
         <v>357</v>
       </c>
+      <c r="E316" t="s">
+        <v>358</v>
+      </c>
+      <c r="F316" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>423</v>
+        <v>235</v>
       </c>
       <c r="B317" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C317" t="s">
-        <v>407</v>
-      </c>
-      <c r="G317" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="D317" t="s">
+        <v>357</v>
+      </c>
+      <c r="E317" t="s">
+        <v>358</v>
+      </c>
+      <c r="F317" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>424</v>
+        <v>39</v>
       </c>
       <c r="B318" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C318" t="s">
-        <v>407</v>
-      </c>
-      <c r="G318" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="D318" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="B319" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C319" t="s">
-        <v>352</v>
-      </c>
-      <c r="D319" t="s">
-        <v>357</v>
-      </c>
-      <c r="E319" t="s">
-        <v>358</v>
-      </c>
-      <c r="F319" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="G319" t="s">
         <v>374</v>
@@ -6980,104 +6980,119 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>171</v>
+        <v>403</v>
       </c>
       <c r="B320" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C320" t="s">
-        <v>352</v>
-      </c>
-      <c r="D320" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="B321" t="s">
         <v>348</v>
       </c>
       <c r="C321" t="s">
         <v>352</v>
+      </c>
+      <c r="D321" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="B322" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C322" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G322" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>211</v>
+        <v>424</v>
       </c>
       <c r="B323" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C323" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G323" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="B324" t="s">
         <v>348</v>
       </c>
       <c r="C324" t="s">
         <v>352</v>
+      </c>
+      <c r="D324" t="s">
+        <v>357</v>
+      </c>
+      <c r="E324" t="s">
+        <v>358</v>
+      </c>
+      <c r="F324" t="s">
+        <v>444</v>
+      </c>
+      <c r="G324" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B325" t="s">
         <v>348</v>
       </c>
       <c r="C325" t="s">
         <v>352</v>
+      </c>
+      <c r="D325" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="B326" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C326" t="s">
-        <v>407</v>
-      </c>
-      <c r="G326" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>433</v>
+        <v>188</v>
       </c>
       <c r="B327" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C327" t="s">
-        <v>407</v>
-      </c>
-      <c r="G327" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B328" t="s">
         <v>348</v>
@@ -7088,7 +7103,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B329" t="s">
         <v>348</v>
@@ -7099,7 +7114,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="B330" t="s">
         <v>348</v>
@@ -7110,55 +7125,46 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="B331" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C331" t="s">
-        <v>352</v>
-      </c>
-      <c r="D331" t="s">
-        <v>359</v>
+        <v>407</v>
+      </c>
+      <c r="G331" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="B332" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C332" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G332" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="B333" t="s">
         <v>348</v>
       </c>
       <c r="C333" t="s">
         <v>352</v>
-      </c>
-      <c r="D333" t="s">
-        <v>357</v>
-      </c>
-      <c r="E333" t="s">
-        <v>358</v>
-      </c>
-      <c r="F333" t="s">
-        <v>444</v>
-      </c>
-      <c r="G333" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="B334" t="s">
         <v>348</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="B335" t="s">
         <v>348</v>
@@ -7180,224 +7186,233 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>50</v>
+      </c>
+      <c r="B336" t="s">
+        <v>348</v>
+      </c>
+      <c r="C336" t="s">
+        <v>352</v>
+      </c>
+      <c r="D336" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>104</v>
+      </c>
+      <c r="B337" t="s">
+        <v>348</v>
+      </c>
+      <c r="C337" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>44</v>
+      </c>
+      <c r="B338" t="s">
+        <v>348</v>
+      </c>
+      <c r="C338" t="s">
+        <v>352</v>
+      </c>
+      <c r="D338" t="s">
+        <v>357</v>
+      </c>
+      <c r="E338" t="s">
+        <v>358</v>
+      </c>
+      <c r="F338" t="s">
+        <v>444</v>
+      </c>
+      <c r="G338" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>308</v>
+      </c>
+      <c r="B339" t="s">
+        <v>348</v>
+      </c>
+      <c r="C339" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>307</v>
+      </c>
+      <c r="B340" t="s">
+        <v>348</v>
+      </c>
+      <c r="C340" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>326</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B341" t="s">
         <v>349</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C341" t="s">
         <v>407</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D341" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>330</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B342" t="s">
         <v>349</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C342" t="s">
         <v>407</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D342" t="s">
         <v>443</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F342" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>451</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B343" t="s">
         <v>349</v>
       </c>
-      <c r="C338" t="s">
-        <v>352</v>
-      </c>
-      <c r="D338" t="s">
+      <c r="C343" t="s">
+        <v>352</v>
+      </c>
+      <c r="D343" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>117</v>
       </c>
-      <c r="B339" t="s">
-        <v>348</v>
-      </c>
-      <c r="C339" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="B344" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>309</v>
       </c>
-      <c r="B340" t="s">
-        <v>348</v>
-      </c>
-      <c r="C340" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="C345" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>280</v>
       </c>
-      <c r="B341" t="s">
-        <v>348</v>
-      </c>
-      <c r="C341" t="s">
-        <v>352</v>
-      </c>
-      <c r="D341" t="s">
+      <c r="B346" t="s">
+        <v>348</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346" t="s">
         <v>359</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E346" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>165</v>
       </c>
-      <c r="B342" t="s">
-        <v>348</v>
-      </c>
-      <c r="C342" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="B347" t="s">
+        <v>348</v>
+      </c>
+      <c r="C347" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
         <v>194</v>
       </c>
-      <c r="B343" t="s">
-        <v>348</v>
-      </c>
-      <c r="C343" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>86</v>
       </c>
-      <c r="B344" t="s">
-        <v>348</v>
-      </c>
-      <c r="C344" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>26</v>
       </c>
-      <c r="B345" t="s">
-        <v>348</v>
-      </c>
-      <c r="C345" t="s">
-        <v>352</v>
-      </c>
-      <c r="D345" t="s">
+      <c r="B350" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" t="s">
+        <v>352</v>
+      </c>
+      <c r="D350" t="s">
         <v>357</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E350" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>137</v>
       </c>
-      <c r="B346" t="s">
-        <v>348</v>
-      </c>
-      <c r="C346" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="B351" t="s">
+        <v>348</v>
+      </c>
+      <c r="C351" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>158</v>
       </c>
-      <c r="B347" t="s">
-        <v>348</v>
-      </c>
-      <c r="C347" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>43</v>
-      </c>
-      <c r="B348" t="s">
-        <v>348</v>
-      </c>
-      <c r="C348" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>136</v>
-      </c>
-      <c r="B349" t="s">
-        <v>348</v>
-      </c>
-      <c r="C349" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>93</v>
-      </c>
-      <c r="B350" t="s">
-        <v>348</v>
-      </c>
-      <c r="C350" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>319</v>
-      </c>
-      <c r="B351" t="s">
-        <v>348</v>
-      </c>
-      <c r="C351" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>32</v>
-      </c>
       <c r="B352" t="s">
         <v>348</v>
       </c>
       <c r="C352" t="s">
         <v>352</v>
-      </c>
-      <c r="D352" t="s">
-        <v>375</v>
-      </c>
-      <c r="E352" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="B353" t="s">
         <v>348</v>
@@ -7408,7 +7423,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="B354" t="s">
         <v>348</v>
@@ -7419,24 +7434,18 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B355" t="s">
         <v>348</v>
       </c>
       <c r="C355" t="s">
         <v>352</v>
-      </c>
-      <c r="D355" t="s">
-        <v>357</v>
-      </c>
-      <c r="F355" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="B356" t="s">
         <v>348</v>
@@ -7447,7 +7456,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="B357" t="s">
         <v>348</v>
@@ -7456,46 +7465,37 @@
         <v>352</v>
       </c>
       <c r="D357" t="s">
-        <v>359</v>
+        <v>375</v>
+      </c>
+      <c r="E357" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>440</v>
+        <v>282</v>
       </c>
       <c r="B358" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C358" t="s">
-        <v>407</v>
-      </c>
-      <c r="G358" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>395</v>
+        <v>281</v>
       </c>
       <c r="B359" t="s">
-        <v>350</v>
-      </c>
-      <c r="D359" t="s">
-        <v>375</v>
-      </c>
-      <c r="E359" t="s">
-        <v>358</v>
-      </c>
-      <c r="F359" t="s">
-        <v>444</v>
-      </c>
-      <c r="G359" t="s">
-        <v>374</v>
+        <v>348</v>
+      </c>
+      <c r="C359" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>396</v>
+        <v>36</v>
       </c>
       <c r="B360" t="s">
         <v>348</v>
@@ -7504,15 +7504,15 @@
         <v>352</v>
       </c>
       <c r="D360" t="s">
-        <v>375</v>
-      </c>
-      <c r="E360" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="F360" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B361" t="s">
         <v>348</v>
@@ -7523,7 +7523,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>459</v>
       </c>
       <c r="B362" t="s">
         <v>348</v>
@@ -7534,54 +7534,72 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="B363" t="s">
         <v>348</v>
       </c>
       <c r="C363" t="s">
         <v>352</v>
+      </c>
+      <c r="D363" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>114</v>
+        <v>440</v>
       </c>
       <c r="B364" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C364" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G364" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="B365" t="s">
-        <v>348</v>
-      </c>
-      <c r="C365" t="s">
-        <v>352</v>
+        <v>350</v>
+      </c>
+      <c r="D365" t="s">
+        <v>375</v>
+      </c>
+      <c r="E365" t="s">
+        <v>358</v>
       </c>
       <c r="F365" t="s">
-        <v>372</v>
+        <v>444</v>
+      </c>
+      <c r="G365" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>97</v>
+        <v>396</v>
       </c>
       <c r="B366" t="s">
         <v>348</v>
       </c>
       <c r="C366" t="s">
         <v>352</v>
+      </c>
+      <c r="D366" t="s">
+        <v>375</v>
+      </c>
+      <c r="E366" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B367" t="s">
         <v>348</v>
@@ -7592,7 +7610,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>16</v>
+        <v>460</v>
       </c>
       <c r="B368" t="s">
         <v>348</v>
@@ -7603,24 +7621,18 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B369" t="s">
         <v>348</v>
       </c>
       <c r="C369" t="s">
         <v>352</v>
-      </c>
-      <c r="D369" t="s">
-        <v>365</v>
-      </c>
-      <c r="E369" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B370" t="s">
         <v>348</v>
@@ -7631,7 +7643,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="B371" t="s">
         <v>348</v>
@@ -7642,52 +7654,43 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>435</v>
+        <v>24</v>
       </c>
       <c r="B372" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C372" t="s">
-        <v>407</v>
-      </c>
-      <c r="G372" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="F372" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="B373" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C373" t="s">
-        <v>407</v>
-      </c>
-      <c r="G373" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B374" t="s">
         <v>348</v>
       </c>
       <c r="C374" t="s">
         <v>352</v>
-      </c>
-      <c r="D374" t="s">
-        <v>361</v>
-      </c>
-      <c r="E374" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="B375" t="s">
         <v>348</v>
@@ -7698,92 +7701,187 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B376" t="s">
         <v>348</v>
       </c>
       <c r="C376" t="s">
         <v>352</v>
+      </c>
+      <c r="D376" t="s">
+        <v>365</v>
+      </c>
+      <c r="E376" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="B377" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C377" t="s">
-        <v>407</v>
-      </c>
-      <c r="D377" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B378" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C378" t="s">
         <v>352</v>
-      </c>
-      <c r="D378" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>255</v>
+        <v>435</v>
       </c>
       <c r="B379" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C379" t="s">
-        <v>352</v>
-      </c>
-      <c r="D379" t="s">
-        <v>363</v>
-      </c>
-      <c r="E379" t="s">
-        <v>360</v>
+        <v>407</v>
+      </c>
+      <c r="G379" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="B380" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C380" t="s">
-        <v>352</v>
-      </c>
-      <c r="D380" t="s">
-        <v>363</v>
-      </c>
-      <c r="E380" t="s">
-        <v>360</v>
+        <v>407</v>
+      </c>
+      <c r="G380" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>106</v>
+      </c>
+      <c r="B381" t="s">
+        <v>348</v>
+      </c>
+      <c r="C381" t="s">
+        <v>352</v>
+      </c>
+      <c r="D381" t="s">
+        <v>361</v>
+      </c>
+      <c r="E381" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>337</v>
+      </c>
+      <c r="B382" t="s">
+        <v>348</v>
+      </c>
+      <c r="C382" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>73</v>
+      </c>
+      <c r="B383" t="s">
+        <v>348</v>
+      </c>
+      <c r="C383" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>335</v>
+      </c>
+      <c r="B384" t="s">
+        <v>349</v>
+      </c>
+      <c r="C384" t="s">
+        <v>407</v>
+      </c>
+      <c r="D384" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>329</v>
+      </c>
+      <c r="B385" t="s">
+        <v>349</v>
+      </c>
+      <c r="C385" t="s">
+        <v>352</v>
+      </c>
+      <c r="D385" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>255</v>
+      </c>
+      <c r="B386" t="s">
+        <v>348</v>
+      </c>
+      <c r="C386" t="s">
+        <v>352</v>
+      </c>
+      <c r="D386" t="s">
+        <v>363</v>
+      </c>
+      <c r="E386" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>340</v>
+      </c>
+      <c r="B387" t="s">
+        <v>348</v>
+      </c>
+      <c r="C387" t="s">
+        <v>352</v>
+      </c>
+      <c r="D387" t="s">
+        <v>363</v>
+      </c>
+      <c r="E387" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>454</v>
       </c>
-      <c r="B381" t="s">
-        <v>348</v>
-      </c>
-      <c r="C381" t="s">
+      <c r="B388" t="s">
+        <v>348</v>
+      </c>
+      <c r="C388" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G380"/>
-  <sortState ref="A2:H381">
-    <sortCondition ref="A2:A381"/>
+  <sortState ref="A2:H388">
+    <sortCondition ref="A2:A388"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8437,10 +8535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="A54" sqref="A54:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8711,6 +8809,41 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -8887,7 +9020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PS4-HD1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="463">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1422,6 +1422,9 @@
   </si>
   <si>
     <t>Saints Row: The Third Remastered</t>
+  </si>
+  <si>
+    <t>Outcast - Second Contact</t>
   </si>
 </sst>
 </file>
@@ -2510,13 +2513,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H388"/>
+  <dimension ref="A1:H389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A393" sqref="A393"/>
+      <selection pane="bottomRight" activeCell="A389" sqref="A389:C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7875,6 +7878,17 @@
         <v>348</v>
       </c>
       <c r="C388" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>462</v>
+      </c>
+      <c r="B389" t="s">
+        <v>348</v>
+      </c>
+      <c r="C389" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8535,10 +8549,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8844,6 +8858,11 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -9020,9 +9039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PS4-HD1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="465">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1425,6 +1425,12 @@
   </si>
   <si>
     <t>Outcast - Second Contact</t>
+  </si>
+  <si>
+    <t>Unravel Two</t>
+  </si>
+  <si>
+    <t>La Terra di Mezzo™: L'Ombra della Guerra™</t>
   </si>
 </sst>
 </file>
@@ -2513,13 +2519,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H389"/>
+  <dimension ref="A1:H391"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A389" sqref="A389:C389"/>
+      <selection pane="bottomRight" activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,6 +7895,28 @@
         <v>348</v>
       </c>
       <c r="C389" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>463</v>
+      </c>
+      <c r="B390" t="s">
+        <v>348</v>
+      </c>
+      <c r="C390" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>464</v>
+      </c>
+      <c r="B391" t="s">
+        <v>348</v>
+      </c>
+      <c r="C391" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8549,10 +8577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8863,6 +8891,16 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -9039,7 +9077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="473">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1431,6 +1431,30 @@
   </si>
   <si>
     <t>La Terra di Mezzo™: L'Ombra della Guerra™</t>
+  </si>
+  <si>
+    <t>Valkyria Chronicles 4</t>
+  </si>
+  <si>
+    <t>ONE PIECE: PIRATE WARRIORS 4</t>
+  </si>
+  <si>
+    <t>SCARLET NEXUS</t>
+  </si>
+  <si>
+    <t>SCARLET NEXUS Artbook &amp; Original Soundtrack</t>
+  </si>
+  <si>
+    <t>Castlevania Requiem: Symphony Of The Night &amp; Rondo Of Blood</t>
+  </si>
+  <si>
+    <t>Demon Hunter: Revelation</t>
+  </si>
+  <si>
+    <t>Demon Hunter: Riddles of Light</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles™ 3</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2519,13 +2545,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H391"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A392" sqref="A392"/>
+      <selection pane="bottomRight" activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,64 +2593,43 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>352</v>
-      </c>
-      <c r="D2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>352</v>
-      </c>
-      <c r="D3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
-      </c>
-      <c r="D4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
         <v>352</v>
@@ -2632,33 +2637,27 @@
       <c r="D5" t="s">
         <v>375</v>
       </c>
-      <c r="E5" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
         <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
         <v>352</v>
@@ -2666,137 +2665,140 @@
       <c r="D7" t="s">
         <v>357</v>
       </c>
+      <c r="E7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
         <v>352</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
         <v>352</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F9" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
         <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
-      </c>
-      <c r="E10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
         <v>352</v>
+      </c>
+      <c r="D11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="D12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="D14" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" t="s">
-        <v>372</v>
+        <v>407</v>
+      </c>
+      <c r="D15" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="F16" t="s">
         <v>377</v>
@@ -2804,30 +2806,24 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D17" t="s">
-        <v>401</v>
-      </c>
-      <c r="E17" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
         <v>352</v>
@@ -2836,55 +2832,67 @@
         <v>357</v>
       </c>
       <c r="E18" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="F18" t="s">
+        <v>444</v>
+      </c>
+      <c r="G18" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
         <v>352</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F19" t="s">
-        <v>387</v>
+        <v>444</v>
+      </c>
+      <c r="G19" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
         <v>352</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
         <v>360</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>444</v>
+      </c>
+      <c r="G20" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C21" t="s">
         <v>352</v>
@@ -2892,63 +2900,60 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" t="s">
-        <v>369</v>
-      </c>
-      <c r="E22" t="s">
-        <v>360</v>
+        <v>407</v>
+      </c>
+      <c r="G22" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
-      </c>
-      <c r="D23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" t="s">
-        <v>370</v>
+        <v>407</v>
+      </c>
+      <c r="G23" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>406</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C25" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G25" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="B26" t="s">
         <v>350</v>
@@ -2962,242 +2967,326 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C27" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G27" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>429</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G28" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="G30" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>407</v>
+      </c>
+      <c r="D31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F31" t="s">
+        <v>444</v>
+      </c>
+      <c r="G31" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="D32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" t="s">
+        <v>444</v>
+      </c>
+      <c r="G32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="D33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>439</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F34" t="s">
+        <v>384</v>
+      </c>
+      <c r="G34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="D35" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" t="s">
+        <v>384</v>
+      </c>
+      <c r="G35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>437</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="D36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>428</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>422</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>421</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>449</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C41" t="s">
-        <v>352</v>
-      </c>
-      <c r="D41" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>448</v>
       </c>
       <c r="B42" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>405</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C44" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C46" t="s">
-        <v>352</v>
-      </c>
-      <c r="F46" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s">
         <v>350</v>
@@ -3209,59 +3298,65 @@
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="B50" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>306</v>
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>440</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>352</v>
-      </c>
-      <c r="D51" t="s">
-        <v>357</v>
-      </c>
-      <c r="E51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s">
         <v>350</v>
@@ -3269,940 +3364,925 @@
       <c r="C52" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>375</v>
+      </c>
+      <c r="E52" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>436</v>
+      </c>
+      <c r="B54" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>352</v>
+      </c>
+      <c r="D55" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+      <c r="D56" t="s">
+        <v>354</v>
+      </c>
+      <c r="E56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" t="s">
+        <v>357</v>
+      </c>
+      <c r="E57" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D58" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D59" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" t="s">
+        <v>352</v>
+      </c>
+      <c r="D61" t="s">
+        <v>361</v>
+      </c>
+      <c r="E61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>352</v>
+      </c>
+      <c r="D62" t="s">
+        <v>357</v>
+      </c>
+      <c r="E62" t="s">
+        <v>358</v>
+      </c>
+      <c r="F62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>348</v>
+      </c>
+      <c r="C63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D63" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>348</v>
+      </c>
+      <c r="C65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
+        <v>348</v>
+      </c>
+      <c r="C67" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C69" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" t="s">
+        <v>378</v>
+      </c>
+      <c r="E69" t="s">
+        <v>376</v>
+      </c>
+      <c r="F69" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" t="s">
+        <v>401</v>
+      </c>
+      <c r="E70" t="s">
+        <v>401</v>
+      </c>
+      <c r="F70" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" t="s">
+        <v>357</v>
+      </c>
+      <c r="E71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" t="s">
+        <v>382</v>
+      </c>
+      <c r="E72" t="s">
+        <v>358</v>
+      </c>
+      <c r="F72" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" t="s">
+        <v>352</v>
+      </c>
+      <c r="D73" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" t="s">
+        <v>360</v>
+      </c>
+      <c r="F73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>348</v>
+      </c>
+      <c r="C74" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" t="s">
+        <v>369</v>
+      </c>
+      <c r="E75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" t="s">
+        <v>352</v>
+      </c>
+      <c r="D76" t="s">
+        <v>369</v>
+      </c>
+      <c r="E76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>352</v>
+      </c>
+      <c r="D85" t="s">
+        <v>354</v>
+      </c>
+      <c r="E85" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>259</v>
+      </c>
+      <c r="B91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>469</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" t="s">
+        <v>354</v>
+      </c>
+      <c r="E93" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+      <c r="C95" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" t="s">
+        <v>352</v>
+      </c>
+      <c r="F98" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
+        <v>348</v>
+      </c>
+      <c r="C100" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" t="s">
+        <v>352</v>
+      </c>
+      <c r="D102" t="s">
+        <v>357</v>
+      </c>
+      <c r="E102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>180</v>
       </c>
-      <c r="B53" t="s">
-        <v>348</v>
-      </c>
-      <c r="C53" t="s">
-        <v>352</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B103" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" t="s">
         <v>357</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E103" t="s">
         <v>358</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F103" t="s">
         <v>444</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H103" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>177</v>
       </c>
-      <c r="B54" t="s">
-        <v>348</v>
-      </c>
-      <c r="C54" t="s">
-        <v>352</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" t="s">
         <v>357</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E104" t="s">
         <v>358</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F104" t="s">
         <v>444</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H104" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
-        <v>348</v>
-      </c>
-      <c r="C55" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>182</v>
       </c>
-      <c r="B56" t="s">
-        <v>348</v>
-      </c>
-      <c r="C56" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B106" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>102</v>
       </c>
-      <c r="B57" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B107" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>263</v>
       </c>
-      <c r="B58" t="s">
-        <v>348</v>
-      </c>
-      <c r="C58" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>336</v>
       </c>
-      <c r="B59" t="s">
-        <v>348</v>
-      </c>
-      <c r="C59" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B109" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>101</v>
       </c>
-      <c r="B60" t="s">
-        <v>348</v>
-      </c>
-      <c r="C60" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>195</v>
       </c>
-      <c r="B61" t="s">
-        <v>348</v>
-      </c>
-      <c r="C61" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
-        <v>348</v>
-      </c>
-      <c r="C62" t="s">
-        <v>352</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" t="s">
+        <v>352</v>
+      </c>
+      <c r="F112" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>426</v>
-      </c>
-      <c r="B63" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" t="s">
-        <v>407</v>
-      </c>
-      <c r="G63" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>47</v>
       </c>
-      <c r="B64" t="s">
-        <v>348</v>
-      </c>
-      <c r="C64" t="s">
-        <v>352</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" t="s">
+        <v>352</v>
+      </c>
+      <c r="D113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>98</v>
       </c>
-      <c r="B65" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65" t="s">
-        <v>352</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B114" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" t="s">
+        <v>352</v>
+      </c>
+      <c r="D114" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>293</v>
       </c>
-      <c r="B66" t="s">
-        <v>348</v>
-      </c>
-      <c r="C66" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>441</v>
-      </c>
-      <c r="B67" t="s">
-        <v>350</v>
-      </c>
-      <c r="C67" t="s">
-        <v>407</v>
-      </c>
-      <c r="G67" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>470</v>
+      </c>
+      <c r="B116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>471</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>169</v>
       </c>
-      <c r="B68" t="s">
-        <v>348</v>
-      </c>
-      <c r="C68" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B118" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>20</v>
-      </c>
-      <c r="B69" t="s">
-        <v>348</v>
-      </c>
-      <c r="C69" t="s">
-        <v>352</v>
-      </c>
-      <c r="D69" t="s">
-        <v>357</v>
-      </c>
-      <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="F69" t="s">
-        <v>387</v>
-      </c>
-      <c r="G69" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>442</v>
-      </c>
-      <c r="B70" t="s">
-        <v>350</v>
-      </c>
-      <c r="C70" t="s">
-        <v>407</v>
-      </c>
-      <c r="G70" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>429</v>
-      </c>
-      <c r="B71" t="s">
-        <v>350</v>
-      </c>
-      <c r="C71" t="s">
-        <v>407</v>
-      </c>
-      <c r="G71" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" t="s">
-        <v>348</v>
-      </c>
-      <c r="C72" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s">
-        <v>348</v>
-      </c>
-      <c r="C73" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>257</v>
-      </c>
-      <c r="B74" t="s">
-        <v>348</v>
-      </c>
-      <c r="C74" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>260</v>
-      </c>
-      <c r="B75" t="s">
-        <v>348</v>
-      </c>
-      <c r="C75" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" t="s">
-        <v>348</v>
-      </c>
-      <c r="C76" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>303</v>
-      </c>
-      <c r="B77" t="s">
-        <v>348</v>
-      </c>
-      <c r="C77" t="s">
-        <v>352</v>
-      </c>
-      <c r="D77" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" t="s">
-        <v>348</v>
-      </c>
-      <c r="C78" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78" t="s">
-        <v>382</v>
-      </c>
-      <c r="F78" t="s">
-        <v>377</v>
-      </c>
-      <c r="G78" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>348</v>
-      </c>
-      <c r="C79" t="s">
-        <v>352</v>
-      </c>
-      <c r="D79" t="s">
-        <v>382</v>
-      </c>
-      <c r="F79" t="s">
-        <v>377</v>
-      </c>
-      <c r="G79" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" t="s">
-        <v>348</v>
-      </c>
-      <c r="C80" t="s">
-        <v>352</v>
-      </c>
-      <c r="D80" t="s">
-        <v>382</v>
-      </c>
-      <c r="F80" t="s">
-        <v>377</v>
-      </c>
-      <c r="G80" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>410</v>
-      </c>
-      <c r="B81" t="s">
-        <v>348</v>
-      </c>
-      <c r="C81" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" t="s">
-        <v>348</v>
-      </c>
-      <c r="C82" t="s">
-        <v>352</v>
-      </c>
-      <c r="D82" t="s">
-        <v>357</v>
-      </c>
-      <c r="E82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>411</v>
-      </c>
-      <c r="B83" t="s">
-        <v>348</v>
-      </c>
-      <c r="C83" t="s">
-        <v>352</v>
-      </c>
-      <c r="G83" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" t="s">
-        <v>348</v>
-      </c>
-      <c r="C84" t="s">
-        <v>352</v>
-      </c>
-      <c r="D84" t="s">
-        <v>359</v>
-      </c>
-      <c r="E84" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" t="s">
-        <v>348</v>
-      </c>
-      <c r="C85" t="s">
-        <v>352</v>
-      </c>
-      <c r="D85" t="s">
-        <v>359</v>
-      </c>
-      <c r="E85" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" t="s">
-        <v>348</v>
-      </c>
-      <c r="C86" t="s">
-        <v>352</v>
-      </c>
-      <c r="D86" t="s">
-        <v>359</v>
-      </c>
-      <c r="E86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" t="s">
-        <v>348</v>
-      </c>
-      <c r="C87" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" t="s">
-        <v>348</v>
-      </c>
-      <c r="C88" t="s">
-        <v>352</v>
-      </c>
-      <c r="D88" t="s">
-        <v>357</v>
-      </c>
-      <c r="E88" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>295</v>
-      </c>
-      <c r="B89" t="s">
-        <v>348</v>
-      </c>
-      <c r="C89" t="s">
-        <v>352</v>
-      </c>
-      <c r="D89" t="s">
-        <v>357</v>
-      </c>
-      <c r="E89" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>323</v>
-      </c>
-      <c r="B90" t="s">
-        <v>348</v>
-      </c>
-      <c r="C90" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" t="s">
-        <v>348</v>
-      </c>
-      <c r="C91" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" t="s">
-        <v>348</v>
-      </c>
-      <c r="C92" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" t="s">
-        <v>348</v>
-      </c>
-      <c r="C93" t="s">
-        <v>352</v>
-      </c>
-      <c r="F93" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" t="s">
-        <v>348</v>
-      </c>
-      <c r="C94" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>206</v>
-      </c>
-      <c r="B95" t="s">
-        <v>348</v>
-      </c>
-      <c r="C95" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>253</v>
-      </c>
-      <c r="B96" t="s">
-        <v>348</v>
-      </c>
-      <c r="C96" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>287</v>
-      </c>
-      <c r="B97" t="s">
-        <v>348</v>
-      </c>
-      <c r="C97" t="s">
-        <v>352</v>
-      </c>
-      <c r="D97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E97" t="s">
-        <v>358</v>
-      </c>
-      <c r="F97" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" t="s">
-        <v>348</v>
-      </c>
-      <c r="C98" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>75</v>
-      </c>
-      <c r="B99" t="s">
-        <v>348</v>
-      </c>
-      <c r="C99" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" t="s">
-        <v>348</v>
-      </c>
-      <c r="C100" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>404</v>
-      </c>
-      <c r="B101" t="s">
-        <v>350</v>
-      </c>
-      <c r="C101" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" t="s">
-        <v>348</v>
-      </c>
-      <c r="C102" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>420</v>
-      </c>
-      <c r="B103" t="s">
-        <v>350</v>
-      </c>
-      <c r="C103" t="s">
-        <v>407</v>
-      </c>
-      <c r="G103" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>292</v>
-      </c>
-      <c r="B104" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" t="s">
-        <v>348</v>
-      </c>
-      <c r="C105" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>150</v>
-      </c>
-      <c r="B106" t="s">
-        <v>348</v>
-      </c>
-      <c r="C106" t="s">
-        <v>352</v>
-      </c>
-      <c r="F106" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" t="s">
-        <v>348</v>
-      </c>
-      <c r="C107" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B108" t="s">
-        <v>348</v>
-      </c>
-      <c r="C108" t="s">
-        <v>352</v>
-      </c>
-      <c r="D108" t="s">
-        <v>365</v>
-      </c>
-      <c r="E108" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" t="s">
-        <v>352</v>
-      </c>
-      <c r="D109" t="s">
-        <v>354</v>
-      </c>
-      <c r="E109" t="s">
-        <v>373</v>
-      </c>
-      <c r="F109" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>41</v>
-      </c>
-      <c r="B110" t="s">
-        <v>348</v>
-      </c>
-      <c r="C110" t="s">
-        <v>352</v>
-      </c>
-      <c r="D110" t="s">
-        <v>382</v>
-      </c>
-      <c r="E110" t="s">
-        <v>358</v>
-      </c>
-      <c r="F110" t="s">
-        <v>398</v>
-      </c>
-      <c r="G110" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B111" t="s">
-        <v>348</v>
-      </c>
-      <c r="C111" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>248</v>
-      </c>
-      <c r="B112" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C113" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>432</v>
-      </c>
-      <c r="B114" t="s">
-        <v>350</v>
-      </c>
-      <c r="C114" t="s">
-        <v>407</v>
-      </c>
-      <c r="D114" t="s">
-        <v>357</v>
-      </c>
-      <c r="E114" t="s">
-        <v>360</v>
-      </c>
-      <c r="F114" t="s">
-        <v>444</v>
-      </c>
-      <c r="G114" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" t="s">
-        <v>348</v>
-      </c>
-      <c r="C115" t="s">
-        <v>352</v>
-      </c>
-      <c r="D115" t="s">
-        <v>357</v>
-      </c>
-      <c r="E115" t="s">
-        <v>360</v>
-      </c>
-      <c r="F115" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>408</v>
-      </c>
-      <c r="B116" t="s">
-        <v>350</v>
-      </c>
-      <c r="C116" t="s">
-        <v>407</v>
-      </c>
-      <c r="D116" t="s">
-        <v>357</v>
-      </c>
-      <c r="E116" t="s">
-        <v>360</v>
-      </c>
-      <c r="F116" t="s">
-        <v>444</v>
-      </c>
-      <c r="G116" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>95</v>
-      </c>
-      <c r="B117" t="s">
-        <v>348</v>
-      </c>
-      <c r="C117" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>316</v>
-      </c>
-      <c r="B118" t="s">
-        <v>348</v>
-      </c>
-      <c r="C118" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>447</v>
       </c>
       <c r="B119" t="s">
         <v>348</v>
@@ -4217,15 +4297,15 @@
         <v>358</v>
       </c>
       <c r="F119" t="s">
-        <v>384</v>
-      </c>
-      <c r="H119" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="G119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
         <v>348</v>
@@ -4233,45 +4313,21 @@
       <c r="C120" t="s">
         <v>352</v>
       </c>
-      <c r="D120" t="s">
-        <v>357</v>
-      </c>
-      <c r="E120" t="s">
-        <v>358</v>
-      </c>
-      <c r="F120" t="s">
-        <v>444</v>
-      </c>
-      <c r="G120" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>402</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
-      </c>
-      <c r="D121" t="s">
-        <v>357</v>
-      </c>
-      <c r="E121" t="s">
-        <v>358</v>
-      </c>
-      <c r="F121" t="s">
-        <v>384</v>
-      </c>
-      <c r="H121" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B122" t="s">
         <v>348</v>
@@ -4279,91 +4335,46 @@
       <c r="C122" t="s">
         <v>352</v>
       </c>
-      <c r="D122" t="s">
-        <v>357</v>
-      </c>
-      <c r="E122" t="s">
-        <v>358</v>
-      </c>
-      <c r="F122" t="s">
-        <v>444</v>
-      </c>
-      <c r="H122" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>439</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C123" t="s">
-        <v>407</v>
-      </c>
-      <c r="D123" t="s">
-        <v>357</v>
-      </c>
-      <c r="E123" t="s">
-        <v>358</v>
-      </c>
-      <c r="F123" t="s">
-        <v>384</v>
-      </c>
-      <c r="G123" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>438</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C124" t="s">
-        <v>407</v>
-      </c>
-      <c r="D124" t="s">
-        <v>357</v>
-      </c>
-      <c r="E124" t="s">
-        <v>358</v>
-      </c>
-      <c r="F124" t="s">
-        <v>384</v>
-      </c>
-      <c r="G124" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>437</v>
+        <v>303</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C125" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="D125" t="s">
-        <v>357</v>
-      </c>
-      <c r="E125" t="s">
-        <v>358</v>
-      </c>
-      <c r="F125" t="s">
-        <v>384</v>
-      </c>
-      <c r="G125" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="B126" t="s">
         <v>348</v>
@@ -4372,18 +4383,18 @@
         <v>352</v>
       </c>
       <c r="D126" t="s">
-        <v>357</v>
-      </c>
-      <c r="E126" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F126" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="G126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="B127" t="s">
         <v>348</v>
@@ -4392,18 +4403,18 @@
         <v>352</v>
       </c>
       <c r="D127" t="s">
-        <v>357</v>
-      </c>
-      <c r="E127" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F127" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="G127" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>446</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
         <v>348</v>
@@ -4412,35 +4423,29 @@
         <v>352</v>
       </c>
       <c r="D128" t="s">
-        <v>357</v>
-      </c>
-      <c r="E128" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F128" t="s">
-        <v>444</v>
+        <v>377</v>
+      </c>
+      <c r="G128" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="B129" t="s">
         <v>348</v>
       </c>
       <c r="C129" t="s">
         <v>352</v>
-      </c>
-      <c r="D129" t="s">
-        <v>354</v>
-      </c>
-      <c r="E129" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B130" t="s">
         <v>348</v>
@@ -4449,26 +4454,29 @@
         <v>352</v>
       </c>
       <c r="D130" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E130" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>205</v>
+        <v>411</v>
       </c>
       <c r="B131" t="s">
         <v>348</v>
       </c>
       <c r="C131" t="s">
         <v>352</v>
+      </c>
+      <c r="G131" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
         <v>348</v>
@@ -4477,15 +4485,15 @@
         <v>352</v>
       </c>
       <c r="D132" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="E132" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
         <v>348</v>
@@ -4494,15 +4502,15 @@
         <v>352</v>
       </c>
       <c r="D133" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E133" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="B134" t="s">
         <v>348</v>
@@ -4511,38 +4519,26 @@
         <v>352</v>
       </c>
       <c r="D134" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E134" t="s">
-        <v>358</v>
-      </c>
-      <c r="F134" t="s">
-        <v>444</v>
-      </c>
-      <c r="G134" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
         <v>348</v>
       </c>
       <c r="C135" t="s">
         <v>352</v>
-      </c>
-      <c r="D135" t="s">
-        <v>357</v>
-      </c>
-      <c r="E135" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
         <v>348</v>
@@ -4554,12 +4550,12 @@
         <v>357</v>
       </c>
       <c r="E136" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="B137" t="s">
         <v>348</v>
@@ -4571,43 +4567,34 @@
         <v>357</v>
       </c>
       <c r="E137" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s">
-        <v>407</v>
-      </c>
-      <c r="G138" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B139" t="s">
         <v>348</v>
       </c>
       <c r="C139" t="s">
         <v>352</v>
-      </c>
-      <c r="D139" t="s">
-        <v>361</v>
-      </c>
-      <c r="E139" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>348</v>
@@ -4618,18 +4605,21 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
         <v>348</v>
       </c>
       <c r="C141" t="s">
         <v>352</v>
+      </c>
+      <c r="F141" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="B142" t="s">
         <v>348</v>
@@ -4640,7 +4630,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
         <v>348</v>
@@ -4651,7 +4641,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
         <v>348</v>
@@ -4660,9 +4650,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
         <v>348</v>
@@ -4670,10 +4660,19 @@
       <c r="C145" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>357</v>
+      </c>
+      <c r="E145" t="s">
+        <v>358</v>
+      </c>
+      <c r="F145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="B146" t="s">
         <v>348</v>
@@ -4681,16 +4680,10 @@
       <c r="C146" t="s">
         <v>352</v>
       </c>
-      <c r="D146" t="s">
-        <v>361</v>
-      </c>
-      <c r="E146" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B147" t="s">
         <v>348</v>
@@ -4698,16 +4691,10 @@
       <c r="C147" t="s">
         <v>352</v>
       </c>
-      <c r="D147" t="s">
-        <v>363</v>
-      </c>
-      <c r="E147" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
         <v>348</v>
@@ -4716,9 +4703,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B149" t="s">
         <v>348</v>
@@ -4726,13 +4713,10 @@
       <c r="C149" t="s">
         <v>352</v>
       </c>
-      <c r="F149" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B150" t="s">
         <v>348</v>
@@ -4741,9 +4725,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B151" t="s">
         <v>348</v>
@@ -4752,9 +4736,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>348</v>
@@ -4766,9 +4750,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>364</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
         <v>348</v>
@@ -4776,16 +4760,10 @@
       <c r="C153" t="s">
         <v>352</v>
       </c>
-      <c r="D153" t="s">
-        <v>357</v>
-      </c>
-      <c r="E153" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B154" t="s">
         <v>348</v>
@@ -4794,40 +4772,58 @@
         <v>352</v>
       </c>
       <c r="D154" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E154" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
         <v>348</v>
       </c>
       <c r="C155" t="s">
         <v>352</v>
+      </c>
+      <c r="D155" t="s">
+        <v>354</v>
+      </c>
+      <c r="E155" t="s">
+        <v>373</v>
       </c>
       <c r="F155" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>382</v>
+      </c>
+      <c r="E156" t="s">
+        <v>358</v>
+      </c>
+      <c r="F156" t="s">
+        <v>398</v>
+      </c>
+      <c r="G156" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
         <v>348</v>
@@ -4836,9 +4832,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="B158" t="s">
         <v>348</v>
@@ -4847,9 +4843,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
         <v>348</v>
@@ -4858,9 +4854,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s">
         <v>348</v>
@@ -4868,10 +4864,19 @@
       <c r="C160" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>357</v>
+      </c>
+      <c r="E160" t="s">
+        <v>360</v>
+      </c>
+      <c r="F160" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B161" t="s">
         <v>348</v>
@@ -4879,451 +4884,481 @@
       <c r="C161" t="s">
         <v>352</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" t="s">
+        <v>348</v>
+      </c>
+      <c r="C162" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>447</v>
+      </c>
+      <c r="B163" t="s">
+        <v>348</v>
+      </c>
+      <c r="C163" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" t="s">
         <v>357</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E163" t="s">
         <v>358</v>
       </c>
-      <c r="F161" t="s">
-        <v>389</v>
-      </c>
-      <c r="G161" t="s">
+      <c r="F163" t="s">
+        <v>384</v>
+      </c>
+      <c r="H163" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" t="s">
+        <v>357</v>
+      </c>
+      <c r="E164" t="s">
+        <v>358</v>
+      </c>
+      <c r="F164" t="s">
+        <v>444</v>
+      </c>
+      <c r="G164" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>82</v>
-      </c>
-      <c r="B162" t="s">
-        <v>348</v>
-      </c>
-      <c r="C162" t="s">
-        <v>352</v>
-      </c>
-      <c r="D162" t="s">
-        <v>365</v>
-      </c>
-      <c r="E162" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>250</v>
-      </c>
-      <c r="B163" t="s">
-        <v>348</v>
-      </c>
-      <c r="C163" t="s">
-        <v>352</v>
-      </c>
-      <c r="D163" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>264</v>
+      </c>
+      <c r="B165" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" t="s">
+        <v>352</v>
+      </c>
+      <c r="D165" t="s">
+        <v>357</v>
+      </c>
+      <c r="E165" t="s">
+        <v>358</v>
+      </c>
+      <c r="F165" t="s">
+        <v>444</v>
+      </c>
+      <c r="H165" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>286</v>
+      </c>
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+      <c r="C166" t="s">
+        <v>352</v>
+      </c>
+      <c r="D166" t="s">
+        <v>357</v>
+      </c>
+      <c r="E166" t="s">
+        <v>358</v>
+      </c>
+      <c r="F166" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>445</v>
+      </c>
+      <c r="B167" t="s">
+        <v>348</v>
+      </c>
+      <c r="C167" t="s">
+        <v>352</v>
+      </c>
+      <c r="D167" t="s">
+        <v>357</v>
+      </c>
+      <c r="E167" t="s">
+        <v>358</v>
+      </c>
+      <c r="F167" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>446</v>
+      </c>
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" t="s">
+        <v>357</v>
+      </c>
+      <c r="E168" t="s">
+        <v>358</v>
+      </c>
+      <c r="F168" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" t="s">
+        <v>354</v>
+      </c>
+      <c r="E169" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>352</v>
+      </c>
+      <c r="D170" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>154</v>
-      </c>
-      <c r="B164" t="s">
-        <v>348</v>
-      </c>
-      <c r="C164" t="s">
-        <v>352</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="E170" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>205</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" t="s">
+        <v>382</v>
+      </c>
+      <c r="E172" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>214</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" t="s">
+        <v>352</v>
+      </c>
+      <c r="D173" t="s">
+        <v>357</v>
+      </c>
+      <c r="E173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>237</v>
+      </c>
+      <c r="B174" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" t="s">
+        <v>352</v>
+      </c>
+      <c r="D174" t="s">
+        <v>357</v>
+      </c>
+      <c r="E174" t="s">
+        <v>358</v>
+      </c>
+      <c r="F174" t="s">
+        <v>444</v>
+      </c>
+      <c r="G174" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>207</v>
+      </c>
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s">
+        <v>352</v>
+      </c>
+      <c r="D175" t="s">
+        <v>357</v>
+      </c>
+      <c r="E175" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>149</v>
+      </c>
+      <c r="B176" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" t="s">
+        <v>352</v>
+      </c>
+      <c r="D176" t="s">
+        <v>357</v>
+      </c>
+      <c r="E176" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" t="s">
+        <v>348</v>
+      </c>
+      <c r="C177" t="s">
+        <v>352</v>
+      </c>
+      <c r="D177" t="s">
+        <v>357</v>
+      </c>
+      <c r="E177" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" t="s">
+        <v>352</v>
+      </c>
+      <c r="D178" t="s">
+        <v>361</v>
+      </c>
+      <c r="E178" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>291</v>
+      </c>
+      <c r="B179" t="s">
+        <v>348</v>
+      </c>
+      <c r="C179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>103</v>
+      </c>
+      <c r="B180" t="s">
+        <v>348</v>
+      </c>
+      <c r="C180" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>274</v>
+      </c>
+      <c r="B182" t="s">
+        <v>348</v>
+      </c>
+      <c r="C182" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>105</v>
+      </c>
+      <c r="B183" t="s">
+        <v>348</v>
+      </c>
+      <c r="C183" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>143</v>
+      </c>
+      <c r="B184" t="s">
+        <v>348</v>
+      </c>
+      <c r="C184" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>233</v>
+      </c>
+      <c r="B185" t="s">
+        <v>348</v>
+      </c>
+      <c r="C185" t="s">
+        <v>352</v>
+      </c>
+      <c r="D185" t="s">
+        <v>361</v>
+      </c>
+      <c r="E185" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>77</v>
+      </c>
+      <c r="B186" t="s">
+        <v>348</v>
+      </c>
+      <c r="C186" t="s">
+        <v>352</v>
+      </c>
+      <c r="D186" t="s">
+        <v>363</v>
+      </c>
+      <c r="E186" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>219</v>
+      </c>
+      <c r="B187" t="s">
+        <v>348</v>
+      </c>
+      <c r="C187" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" t="s">
+        <v>348</v>
+      </c>
+      <c r="C188" t="s">
+        <v>352</v>
+      </c>
+      <c r="F188" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>186</v>
-      </c>
-      <c r="B165" t="s">
-        <v>348</v>
-      </c>
-      <c r="C165" t="s">
-        <v>352</v>
-      </c>
-      <c r="D165" t="s">
-        <v>382</v>
-      </c>
-      <c r="E165" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>147</v>
-      </c>
-      <c r="B166" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" t="s">
-        <v>352</v>
-      </c>
-      <c r="D166" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>246</v>
-      </c>
-      <c r="B167" t="s">
-        <v>348</v>
-      </c>
-      <c r="C167" t="s">
-        <v>352</v>
-      </c>
-      <c r="D167" t="s">
-        <v>390</v>
-      </c>
-      <c r="E167" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>251</v>
-      </c>
-      <c r="B168" t="s">
-        <v>348</v>
-      </c>
-      <c r="C168" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>252</v>
-      </c>
-      <c r="B169" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>247</v>
-      </c>
-      <c r="B170" t="s">
-        <v>348</v>
-      </c>
-      <c r="C170" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>163</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" t="s">
-        <v>352</v>
-      </c>
-      <c r="F171" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>262</v>
+      </c>
+      <c r="B189" t="s">
+        <v>348</v>
+      </c>
+      <c r="C189" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>69</v>
+      </c>
+      <c r="B190" t="s">
+        <v>348</v>
+      </c>
+      <c r="C190" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" t="s">
+        <v>348</v>
+      </c>
+      <c r="C191" t="s">
+        <v>352</v>
+      </c>
+      <c r="F191" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>254</v>
-      </c>
-      <c r="B172" t="s">
-        <v>348</v>
-      </c>
-      <c r="C172" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>94</v>
-      </c>
-      <c r="B173" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>118</v>
-      </c>
-      <c r="B174" t="s">
-        <v>348</v>
-      </c>
-      <c r="C174" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>241</v>
-      </c>
-      <c r="B175" t="s">
-        <v>348</v>
-      </c>
-      <c r="C175" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>242</v>
-      </c>
-      <c r="B176" t="s">
-        <v>348</v>
-      </c>
-      <c r="C176" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>422</v>
-      </c>
-      <c r="B177" t="s">
-        <v>350</v>
-      </c>
-      <c r="C177" t="s">
-        <v>407</v>
-      </c>
-      <c r="G177" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>421</v>
-      </c>
-      <c r="B178" t="s">
-        <v>350</v>
-      </c>
-      <c r="C178" t="s">
-        <v>407</v>
-      </c>
-      <c r="G178" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>243</v>
-      </c>
-      <c r="B179" t="s">
-        <v>348</v>
-      </c>
-      <c r="C179" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>430</v>
-      </c>
-      <c r="B180" t="s">
-        <v>350</v>
-      </c>
-      <c r="C180" t="s">
-        <v>407</v>
-      </c>
-      <c r="G180" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>187</v>
-      </c>
-      <c r="B181" t="s">
-        <v>348</v>
-      </c>
-      <c r="C181" t="s">
-        <v>352</v>
-      </c>
-      <c r="D181" t="s">
-        <v>375</v>
-      </c>
-      <c r="E181" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>55</v>
-      </c>
-      <c r="B182" t="s">
-        <v>348</v>
-      </c>
-      <c r="C182" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>37</v>
-      </c>
-      <c r="B183" t="s">
-        <v>348</v>
-      </c>
-      <c r="C183" t="s">
-        <v>352</v>
-      </c>
-      <c r="D183" t="s">
-        <v>375</v>
-      </c>
-      <c r="E183" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>249</v>
-      </c>
-      <c r="B184" t="s">
-        <v>348</v>
-      </c>
-      <c r="C184" t="s">
-        <v>352</v>
-      </c>
-      <c r="D184" t="s">
-        <v>375</v>
-      </c>
-      <c r="E184" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>34</v>
-      </c>
-      <c r="B185" t="s">
-        <v>348</v>
-      </c>
-      <c r="C185" t="s">
-        <v>352</v>
-      </c>
-      <c r="D185" t="s">
-        <v>375</v>
-      </c>
-      <c r="E185" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>458</v>
-      </c>
-      <c r="B186" t="s">
-        <v>348</v>
-      </c>
-      <c r="C186" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>453</v>
-      </c>
-      <c r="B187" t="s">
-        <v>348</v>
-      </c>
-      <c r="C187" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>452</v>
-      </c>
-      <c r="B188" t="s">
-        <v>349</v>
-      </c>
-      <c r="C188" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>298</v>
-      </c>
-      <c r="B189" t="s">
-        <v>350</v>
-      </c>
-      <c r="C189" t="s">
-        <v>352</v>
-      </c>
-      <c r="D189" t="s">
-        <v>357</v>
-      </c>
-      <c r="E189" t="s">
-        <v>360</v>
-      </c>
-      <c r="F189" t="s">
-        <v>444</v>
-      </c>
-      <c r="G189" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>299</v>
-      </c>
-      <c r="B190" t="s">
-        <v>350</v>
-      </c>
-      <c r="C190" t="s">
-        <v>352</v>
-      </c>
-      <c r="D190" t="s">
-        <v>357</v>
-      </c>
-      <c r="E190" t="s">
-        <v>360</v>
-      </c>
-      <c r="F190" t="s">
-        <v>444</v>
-      </c>
-      <c r="G190" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>300</v>
-      </c>
-      <c r="B191" t="s">
-        <v>350</v>
-      </c>
-      <c r="C191" t="s">
-        <v>352</v>
-      </c>
-      <c r="D191" t="s">
-        <v>357</v>
-      </c>
-      <c r="E191" t="s">
-        <v>360</v>
-      </c>
-      <c r="F191" t="s">
-        <v>444</v>
-      </c>
-      <c r="G191" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
         <v>348</v>
@@ -5338,45 +5373,51 @@
         <v>360</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="C193" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>357</v>
+      </c>
+      <c r="E193" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="B194" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="C194" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>450</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C195" t="s">
         <v>352</v>
       </c>
-      <c r="D195" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="B196" t="s">
         <v>348</v>
@@ -5385,9 +5426,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="B197" t="s">
         <v>348</v>
@@ -5396,9 +5437,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
         <v>348</v>
@@ -5406,75 +5447,78 @@
       <c r="C198" t="s">
         <v>352</v>
       </c>
-      <c r="D198" t="s">
-        <v>354</v>
-      </c>
-      <c r="E198" t="s">
-        <v>386</v>
-      </c>
-      <c r="F198" t="s">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>108</v>
+      </c>
+      <c r="B199" t="s">
+        <v>348</v>
+      </c>
+      <c r="C199" t="s">
+        <v>352</v>
+      </c>
+      <c r="D199" t="s">
+        <v>357</v>
+      </c>
+      <c r="E199" t="s">
+        <v>358</v>
+      </c>
+      <c r="F199" t="s">
+        <v>389</v>
+      </c>
+      <c r="G199" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>82</v>
+      </c>
+      <c r="B200" t="s">
+        <v>348</v>
+      </c>
+      <c r="C200" t="s">
+        <v>352</v>
+      </c>
+      <c r="D200" t="s">
+        <v>365</v>
+      </c>
+      <c r="E200" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>250</v>
+      </c>
+      <c r="B201" t="s">
+        <v>348</v>
+      </c>
+      <c r="C201" t="s">
+        <v>352</v>
+      </c>
+      <c r="D201" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>154</v>
+      </c>
+      <c r="B202" t="s">
+        <v>348</v>
+      </c>
+      <c r="C202" t="s">
+        <v>352</v>
+      </c>
+      <c r="F202" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>222</v>
-      </c>
-      <c r="B199" t="s">
-        <v>348</v>
-      </c>
-      <c r="C199" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>52</v>
-      </c>
-      <c r="B200" t="s">
-        <v>348</v>
-      </c>
-      <c r="C200" t="s">
-        <v>352</v>
-      </c>
-      <c r="D200" t="s">
-        <v>359</v>
-      </c>
-      <c r="E200" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>139</v>
-      </c>
-      <c r="B201" t="s">
-        <v>348</v>
-      </c>
-      <c r="C201" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>22</v>
-      </c>
-      <c r="B202" t="s">
-        <v>348</v>
-      </c>
-      <c r="C202" t="s">
-        <v>352</v>
-      </c>
-      <c r="D202" t="s">
-        <v>357</v>
-      </c>
-      <c r="E202" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="B203" t="s">
         <v>348</v>
@@ -5483,15 +5527,15 @@
         <v>352</v>
       </c>
       <c r="D203" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="E203" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B204" t="s">
         <v>348</v>
@@ -5502,182 +5546,182 @@
       <c r="D204" t="s">
         <v>359</v>
       </c>
-      <c r="E204" t="s">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>246</v>
+      </c>
+      <c r="B205" t="s">
+        <v>348</v>
+      </c>
+      <c r="C205" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" t="s">
+        <v>390</v>
+      </c>
+      <c r="E205" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206" t="s">
+        <v>348</v>
+      </c>
+      <c r="C206" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>252</v>
+      </c>
+      <c r="B207" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>247</v>
+      </c>
+      <c r="B208" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>163</v>
+      </c>
+      <c r="B209" t="s">
+        <v>348</v>
+      </c>
+      <c r="C209" t="s">
+        <v>352</v>
+      </c>
+      <c r="F209" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>254</v>
+      </c>
+      <c r="B210" t="s">
+        <v>348</v>
+      </c>
+      <c r="C210" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>94</v>
+      </c>
+      <c r="B211" t="s">
+        <v>348</v>
+      </c>
+      <c r="C211" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>118</v>
+      </c>
+      <c r="B212" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>241</v>
+      </c>
+      <c r="B213" t="s">
+        <v>348</v>
+      </c>
+      <c r="C213" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>242</v>
+      </c>
+      <c r="B214" t="s">
+        <v>348</v>
+      </c>
+      <c r="C214" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>243</v>
+      </c>
+      <c r="B215" t="s">
+        <v>348</v>
+      </c>
+      <c r="C215" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>243</v>
+      </c>
+      <c r="B216" t="s">
+        <v>348</v>
+      </c>
+      <c r="C216" t="s">
+        <v>352</v>
+      </c>
+      <c r="F216" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>464</v>
+      </c>
+      <c r="B217" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>187</v>
+      </c>
+      <c r="B218" t="s">
+        <v>348</v>
+      </c>
+      <c r="C218" t="s">
+        <v>352</v>
+      </c>
+      <c r="D218" t="s">
+        <v>375</v>
+      </c>
+      <c r="E218" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>391</v>
-      </c>
-      <c r="B205" t="s">
-        <v>348</v>
-      </c>
-      <c r="C205" t="s">
-        <v>352</v>
-      </c>
-      <c r="D205" t="s">
-        <v>359</v>
-      </c>
-      <c r="E205" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>159</v>
-      </c>
-      <c r="B206" t="s">
-        <v>348</v>
-      </c>
-      <c r="C206" t="s">
-        <v>352</v>
-      </c>
-      <c r="D206" t="s">
-        <v>359</v>
-      </c>
-      <c r="E206" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>322</v>
-      </c>
-      <c r="B207" t="s">
-        <v>348</v>
-      </c>
-      <c r="C207" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>457</v>
-      </c>
-      <c r="B208" t="s">
-        <v>348</v>
-      </c>
-      <c r="C208" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>110</v>
-      </c>
-      <c r="B209" t="s">
-        <v>348</v>
-      </c>
-      <c r="C209" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>325</v>
-      </c>
-      <c r="B210" t="s">
-        <v>349</v>
-      </c>
-      <c r="C210" t="s">
-        <v>352</v>
-      </c>
-      <c r="D210" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>318</v>
-      </c>
-      <c r="B211" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>311</v>
-      </c>
-      <c r="B212" t="s">
-        <v>348</v>
-      </c>
-      <c r="C212" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>161</v>
-      </c>
-      <c r="B213" t="s">
-        <v>348</v>
-      </c>
-      <c r="C213" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>90</v>
-      </c>
-      <c r="B214" t="s">
-        <v>348</v>
-      </c>
-      <c r="C214" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>92</v>
-      </c>
-      <c r="B215" t="s">
-        <v>348</v>
-      </c>
-      <c r="C215" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>38</v>
-      </c>
-      <c r="B216" t="s">
-        <v>348</v>
-      </c>
-      <c r="C216" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>261</v>
-      </c>
-      <c r="B217" t="s">
-        <v>348</v>
-      </c>
-      <c r="C217" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>417</v>
-      </c>
-      <c r="B218" t="s">
-        <v>348</v>
-      </c>
-      <c r="C218" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B219" t="s">
         <v>348</v>
@@ -5686,9 +5730,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="B220" t="s">
         <v>348</v>
@@ -5696,10 +5740,16 @@
       <c r="C220" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>375</v>
+      </c>
+      <c r="E220" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
         <v>348</v>
@@ -5707,10 +5757,16 @@
       <c r="C221" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>375</v>
+      </c>
+      <c r="E221" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="B222" t="s">
         <v>348</v>
@@ -5718,10 +5774,16 @@
       <c r="C222" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>375</v>
+      </c>
+      <c r="E222" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="B223" t="s">
         <v>348</v>
@@ -5730,9 +5792,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="B224" t="s">
         <v>348</v>
@@ -5743,7 +5805,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="B225" t="s">
         <v>348</v>
@@ -5752,7 +5814,7 @@
         <v>352</v>
       </c>
       <c r="D225" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E225" t="s">
         <v>360</v>
@@ -5760,7 +5822,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B226" t="s">
         <v>348</v>
@@ -5771,7 +5833,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>455</v>
+        <v>189</v>
       </c>
       <c r="B227" t="s">
         <v>348</v>
@@ -5782,18 +5844,27 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="B228" t="s">
         <v>348</v>
       </c>
       <c r="C228" t="s">
         <v>352</v>
+      </c>
+      <c r="D228" t="s">
+        <v>354</v>
+      </c>
+      <c r="E228" t="s">
+        <v>386</v>
+      </c>
+      <c r="F228" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="B229" t="s">
         <v>348</v>
@@ -5804,18 +5875,24 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
         <v>348</v>
       </c>
       <c r="C230" t="s">
         <v>352</v>
+      </c>
+      <c r="D230" t="s">
+        <v>359</v>
+      </c>
+      <c r="E230" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="B231" t="s">
         <v>348</v>
@@ -5826,18 +5903,24 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="B232" t="s">
         <v>348</v>
       </c>
       <c r="C232" t="s">
         <v>352</v>
+      </c>
+      <c r="D232" t="s">
+        <v>357</v>
+      </c>
+      <c r="E232" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="B233" t="s">
         <v>348</v>
@@ -5846,12 +5929,15 @@
         <v>352</v>
       </c>
       <c r="D233" t="s">
-        <v>392</v>
+        <v>359</v>
+      </c>
+      <c r="E233" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B234" t="s">
         <v>348</v>
@@ -5860,23 +5946,32 @@
         <v>352</v>
       </c>
       <c r="D234" t="s">
-        <v>392</v>
+        <v>359</v>
+      </c>
+      <c r="E234" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="B235" t="s">
         <v>348</v>
       </c>
       <c r="C235" t="s">
         <v>352</v>
+      </c>
+      <c r="D235" t="s">
+        <v>359</v>
+      </c>
+      <c r="E235" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B236" t="s">
         <v>348</v>
@@ -5885,12 +5980,15 @@
         <v>352</v>
       </c>
       <c r="D236" t="s">
-        <v>392</v>
+        <v>359</v>
+      </c>
+      <c r="E236" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="B237" t="s">
         <v>348</v>
@@ -5901,7 +5999,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>457</v>
       </c>
       <c r="B238" t="s">
         <v>348</v>
@@ -5912,474 +6010,438 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="B239" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C239" t="s">
         <v>352</v>
-      </c>
-      <c r="D239" t="s">
-        <v>357</v>
-      </c>
-      <c r="E239" t="s">
-        <v>358</v>
-      </c>
-      <c r="F239" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>318</v>
+      </c>
+      <c r="B240" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>311</v>
+      </c>
+      <c r="B241" t="s">
+        <v>348</v>
+      </c>
+      <c r="C241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>161</v>
+      </c>
+      <c r="B242" t="s">
+        <v>348</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>90</v>
+      </c>
+      <c r="B243" t="s">
+        <v>348</v>
+      </c>
+      <c r="C243" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>92</v>
+      </c>
+      <c r="B244" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>38</v>
+      </c>
+      <c r="B245" t="s">
+        <v>348</v>
+      </c>
+      <c r="C245" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>261</v>
+      </c>
+      <c r="B246" t="s">
+        <v>348</v>
+      </c>
+      <c r="C246" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>417</v>
+      </c>
+      <c r="B247" t="s">
+        <v>348</v>
+      </c>
+      <c r="C247" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>123</v>
+      </c>
+      <c r="B248" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>228</v>
+      </c>
+      <c r="B249" t="s">
+        <v>348</v>
+      </c>
+      <c r="C249" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>151</v>
+      </c>
+      <c r="B250" t="s">
+        <v>348</v>
+      </c>
+      <c r="C250" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>179</v>
+      </c>
+      <c r="B251" t="s">
+        <v>348</v>
+      </c>
+      <c r="C251" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>245</v>
+      </c>
+      <c r="B252" t="s">
+        <v>348</v>
+      </c>
+      <c r="C252" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>267</v>
+      </c>
+      <c r="B253" t="s">
+        <v>348</v>
+      </c>
+      <c r="C253" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>466</v>
+      </c>
+      <c r="B254" t="s">
+        <v>348</v>
+      </c>
+      <c r="C254" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>268</v>
+      </c>
+      <c r="B255" t="s">
+        <v>348</v>
+      </c>
+      <c r="C255" t="s">
+        <v>352</v>
+      </c>
+      <c r="D255" t="s">
+        <v>359</v>
+      </c>
+      <c r="E255" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>67</v>
+      </c>
+      <c r="B256" t="s">
+        <v>348</v>
+      </c>
+      <c r="C256" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>455</v>
+      </c>
+      <c r="B257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>462</v>
+      </c>
+      <c r="B258" t="s">
+        <v>348</v>
+      </c>
+      <c r="C258" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>256</v>
+      </c>
+      <c r="B259" t="s">
+        <v>348</v>
+      </c>
+      <c r="C259" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>62</v>
+      </c>
+      <c r="B260" t="s">
+        <v>348</v>
+      </c>
+      <c r="C260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>140</v>
+      </c>
+      <c r="B261" t="s">
+        <v>348</v>
+      </c>
+      <c r="C261" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>312</v>
+      </c>
+      <c r="B262" t="s">
+        <v>348</v>
+      </c>
+      <c r="C262" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>184</v>
+      </c>
+      <c r="B263" t="s">
+        <v>348</v>
+      </c>
+      <c r="C263" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>124</v>
+      </c>
+      <c r="B264" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" t="s">
+        <v>352</v>
+      </c>
+      <c r="D264" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>125</v>
+      </c>
+      <c r="B265" t="s">
+        <v>348</v>
+      </c>
+      <c r="C265" t="s">
+        <v>352</v>
+      </c>
+      <c r="D265" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>294</v>
+      </c>
+      <c r="B266" t="s">
+        <v>348</v>
+      </c>
+      <c r="C266" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>126</v>
+      </c>
+      <c r="B267" t="s">
+        <v>348</v>
+      </c>
+      <c r="C267" t="s">
+        <v>352</v>
+      </c>
+      <c r="D267" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" t="s">
+        <v>348</v>
+      </c>
+      <c r="C268" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>244</v>
+      </c>
+      <c r="B269" t="s">
+        <v>348</v>
+      </c>
+      <c r="C269" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>212</v>
       </c>
-      <c r="B240" t="s">
-        <v>348</v>
-      </c>
-      <c r="C240" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B270" t="s">
+        <v>348</v>
+      </c>
+      <c r="C270" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>456</v>
       </c>
-      <c r="B241" t="s">
-        <v>348</v>
-      </c>
-      <c r="C241" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B271" t="s">
+        <v>348</v>
+      </c>
+      <c r="C271" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>129</v>
       </c>
-      <c r="B242" t="s">
-        <v>348</v>
-      </c>
-      <c r="C242" t="s">
-        <v>352</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="B272" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" t="s">
+        <v>352</v>
+      </c>
+      <c r="D272" t="s">
         <v>375</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E272" t="s">
         <v>360</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F272" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>413</v>
-      </c>
-      <c r="B243" t="s">
-        <v>348</v>
-      </c>
-      <c r="C243" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>414</v>
-      </c>
-      <c r="B244" t="s">
-        <v>348</v>
-      </c>
-      <c r="C244" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>449</v>
-      </c>
-      <c r="B245" t="s">
-        <v>350</v>
-      </c>
-      <c r="C245" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>448</v>
-      </c>
-      <c r="B246" t="s">
-        <v>350</v>
-      </c>
-      <c r="C246" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>412</v>
-      </c>
-      <c r="B247" t="s">
-        <v>348</v>
-      </c>
-      <c r="C247" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>84</v>
-      </c>
-      <c r="B248" t="s">
-        <v>348</v>
-      </c>
-      <c r="C248" t="s">
-        <v>352</v>
-      </c>
-      <c r="D248" t="s">
-        <v>354</v>
-      </c>
-      <c r="E248" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>51</v>
-      </c>
-      <c r="B249" t="s">
-        <v>348</v>
-      </c>
-      <c r="C249" t="s">
-        <v>352</v>
-      </c>
-      <c r="D249" t="s">
-        <v>354</v>
-      </c>
-      <c r="E249" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>134</v>
-      </c>
-      <c r="B250" t="s">
-        <v>348</v>
-      </c>
-      <c r="C250" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>133</v>
-      </c>
-      <c r="B251" t="s">
-        <v>348</v>
-      </c>
-      <c r="C251" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>135</v>
-      </c>
-      <c r="B252" t="s">
-        <v>348</v>
-      </c>
-      <c r="C252" t="s">
-        <v>352</v>
-      </c>
-      <c r="D252" t="s">
-        <v>365</v>
-      </c>
-      <c r="E252" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>132</v>
-      </c>
-      <c r="B253" t="s">
-        <v>348</v>
-      </c>
-      <c r="C253" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>7</v>
-      </c>
-      <c r="B254" t="s">
-        <v>348</v>
-      </c>
-      <c r="C254" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>6</v>
-      </c>
-      <c r="B255" t="s">
-        <v>348</v>
-      </c>
-      <c r="C255" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>196</v>
-      </c>
-      <c r="B256" t="s">
-        <v>348</v>
-      </c>
-      <c r="C256" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>68</v>
-      </c>
-      <c r="B257" t="s">
-        <v>348</v>
-      </c>
-      <c r="C257" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>138</v>
-      </c>
-      <c r="B258" t="s">
-        <v>348</v>
-      </c>
-      <c r="C258" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>96</v>
-      </c>
-      <c r="B259" t="s">
-        <v>348</v>
-      </c>
-      <c r="C259" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>302</v>
-      </c>
-      <c r="B260" t="s">
-        <v>350</v>
-      </c>
-      <c r="C260" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>100</v>
-      </c>
-      <c r="B261" t="s">
-        <v>348</v>
-      </c>
-      <c r="C261" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>168</v>
-      </c>
-      <c r="B262" t="s">
-        <v>348</v>
-      </c>
-      <c r="C262" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>175</v>
-      </c>
-      <c r="B263" t="s">
-        <v>348</v>
-      </c>
-      <c r="C263" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>72</v>
-      </c>
-      <c r="B264" t="s">
-        <v>348</v>
-      </c>
-      <c r="C264" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>239</v>
-      </c>
-      <c r="B265" t="s">
-        <v>348</v>
-      </c>
-      <c r="C265" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>405</v>
-      </c>
-      <c r="B266" t="s">
-        <v>350</v>
-      </c>
-      <c r="C266" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>297</v>
-      </c>
-      <c r="B267" t="s">
-        <v>348</v>
-      </c>
-      <c r="C267" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>178</v>
-      </c>
-      <c r="B268" t="s">
-        <v>348</v>
-      </c>
-      <c r="C268" t="s">
-        <v>352</v>
-      </c>
-      <c r="D268" t="s">
-        <v>359</v>
-      </c>
-      <c r="E268" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>289</v>
-      </c>
-      <c r="B269" t="s">
-        <v>348</v>
-      </c>
-      <c r="C269" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>283</v>
-      </c>
-      <c r="B270" t="s">
-        <v>348</v>
-      </c>
-      <c r="C270" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>461</v>
-      </c>
-      <c r="B271" t="s">
-        <v>348</v>
-      </c>
-      <c r="C271" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>341</v>
-      </c>
-      <c r="B272" t="s">
-        <v>348</v>
-      </c>
-      <c r="C272" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>58</v>
+        <v>413</v>
       </c>
       <c r="B273" t="s">
         <v>348</v>
       </c>
       <c r="C273" t="s">
         <v>352</v>
-      </c>
-      <c r="D273" t="s">
-        <v>365</v>
-      </c>
-      <c r="E273" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="B274" t="s">
         <v>348</v>
       </c>
       <c r="C274" t="s">
         <v>352</v>
-      </c>
-      <c r="D274" t="s">
-        <v>359</v>
-      </c>
-      <c r="E274" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>412</v>
       </c>
       <c r="B275" t="s">
         <v>348</v>
       </c>
       <c r="C275" t="s">
         <v>352</v>
-      </c>
-      <c r="D275" t="s">
-        <v>359</v>
-      </c>
-      <c r="E275" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B276" t="s">
         <v>348</v>
@@ -6388,43 +6450,43 @@
         <v>352</v>
       </c>
       <c r="D276" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E276" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="B277" t="s">
         <v>348</v>
       </c>
       <c r="C277" t="s">
         <v>352</v>
+      </c>
+      <c r="D277" t="s">
+        <v>354</v>
+      </c>
+      <c r="E277" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="B278" t="s">
         <v>348</v>
       </c>
       <c r="C278" t="s">
         <v>352</v>
-      </c>
-      <c r="D278" t="s">
-        <v>365</v>
-      </c>
-      <c r="E278" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="B279" t="s">
         <v>348</v>
@@ -6435,18 +6497,24 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="B280" t="s">
         <v>348</v>
       </c>
       <c r="C280" t="s">
         <v>352</v>
+      </c>
+      <c r="D280" t="s">
+        <v>365</v>
+      </c>
+      <c r="E280" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="B281" t="s">
         <v>348</v>
@@ -6457,7 +6525,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="B282" t="s">
         <v>348</v>
@@ -6468,7 +6536,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="B283" t="s">
         <v>348</v>
@@ -6479,7 +6547,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B284" t="s">
         <v>348</v>
@@ -6490,41 +6558,29 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="B285" t="s">
         <v>348</v>
       </c>
       <c r="C285" t="s">
         <v>352</v>
-      </c>
-      <c r="D285" t="s">
-        <v>390</v>
-      </c>
-      <c r="E285" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B286" t="s">
         <v>348</v>
       </c>
       <c r="C286" t="s">
         <v>352</v>
-      </c>
-      <c r="D286" t="s">
-        <v>390</v>
-      </c>
-      <c r="E286" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="B287" t="s">
         <v>348</v>
@@ -6535,7 +6591,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="B288" t="s">
         <v>348</v>
@@ -6544,9 +6600,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="B289" t="s">
         <v>348</v>
@@ -6554,101 +6610,71 @@
       <c r="C289" t="s">
         <v>352</v>
       </c>
-      <c r="D289" t="s">
-        <v>357</v>
-      </c>
-      <c r="E289" t="s">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>175</v>
+      </c>
+      <c r="B290" t="s">
+        <v>348</v>
+      </c>
+      <c r="C290" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>72</v>
+      </c>
+      <c r="B291" t="s">
+        <v>348</v>
+      </c>
+      <c r="C291" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>239</v>
+      </c>
+      <c r="B292" t="s">
+        <v>348</v>
+      </c>
+      <c r="C292" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>297</v>
+      </c>
+      <c r="B293" t="s">
+        <v>348</v>
+      </c>
+      <c r="C293" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>178</v>
+      </c>
+      <c r="B294" t="s">
+        <v>348</v>
+      </c>
+      <c r="C294" t="s">
+        <v>352</v>
+      </c>
+      <c r="D294" t="s">
+        <v>359</v>
+      </c>
+      <c r="E294" t="s">
         <v>358</v>
       </c>
-      <c r="F289" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B290" t="s">
-        <v>348</v>
-      </c>
-      <c r="C290" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>223</v>
-      </c>
-      <c r="B291" t="s">
-        <v>348</v>
-      </c>
-      <c r="C291" t="s">
-        <v>352</v>
-      </c>
-      <c r="D291" t="s">
-        <v>354</v>
-      </c>
-      <c r="E291" t="s">
-        <v>393</v>
-      </c>
-      <c r="F291" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>304</v>
-      </c>
-      <c r="B292" t="s">
-        <v>348</v>
-      </c>
-      <c r="C292" t="s">
-        <v>352</v>
-      </c>
-      <c r="D292" t="s">
-        <v>357</v>
-      </c>
-      <c r="E292" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>198</v>
-      </c>
-      <c r="B293" t="s">
-        <v>348</v>
-      </c>
-      <c r="C293" t="s">
-        <v>352</v>
-      </c>
-      <c r="D293" t="s">
-        <v>357</v>
-      </c>
-      <c r="E293" t="s">
-        <v>360</v>
-      </c>
-      <c r="F293" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>427</v>
-      </c>
-      <c r="B294" t="s">
-        <v>350</v>
-      </c>
-      <c r="C294" t="s">
-        <v>407</v>
-      </c>
-      <c r="G294" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="B295" t="s">
         <v>348</v>
@@ -6656,16 +6682,10 @@
       <c r="C295" t="s">
         <v>352</v>
       </c>
-      <c r="D295" t="s">
-        <v>357</v>
-      </c>
-      <c r="E295" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="B296" t="s">
         <v>348</v>
@@ -6674,9 +6694,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>153</v>
+        <v>461</v>
       </c>
       <c r="B297" t="s">
         <v>348</v>
@@ -6685,9 +6705,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>120</v>
+        <v>467</v>
       </c>
       <c r="B298" t="s">
         <v>348</v>
@@ -6696,9 +6716,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="B299" t="s">
         <v>348</v>
@@ -6707,9 +6727,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="B300" t="s">
         <v>348</v>
@@ -6718,9 +6738,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="B301" t="s">
         <v>348</v>
@@ -6729,15 +6749,15 @@
         <v>352</v>
       </c>
       <c r="D301" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E301" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="B302" t="s">
         <v>348</v>
@@ -6745,10 +6765,16 @@
       <c r="C302" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>359</v>
+      </c>
+      <c r="E302" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="B303" t="s">
         <v>348</v>
@@ -6756,13 +6782,16 @@
       <c r="C303" t="s">
         <v>352</v>
       </c>
-      <c r="F303" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>359</v>
+      </c>
+      <c r="E303" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="B304" t="s">
         <v>348</v>
@@ -6773,10 +6802,13 @@
       <c r="D304" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="B305" t="s">
         <v>348</v>
@@ -6785,9 +6817,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>53</v>
+        <v>285</v>
       </c>
       <c r="B306" t="s">
         <v>348</v>
@@ -6795,10 +6827,16 @@
       <c r="C306" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>365</v>
+      </c>
+      <c r="E306" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="B307" t="s">
         <v>348</v>
@@ -6807,68 +6845,53 @@
         <v>352</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C308" t="s">
-        <v>407</v>
-      </c>
-      <c r="D308" t="s">
-        <v>378</v>
-      </c>
-      <c r="F308" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>327</v>
+        <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C309" t="s">
         <v>352</v>
       </c>
-      <c r="D309" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B310" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C310" t="s">
-        <v>407</v>
-      </c>
-      <c r="D310" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B311" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C311" t="s">
-        <v>407</v>
-      </c>
-      <c r="D311" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="B312" t="s">
         <v>348</v>
@@ -6877,9 +6900,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="B313" t="s">
         <v>348</v>
@@ -6887,10 +6910,16 @@
       <c r="C313" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>390</v>
+      </c>
+      <c r="E313" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>271</v>
+        <v>66</v>
       </c>
       <c r="B314" t="s">
         <v>348</v>
@@ -6899,15 +6928,15 @@
         <v>352</v>
       </c>
       <c r="D314" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="E314" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B315" t="s">
         <v>348</v>
@@ -6915,13 +6944,10 @@
       <c r="C315" t="s">
         <v>352</v>
       </c>
-      <c r="D315" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="B316" t="s">
         <v>348</v>
@@ -6929,19 +6955,10 @@
       <c r="C316" t="s">
         <v>352</v>
       </c>
-      <c r="D316" t="s">
-        <v>357</v>
-      </c>
-      <c r="E316" t="s">
-        <v>358</v>
-      </c>
-      <c r="F316" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="B317" t="s">
         <v>348</v>
@@ -6956,12 +6973,12 @@
         <v>358</v>
       </c>
       <c r="F317" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B318" t="s">
         <v>348</v>
@@ -6969,38 +6986,47 @@
       <c r="C318" t="s">
         <v>352</v>
       </c>
-      <c r="D318" t="s">
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>223</v>
+      </c>
+      <c r="B319" t="s">
+        <v>348</v>
+      </c>
+      <c r="C319" t="s">
+        <v>352</v>
+      </c>
+      <c r="D319" t="s">
+        <v>354</v>
+      </c>
+      <c r="E319" t="s">
+        <v>393</v>
+      </c>
+      <c r="F319" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>304</v>
+      </c>
+      <c r="B320" t="s">
+        <v>348</v>
+      </c>
+      <c r="C320" t="s">
+        <v>352</v>
+      </c>
+      <c r="D320" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>425</v>
-      </c>
-      <c r="B319" t="s">
-        <v>350</v>
-      </c>
-      <c r="C319" t="s">
-        <v>407</v>
-      </c>
-      <c r="G319" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>403</v>
-      </c>
-      <c r="B320" t="s">
-        <v>350</v>
-      </c>
-      <c r="C320" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="B321" t="s">
         <v>348</v>
@@ -7011,38 +7037,44 @@
       <c r="D321" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>360</v>
+      </c>
+      <c r="F321" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="B322" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C322" t="s">
-        <v>407</v>
-      </c>
-      <c r="G322" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D322" t="s">
+        <v>357</v>
+      </c>
+      <c r="E322" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
       <c r="B323" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C323" t="s">
-        <v>407</v>
-      </c>
-      <c r="G323" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="B324" t="s">
         <v>348</v>
@@ -7050,22 +7082,10 @@
       <c r="C324" t="s">
         <v>352</v>
       </c>
-      <c r="D324" t="s">
-        <v>357</v>
-      </c>
-      <c r="E324" t="s">
-        <v>358</v>
-      </c>
-      <c r="F324" t="s">
-        <v>444</v>
-      </c>
-      <c r="G324" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B325" t="s">
         <v>348</v>
@@ -7073,96 +7093,99 @@
       <c r="C325" t="s">
         <v>352</v>
       </c>
-      <c r="D325" t="s">
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>321</v>
+      </c>
+      <c r="B326" t="s">
+        <v>348</v>
+      </c>
+      <c r="C326" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>109</v>
+      </c>
+      <c r="B327" t="s">
+        <v>348</v>
+      </c>
+      <c r="C327" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>122</v>
+      </c>
+      <c r="B328" t="s">
+        <v>348</v>
+      </c>
+      <c r="C328" t="s">
+        <v>352</v>
+      </c>
+      <c r="D328" t="s">
+        <v>354</v>
+      </c>
+      <c r="E328" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>148</v>
+      </c>
+      <c r="B329" t="s">
+        <v>348</v>
+      </c>
+      <c r="C329" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>204</v>
+      </c>
+      <c r="B330" t="s">
+        <v>348</v>
+      </c>
+      <c r="C330" t="s">
+        <v>352</v>
+      </c>
+      <c r="F330" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>220</v>
+      </c>
+      <c r="B331" t="s">
+        <v>348</v>
+      </c>
+      <c r="C331" t="s">
+        <v>352</v>
+      </c>
+      <c r="D331" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>227</v>
-      </c>
-      <c r="B326" t="s">
-        <v>348</v>
-      </c>
-      <c r="C326" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>188</v>
-      </c>
-      <c r="B327" t="s">
-        <v>348</v>
-      </c>
-      <c r="C327" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>211</v>
-      </c>
-      <c r="B328" t="s">
-        <v>348</v>
-      </c>
-      <c r="C328" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>116</v>
-      </c>
-      <c r="B329" t="s">
-        <v>348</v>
-      </c>
-      <c r="C329" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>76</v>
-      </c>
-      <c r="B330" t="s">
-        <v>348</v>
-      </c>
-      <c r="C330" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>434</v>
-      </c>
-      <c r="B331" t="s">
-        <v>350</v>
-      </c>
-      <c r="C331" t="s">
-        <v>407</v>
-      </c>
-      <c r="G331" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>433</v>
+        <v>91</v>
       </c>
       <c r="B332" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C332" t="s">
-        <v>407</v>
-      </c>
-      <c r="G332" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="B333" t="s">
         <v>348</v>
@@ -7171,9 +7194,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="B334" t="s">
         <v>348</v>
@@ -7182,9 +7205,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="B335" t="s">
         <v>348</v>
@@ -7193,34 +7216,37 @@
         <v>352</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="B336" t="s">
         <v>348</v>
       </c>
       <c r="C336" t="s">
         <v>352</v>
-      </c>
-      <c r="D336" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="B337" t="s">
         <v>348</v>
       </c>
       <c r="C337" t="s">
         <v>352</v>
+      </c>
+      <c r="D337" t="s">
+        <v>357</v>
+      </c>
+      <c r="E337" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B338" t="s">
         <v>348</v>
@@ -7231,97 +7257,115 @@
       <c r="D338" t="s">
         <v>357</v>
       </c>
-      <c r="E338" t="s">
-        <v>358</v>
-      </c>
-      <c r="F338" t="s">
-        <v>444</v>
-      </c>
-      <c r="G338" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="B339" t="s">
         <v>348</v>
       </c>
       <c r="C339" t="s">
         <v>352</v>
+      </c>
+      <c r="D339" t="s">
+        <v>357</v>
+      </c>
+      <c r="E339" t="s">
+        <v>358</v>
+      </c>
+      <c r="F339" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="B340" t="s">
         <v>348</v>
       </c>
       <c r="C340" t="s">
         <v>352</v>
+      </c>
+      <c r="D340" t="s">
+        <v>357</v>
+      </c>
+      <c r="E340" t="s">
+        <v>358</v>
+      </c>
+      <c r="F340" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>326</v>
+        <v>39</v>
       </c>
       <c r="B341" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C341" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="D341" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>330</v>
+        <v>113</v>
       </c>
       <c r="B342" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C342" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="D342" t="s">
-        <v>443</v>
-      </c>
-      <c r="F342" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>451</v>
+        <v>225</v>
       </c>
       <c r="B343" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C343" t="s">
         <v>352</v>
       </c>
       <c r="D343" t="s">
-        <v>443</v>
+        <v>357</v>
+      </c>
+      <c r="E343" t="s">
+        <v>358</v>
+      </c>
+      <c r="F343" t="s">
+        <v>444</v>
+      </c>
+      <c r="G343" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="B344" t="s">
         <v>348</v>
       </c>
       <c r="C344" t="s">
         <v>352</v>
+      </c>
+      <c r="D344" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="B345" t="s">
         <v>348</v>
@@ -7332,24 +7376,18 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="B346" t="s">
         <v>348</v>
       </c>
       <c r="C346" t="s">
         <v>352</v>
-      </c>
-      <c r="D346" t="s">
-        <v>359</v>
-      </c>
-      <c r="E346" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
@@ -7360,7 +7398,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="B348" t="s">
         <v>348</v>
@@ -7371,7 +7409,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B349" t="s">
         <v>348</v>
@@ -7382,24 +7420,18 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="B350" t="s">
         <v>348</v>
       </c>
       <c r="C350" t="s">
         <v>352</v>
-      </c>
-      <c r="D350" t="s">
-        <v>357</v>
-      </c>
-      <c r="E350" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B351" t="s">
         <v>348</v>
@@ -7410,7 +7442,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B352" t="s">
         <v>348</v>
@@ -7421,18 +7453,21 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B353" t="s">
         <v>348</v>
       </c>
       <c r="C353" t="s">
         <v>352</v>
+      </c>
+      <c r="D353" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B354" t="s">
         <v>348</v>
@@ -7443,18 +7478,30 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B355" t="s">
         <v>348</v>
       </c>
       <c r="C355" t="s">
         <v>352</v>
+      </c>
+      <c r="D355" t="s">
+        <v>357</v>
+      </c>
+      <c r="E355" t="s">
+        <v>358</v>
+      </c>
+      <c r="F355" t="s">
+        <v>444</v>
+      </c>
+      <c r="G355" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B356" t="s">
         <v>348</v>
@@ -7465,24 +7512,18 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="B357" t="s">
         <v>348</v>
       </c>
       <c r="C357" t="s">
         <v>352</v>
-      </c>
-      <c r="D357" t="s">
-        <v>375</v>
-      </c>
-      <c r="E357" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="B358" t="s">
         <v>348</v>
@@ -7493,7 +7534,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B359" t="s">
         <v>348</v>
@@ -7504,7 +7545,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="B360" t="s">
         <v>348</v>
@@ -7513,15 +7554,15 @@
         <v>352</v>
       </c>
       <c r="D360" t="s">
-        <v>357</v>
-      </c>
-      <c r="F360" t="s">
-        <v>387</v>
+        <v>359</v>
+      </c>
+      <c r="E360" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B361" t="s">
         <v>348</v>
@@ -7532,7 +7573,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>459</v>
+        <v>194</v>
       </c>
       <c r="B362" t="s">
         <v>348</v>
@@ -7543,72 +7584,57 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="B363" t="s">
         <v>348</v>
       </c>
       <c r="C363" t="s">
         <v>352</v>
-      </c>
-      <c r="D363" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>440</v>
+        <v>26</v>
       </c>
       <c r="B364" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C364" t="s">
-        <v>407</v>
-      </c>
-      <c r="G364" t="s">
-        <v>374</v>
+        <v>352</v>
+      </c>
+      <c r="D364" t="s">
+        <v>357</v>
+      </c>
+      <c r="E364" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="B365" t="s">
-        <v>350</v>
-      </c>
-      <c r="D365" t="s">
-        <v>375</v>
-      </c>
-      <c r="E365" t="s">
-        <v>358</v>
-      </c>
-      <c r="F365" t="s">
-        <v>444</v>
-      </c>
-      <c r="G365" t="s">
-        <v>374</v>
+        <v>348</v>
+      </c>
+      <c r="C365" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>396</v>
+        <v>158</v>
       </c>
       <c r="B366" t="s">
         <v>348</v>
       </c>
       <c r="C366" t="s">
         <v>352</v>
-      </c>
-      <c r="D366" t="s">
-        <v>375</v>
-      </c>
-      <c r="E366" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B367" t="s">
         <v>348</v>
@@ -7619,311 +7645,443 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>136</v>
+      </c>
+      <c r="B368" t="s">
+        <v>348</v>
+      </c>
+      <c r="C368" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>93</v>
+      </c>
+      <c r="B369" t="s">
+        <v>348</v>
+      </c>
+      <c r="C369" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>319</v>
+      </c>
+      <c r="B370" t="s">
+        <v>348</v>
+      </c>
+      <c r="C370" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371" t="s">
+        <v>348</v>
+      </c>
+      <c r="C371" t="s">
+        <v>352</v>
+      </c>
+      <c r="D371" t="s">
+        <v>375</v>
+      </c>
+      <c r="E371" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>282</v>
+      </c>
+      <c r="B372" t="s">
+        <v>348</v>
+      </c>
+      <c r="C372" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>281</v>
+      </c>
+      <c r="B373" t="s">
+        <v>348</v>
+      </c>
+      <c r="C373" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>36</v>
+      </c>
+      <c r="B374" t="s">
+        <v>348</v>
+      </c>
+      <c r="C374" t="s">
+        <v>352</v>
+      </c>
+      <c r="D374" t="s">
+        <v>357</v>
+      </c>
+      <c r="F374" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>152</v>
+      </c>
+      <c r="B375" t="s">
+        <v>348</v>
+      </c>
+      <c r="C375" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>459</v>
+      </c>
+      <c r="B376" t="s">
+        <v>348</v>
+      </c>
+      <c r="C376" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>183</v>
+      </c>
+      <c r="B377" t="s">
+        <v>348</v>
+      </c>
+      <c r="C377" t="s">
+        <v>352</v>
+      </c>
+      <c r="D377" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>396</v>
+      </c>
+      <c r="B378" t="s">
+        <v>348</v>
+      </c>
+      <c r="C378" t="s">
+        <v>352</v>
+      </c>
+      <c r="D378" t="s">
+        <v>375</v>
+      </c>
+      <c r="E378" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>127</v>
+      </c>
+      <c r="B379" t="s">
+        <v>348</v>
+      </c>
+      <c r="C379" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
         <v>460</v>
       </c>
-      <c r="B368" t="s">
-        <v>348</v>
-      </c>
-      <c r="C368" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="B380" t="s">
+        <v>348</v>
+      </c>
+      <c r="C380" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>463</v>
+      </c>
+      <c r="B381" t="s">
+        <v>348</v>
+      </c>
+      <c r="C381" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>14</v>
       </c>
-      <c r="B369" t="s">
-        <v>348</v>
-      </c>
-      <c r="C369" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="B382" t="s">
+        <v>348</v>
+      </c>
+      <c r="C382" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>465</v>
+      </c>
+      <c r="B383" t="s">
+        <v>348</v>
+      </c>
+      <c r="C383" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
         <v>284</v>
       </c>
-      <c r="B370" t="s">
-        <v>348</v>
-      </c>
-      <c r="C370" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="B384" t="s">
+        <v>348</v>
+      </c>
+      <c r="C384" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>114</v>
       </c>
-      <c r="B371" t="s">
-        <v>348</v>
-      </c>
-      <c r="C371" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="B385" t="s">
+        <v>348</v>
+      </c>
+      <c r="C385" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>24</v>
       </c>
-      <c r="B372" t="s">
-        <v>348</v>
-      </c>
-      <c r="C372" t="s">
-        <v>352</v>
-      </c>
-      <c r="F372" t="s">
+      <c r="B386" t="s">
+        <v>348</v>
+      </c>
+      <c r="C386" t="s">
+        <v>352</v>
+      </c>
+      <c r="F386" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>97</v>
       </c>
-      <c r="B373" t="s">
-        <v>348</v>
-      </c>
-      <c r="C373" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="B387" t="s">
+        <v>348</v>
+      </c>
+      <c r="C387" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>162</v>
       </c>
-      <c r="B374" t="s">
-        <v>348</v>
-      </c>
-      <c r="C374" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="B388" t="s">
+        <v>348</v>
+      </c>
+      <c r="C388" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>16</v>
       </c>
-      <c r="B375" t="s">
-        <v>348</v>
-      </c>
-      <c r="C375" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="B389" t="s">
+        <v>348</v>
+      </c>
+      <c r="C389" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>3</v>
       </c>
-      <c r="B376" t="s">
-        <v>348</v>
-      </c>
-      <c r="C376" t="s">
-        <v>352</v>
-      </c>
-      <c r="D376" t="s">
+      <c r="B390" t="s">
+        <v>348</v>
+      </c>
+      <c r="C390" t="s">
+        <v>352</v>
+      </c>
+      <c r="D390" t="s">
         <v>365</v>
       </c>
-      <c r="E376" t="s">
+      <c r="E390" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>275</v>
       </c>
-      <c r="B377" t="s">
-        <v>348</v>
-      </c>
-      <c r="C377" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="B391" t="s">
+        <v>348</v>
+      </c>
+      <c r="C391" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>317</v>
       </c>
-      <c r="B378" t="s">
-        <v>348</v>
-      </c>
-      <c r="C378" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>435</v>
-      </c>
-      <c r="B379" t="s">
-        <v>350</v>
-      </c>
-      <c r="C379" t="s">
+      <c r="B392" t="s">
+        <v>348</v>
+      </c>
+      <c r="C392" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>106</v>
+      </c>
+      <c r="B393" t="s">
+        <v>348</v>
+      </c>
+      <c r="C393" t="s">
+        <v>352</v>
+      </c>
+      <c r="D393" t="s">
+        <v>361</v>
+      </c>
+      <c r="E393" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>337</v>
+      </c>
+      <c r="B394" t="s">
+        <v>348</v>
+      </c>
+      <c r="C394" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>73</v>
+      </c>
+      <c r="B395" t="s">
+        <v>348</v>
+      </c>
+      <c r="C395" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>255</v>
+      </c>
+      <c r="B396" t="s">
+        <v>348</v>
+      </c>
+      <c r="C396" t="s">
+        <v>352</v>
+      </c>
+      <c r="D396" t="s">
+        <v>363</v>
+      </c>
+      <c r="E396" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>340</v>
+      </c>
+      <c r="B397" t="s">
+        <v>348</v>
+      </c>
+      <c r="C397" t="s">
+        <v>352</v>
+      </c>
+      <c r="D397" t="s">
+        <v>363</v>
+      </c>
+      <c r="E397" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>454</v>
+      </c>
+      <c r="B398" t="s">
+        <v>348</v>
+      </c>
+      <c r="C398" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>241</v>
+      </c>
+      <c r="B399" t="s">
+        <v>348</v>
+      </c>
+      <c r="C399" t="s">
         <v>407</v>
       </c>
-      <c r="G379" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>436</v>
-      </c>
-      <c r="B380" t="s">
-        <v>350</v>
-      </c>
-      <c r="C380" t="s">
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>242</v>
+      </c>
+      <c r="B400" t="s">
+        <v>348</v>
+      </c>
+      <c r="C400" t="s">
         <v>407</v>
       </c>
-      <c r="G380" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>106</v>
-      </c>
-      <c r="B381" t="s">
-        <v>348</v>
-      </c>
-      <c r="C381" t="s">
-        <v>352</v>
-      </c>
-      <c r="D381" t="s">
-        <v>361</v>
-      </c>
-      <c r="E381" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>337</v>
-      </c>
-      <c r="B382" t="s">
-        <v>348</v>
-      </c>
-      <c r="C382" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>73</v>
-      </c>
-      <c r="B383" t="s">
-        <v>348</v>
-      </c>
-      <c r="C383" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>335</v>
-      </c>
-      <c r="B384" t="s">
-        <v>349</v>
-      </c>
-      <c r="C384" t="s">
-        <v>407</v>
-      </c>
-      <c r="D384" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>329</v>
-      </c>
-      <c r="B385" t="s">
-        <v>349</v>
-      </c>
-      <c r="C385" t="s">
-        <v>352</v>
-      </c>
-      <c r="D385" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>255</v>
-      </c>
-      <c r="B386" t="s">
-        <v>348</v>
-      </c>
-      <c r="C386" t="s">
-        <v>352</v>
-      </c>
-      <c r="D386" t="s">
-        <v>363</v>
-      </c>
-      <c r="E386" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>340</v>
-      </c>
-      <c r="B387" t="s">
-        <v>348</v>
-      </c>
-      <c r="C387" t="s">
-        <v>352</v>
-      </c>
-      <c r="D387" t="s">
-        <v>363</v>
-      </c>
-      <c r="E387" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>454</v>
-      </c>
-      <c r="B388" t="s">
-        <v>348</v>
-      </c>
-      <c r="C388" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>462</v>
-      </c>
-      <c r="B389" t="s">
-        <v>348</v>
-      </c>
-      <c r="C389" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>463</v>
-      </c>
-      <c r="B390" t="s">
-        <v>348</v>
-      </c>
-      <c r="C390" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>464</v>
-      </c>
-      <c r="B391" t="s">
-        <v>348</v>
-      </c>
-      <c r="C391" t="s">
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>416</v>
+      </c>
+      <c r="B401" t="s">
+        <v>418</v>
+      </c>
+      <c r="C401" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>415</v>
+      </c>
+      <c r="B402" t="s">
+        <v>418</v>
+      </c>
+      <c r="C402" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G380"/>
-  <sortState ref="A2:H388">
-    <sortCondition ref="A2:A388"/>
+  <sortState ref="A2:H402">
+    <sortCondition ref="B2:B402"/>
+    <sortCondition ref="C2:C402"/>
+    <sortCondition ref="A2:A402"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7934,7 +8092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8577,10 +8737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8594,8 +8754,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>306</v>
+      <c r="A2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8605,307 +8765,362 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>287</v>
+      <c r="A12" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>311</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>313</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>342</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>453</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>455</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>456</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>457</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>458</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>461</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>462</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>463</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>464</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A28">
-    <sortCondition ref="A2:A28"/>
+  <sortState ref="A2:A74">
+    <sortCondition ref="A2:A74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8914,10 +9129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8950,26 +9165,6 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>244</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8977,7 +9172,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -8995,42 +9190,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -9040,35 +9235,43 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9078,7 +9281,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/elenco.xlsx
+++ b/elenco.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="477">
   <si>
     <t>Sonic forces</t>
   </si>
@@ -1455,6 +1455,18 @@
   </si>
   <si>
     <t>Xenoblade Chronicles™ 3</t>
+  </si>
+  <si>
+    <t>Diablo® II: Resurrected</t>
+  </si>
+  <si>
+    <t>Sword Art Online: Alicization Lycoris</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last of Us Parte II </t>
   </si>
 </sst>
 </file>
@@ -1794,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,82 +1817,86 @@
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f ca="1">MID(CELL("nomefile",A1),FIND("]",CELL("nomefile",A1))+1,255)</f>
+        <v>PS4-HD1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2545,13 +2561,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B380" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F217" sqref="F217"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,7 +4321,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>473</v>
       </c>
       <c r="B120" t="s">
         <v>348</v>
@@ -4316,7 +4332,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
         <v>348</v>
@@ -4327,7 +4343,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="B122" t="s">
         <v>348</v>
@@ -4338,7 +4354,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
         <v>348</v>
@@ -4349,7 +4365,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
         <v>348</v>
@@ -4360,21 +4376,18 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B125" t="s">
         <v>348</v>
       </c>
       <c r="C125" t="s">
         <v>352</v>
-      </c>
-      <c r="D125" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="B126" t="s">
         <v>348</v>
@@ -4383,18 +4396,12 @@
         <v>352</v>
       </c>
       <c r="D126" t="s">
-        <v>382</v>
-      </c>
-      <c r="F126" t="s">
-        <v>377</v>
-      </c>
-      <c r="G126" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B127" t="s">
         <v>348</v>
@@ -4414,7 +4421,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B128" t="s">
         <v>348</v>
@@ -4434,35 +4441,38 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>410</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
         <v>348</v>
       </c>
       <c r="C129" t="s">
         <v>352</v>
+      </c>
+      <c r="D129" t="s">
+        <v>382</v>
+      </c>
+      <c r="F129" t="s">
+        <v>377</v>
+      </c>
+      <c r="G129" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>410</v>
       </c>
       <c r="B130" t="s">
         <v>348</v>
       </c>
       <c r="C130" t="s">
         <v>352</v>
-      </c>
-      <c r="D130" t="s">
-        <v>357</v>
-      </c>
-      <c r="E130" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>411</v>
+        <v>27</v>
       </c>
       <c r="B131" t="s">
         <v>348</v>
@@ -4470,13 +4480,16 @@
       <c r="C131" t="s">
         <v>352</v>
       </c>
-      <c r="G131" t="s">
-        <v>374</v>
+      <c r="D131" t="s">
+        <v>357</v>
+      </c>
+      <c r="E131" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="B132" t="s">
         <v>348</v>
@@ -4484,16 +4497,13 @@
       <c r="C132" t="s">
         <v>352</v>
       </c>
-      <c r="D132" t="s">
-        <v>359</v>
-      </c>
-      <c r="E132" t="s">
-        <v>360</v>
+      <c r="G132" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
         <v>348</v>
@@ -4510,7 +4520,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s">
         <v>348</v>
@@ -4527,35 +4537,35 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
         <v>348</v>
       </c>
       <c r="C135" t="s">
         <v>352</v>
+      </c>
+      <c r="D135" t="s">
+        <v>359</v>
+      </c>
+      <c r="E135" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
         <v>348</v>
       </c>
       <c r="C136" t="s">
         <v>352</v>
-      </c>
-      <c r="D136" t="s">
-        <v>357</v>
-      </c>
-      <c r="E136" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
         <v>348</v>
@@ -4572,18 +4582,24 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="B138" t="s">
         <v>348</v>
       </c>
       <c r="C138" t="s">
         <v>352</v>
+      </c>
+      <c r="D138" t="s">
+        <v>357</v>
+      </c>
+      <c r="E138" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="B139" t="s">
         <v>348</v>
@@ -4594,7 +4610,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s">
         <v>348</v>
@@ -4605,32 +4621,32 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>348</v>
       </c>
       <c r="C141" t="s">
         <v>352</v>
-      </c>
-      <c r="F141" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
         <v>348</v>
       </c>
       <c r="C142" t="s">
         <v>352</v>
+      </c>
+      <c r="F142" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B143" t="s">
         <v>348</v>
@@ -4641,7 +4657,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="B144" t="s">
         <v>348</v>
@@ -4652,38 +4668,38 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
         <v>348</v>
       </c>
       <c r="C145" t="s">
         <v>352</v>
-      </c>
-      <c r="D145" t="s">
-        <v>357</v>
-      </c>
-      <c r="E145" t="s">
-        <v>358</v>
-      </c>
-      <c r="F145" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
         <v>348</v>
       </c>
       <c r="C146" t="s">
         <v>352</v>
+      </c>
+      <c r="D146" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B147" t="s">
         <v>348</v>
@@ -4694,7 +4710,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B148" t="s">
         <v>348</v>
@@ -4705,7 +4721,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B149" t="s">
         <v>348</v>
@@ -4716,7 +4732,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>292</v>
+        <v>141</v>
       </c>
       <c r="B150" t="s">
         <v>348</v>
@@ -4727,7 +4743,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="B151" t="s">
         <v>348</v>
@@ -4738,49 +4754,43 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s">
         <v>348</v>
       </c>
       <c r="C152" t="s">
         <v>352</v>
-      </c>
-      <c r="F152" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
         <v>348</v>
       </c>
       <c r="C153" t="s">
         <v>352</v>
+      </c>
+      <c r="F153" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B154" t="s">
         <v>348</v>
       </c>
       <c r="C154" t="s">
         <v>352</v>
-      </c>
-      <c r="D154" t="s">
-        <v>365</v>
-      </c>
-      <c r="E154" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B155" t="s">
         <v>348</v>
@@ -4789,18 +4799,15 @@
         <v>352</v>
       </c>
       <c r="D155" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E155" t="s">
-        <v>373</v>
-      </c>
-      <c r="F155" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
         <v>348</v>
@@ -4809,32 +4816,41 @@
         <v>352</v>
       </c>
       <c r="D156" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="E156" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F156" t="s">
-        <v>398</v>
-      </c>
-      <c r="G156" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B157" t="s">
         <v>348</v>
       </c>
       <c r="C157" t="s">
         <v>352</v>
+      </c>
+      <c r="D157" t="s">
+        <v>382</v>
+      </c>
+      <c r="E157" t="s">
+        <v>358</v>
+      </c>
+      <c r="F157" t="s">
+        <v>398</v>
+      </c>
+      <c r="G157" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
         <v>348</v>
@@ -4845,7 +4861,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>348</v>
@@ -4856,38 +4872,38 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
         <v>348</v>
       </c>
       <c r="C160" t="s">
         <v>352</v>
-      </c>
-      <c r="D160" t="s">
-        <v>357</v>
-      </c>
-      <c r="E160" t="s">
-        <v>360</v>
-      </c>
-      <c r="F160" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B161" t="s">
         <v>348</v>
       </c>
       <c r="C161" t="s">
         <v>352</v>
+      </c>
+      <c r="D161" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" t="s">
+        <v>360</v>
+      </c>
+      <c r="F161" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="B162" t="s">
         <v>348</v>
@@ -4898,30 +4914,18 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>447</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
         <v>348</v>
       </c>
       <c r="C163" t="s">
         <v>352</v>
-      </c>
-      <c r="D163" t="s">
-        <v>357</v>
-      </c>
-      <c r="E163" t="s">
-        <v>358</v>
-      </c>
-      <c r="F163" t="s">
-        <v>384</v>
-      </c>
-      <c r="H163" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="B164" t="s">
         <v>348</v>
@@ -4936,15 +4940,15 @@
         <v>358</v>
       </c>
       <c r="F164" t="s">
-        <v>444</v>
-      </c>
-      <c r="G164" t="s">
-        <v>374</v>
+        <v>384</v>
+      </c>
+      <c r="H164" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
         <v>348</v>
@@ -4961,13 +4965,13 @@
       <c r="F165" t="s">
         <v>444</v>
       </c>
-      <c r="H165" t="s">
-        <v>385</v>
+      <c r="G165" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B166" t="s">
         <v>348</v>
@@ -4982,12 +4986,15 @@
         <v>358</v>
       </c>
       <c r="F166" t="s">
-        <v>383</v>
+        <v>444</v>
+      </c>
+      <c r="H166" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>445</v>
+        <v>286</v>
       </c>
       <c r="B167" t="s">
         <v>348</v>
@@ -5002,12 +5009,12 @@
         <v>358</v>
       </c>
       <c r="F167" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B168" t="s">
         <v>348</v>
@@ -5027,7 +5034,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>446</v>
       </c>
       <c r="B169" t="s">
         <v>348</v>
@@ -5036,15 +5043,18 @@
         <v>352</v>
       </c>
       <c r="D169" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E169" t="s">
-        <v>386</v>
+        <v>358</v>
+      </c>
+      <c r="F169" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s">
         <v>348</v>
@@ -5053,43 +5063,43 @@
         <v>352</v>
       </c>
       <c r="D170" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E170" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="B171" t="s">
         <v>348</v>
       </c>
       <c r="C171" t="s">
         <v>352</v>
+      </c>
+      <c r="D171" t="s">
+        <v>359</v>
+      </c>
+      <c r="E171" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="B172" t="s">
         <v>348</v>
       </c>
       <c r="C172" t="s">
         <v>352</v>
-      </c>
-      <c r="D172" t="s">
-        <v>382</v>
-      </c>
-      <c r="E172" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
         <v>348</v>
@@ -5098,15 +5108,15 @@
         <v>352</v>
       </c>
       <c r="D173" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="E173" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B174" t="s">
         <v>348</v>
@@ -5120,16 +5130,10 @@
       <c r="E174" t="s">
         <v>358</v>
       </c>
-      <c r="F174" t="s">
-        <v>444</v>
-      </c>
-      <c r="G174" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
         <v>348</v>
@@ -5141,12 +5145,18 @@
         <v>357</v>
       </c>
       <c r="E175" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="F175" t="s">
+        <v>444</v>
+      </c>
+      <c r="G175" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="B176" t="s">
         <v>348</v>
@@ -5163,7 +5173,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="B177" t="s">
         <v>348</v>
@@ -5180,7 +5190,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="B178" t="s">
         <v>348</v>
@@ -5189,26 +5199,32 @@
         <v>352</v>
       </c>
       <c r="D178" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E178" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="B179" t="s">
         <v>348</v>
       </c>
       <c r="C179" t="s">
         <v>352</v>
+      </c>
+      <c r="D179" t="s">
+        <v>361</v>
+      </c>
+      <c r="E179" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="B180" t="s">
         <v>348</v>
@@ -5219,7 +5235,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B181" t="s">
         <v>348</v>
@@ -5230,7 +5246,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="B182" t="s">
         <v>348</v>
@@ -5241,7 +5257,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>348</v>
@@ -5252,7 +5268,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
         <v>348</v>
@@ -5263,24 +5279,18 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="B185" t="s">
         <v>348</v>
       </c>
       <c r="C185" t="s">
         <v>352</v>
-      </c>
-      <c r="D185" t="s">
-        <v>361</v>
-      </c>
-      <c r="E185" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="B186" t="s">
         <v>348</v>
@@ -5289,51 +5299,57 @@
         <v>352</v>
       </c>
       <c r="D186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E186" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="B187" t="s">
         <v>348</v>
       </c>
       <c r="C187" t="s">
         <v>352</v>
+      </c>
+      <c r="D187" t="s">
+        <v>363</v>
+      </c>
+      <c r="E187" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B188" t="s">
         <v>348</v>
       </c>
       <c r="C188" t="s">
         <v>352</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
         <v>348</v>
       </c>
       <c r="C189" t="s">
         <v>352</v>
+      </c>
+      <c r="F189" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
         <v>348</v>
@@ -5344,21 +5360,18 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B191" t="s">
         <v>348</v>
       </c>
       <c r="C191" t="s">
         <v>352</v>
-      </c>
-      <c r="F191" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="B192" t="s">
         <v>348</v>
@@ -5366,16 +5379,13 @@
       <c r="C192" t="s">
         <v>352</v>
       </c>
-      <c r="D192" t="s">
-        <v>357</v>
-      </c>
-      <c r="E192" t="s">
-        <v>360</v>
+      <c r="F192" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="B193" t="s">
         <v>348</v>
@@ -5392,7 +5402,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>348</v>
@@ -5400,24 +5410,30 @@
       <c r="C194" t="s">
         <v>352</v>
       </c>
-      <c r="F194" t="s">
-        <v>372</v>
+      <c r="D194" t="s">
+        <v>357</v>
+      </c>
+      <c r="E194" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B195" t="s">
         <v>348</v>
       </c>
       <c r="C195" t="s">
         <v>352</v>
+      </c>
+      <c r="F195" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
         <v>348</v>
@@ -5428,7 +5444,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="B197" t="s">
         <v>348</v>
@@ -5439,7 +5455,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
         <v>348</v>
@@ -5450,30 +5466,18 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="B199" t="s">
         <v>348</v>
       </c>
       <c r="C199" t="s">
         <v>352</v>
-      </c>
-      <c r="D199" t="s">
-        <v>357</v>
-      </c>
-      <c r="E199" t="s">
-        <v>358</v>
-      </c>
-      <c r="F199" t="s">
-        <v>389</v>
-      </c>
-      <c r="G199" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B200" t="s">
         <v>348</v>
@@ -5482,15 +5486,21 @@
         <v>352</v>
       </c>
       <c r="D200" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E200" t="s">
-        <v>366</v>
+        <v>358</v>
+      </c>
+      <c r="F200" t="s">
+        <v>389</v>
+      </c>
+      <c r="G200" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="B201" t="s">
         <v>348</v>
@@ -5499,12 +5509,15 @@
         <v>352</v>
       </c>
       <c r="D201" t="s">
-        <v>359</v>
+        <v>365</v>
+      </c>
+      <c r="E201" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="B202" t="s">
         <v>348</v>
@@ -5512,13 +5525,13 @@
       <c r="C202" t="s">
         <v>352</v>
       </c>
-      <c r="F202" t="s">
-        <v>372</v>
+      <c r="D202" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B203" t="s">
         <v>348</v>
@@ -5526,16 +5539,13 @@
       <c r="C203" t="s">
         <v>352</v>
       </c>
-      <c r="D203" t="s">
-        <v>382</v>
-      </c>
-      <c r="E203" t="s">
-        <v>399</v>
+      <c r="F203" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B204" t="s">
         <v>348</v>
@@ -5544,12 +5554,15 @@
         <v>352</v>
       </c>
       <c r="D204" t="s">
-        <v>359</v>
+        <v>382</v>
+      </c>
+      <c r="E204" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="B205" t="s">
         <v>348</v>
@@ -5558,26 +5571,29 @@
         <v>352</v>
       </c>
       <c r="D205" t="s">
-        <v>390</v>
-      </c>
-      <c r="E205" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B206" t="s">
         <v>348</v>
       </c>
       <c r="C206" t="s">
         <v>352</v>
+      </c>
+      <c r="D206" t="s">
+        <v>390</v>
+      </c>
+      <c r="E206" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
         <v>348</v>
@@ -5588,7 +5604,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
         <v>348</v>
@@ -5599,32 +5615,32 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="B209" t="s">
         <v>348</v>
       </c>
       <c r="C209" t="s">
         <v>352</v>
-      </c>
-      <c r="F209" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="B210" t="s">
         <v>348</v>
       </c>
       <c r="C210" t="s">
         <v>352</v>
+      </c>
+      <c r="F210" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="B211" t="s">
         <v>348</v>
@@ -5635,7 +5651,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B212" t="s">
         <v>348</v>
@@ -5646,7 +5662,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="B213" t="s">
         <v>348</v>
@@ -5657,7 +5673,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B214" t="s">
         <v>348</v>
@@ -5668,7 +5684,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B215" t="s">
         <v>348</v>
@@ -5687,69 +5703,63 @@
       <c r="C216" t="s">
         <v>352</v>
       </c>
-      <c r="F216" t="s">
-        <v>372</v>
-      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>464</v>
+        <v>243</v>
       </c>
       <c r="B217" t="s">
         <v>348</v>
       </c>
       <c r="C217" t="s">
         <v>352</v>
+      </c>
+      <c r="F217" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>187</v>
+        <v>464</v>
       </c>
       <c r="B218" t="s">
         <v>348</v>
       </c>
       <c r="C218" t="s">
         <v>352</v>
-      </c>
-      <c r="D218" t="s">
-        <v>375</v>
-      </c>
-      <c r="E218" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B219" t="s">
         <v>348</v>
       </c>
       <c r="C219" t="s">
         <v>352</v>
+      </c>
+      <c r="D219" t="s">
+        <v>375</v>
+      </c>
+      <c r="E219" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B220" t="s">
         <v>348</v>
       </c>
       <c r="C220" t="s">
         <v>352</v>
-      </c>
-      <c r="D220" t="s">
-        <v>375</v>
-      </c>
-      <c r="E220" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="B221" t="s">
         <v>348</v>
@@ -5766,7 +5776,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="B222" t="s">
         <v>348</v>
@@ -5783,18 +5793,24 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>458</v>
+        <v>34</v>
       </c>
       <c r="B223" t="s">
         <v>348</v>
       </c>
       <c r="C223" t="s">
         <v>352</v>
+      </c>
+      <c r="D223" t="s">
+        <v>375</v>
+      </c>
+      <c r="E223" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B224" t="s">
         <v>348</v>
@@ -5805,35 +5821,35 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>209</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
         <v>348</v>
       </c>
       <c r="C225" t="s">
         <v>352</v>
-      </c>
-      <c r="D225" t="s">
-        <v>357</v>
-      </c>
-      <c r="E225" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B226" t="s">
         <v>348</v>
       </c>
       <c r="C226" t="s">
         <v>352</v>
+      </c>
+      <c r="D226" t="s">
+        <v>357</v>
+      </c>
+      <c r="E226" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="B227" t="s">
         <v>348</v>
@@ -5844,83 +5860,77 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B228" t="s">
         <v>348</v>
       </c>
       <c r="C228" t="s">
         <v>352</v>
-      </c>
-      <c r="D228" t="s">
-        <v>354</v>
-      </c>
-      <c r="E228" t="s">
-        <v>386</v>
-      </c>
-      <c r="F228" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="B229" t="s">
         <v>348</v>
       </c>
       <c r="C229" t="s">
         <v>352</v>
+      </c>
+      <c r="D229" t="s">
+        <v>354</v>
+      </c>
+      <c r="E229" t="s">
+        <v>386</v>
+      </c>
+      <c r="F229" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="B230" t="s">
         <v>348</v>
       </c>
       <c r="C230" t="s">
         <v>352</v>
-      </c>
-      <c r="D230" t="s">
-        <v>359</v>
-      </c>
-      <c r="E230" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="B231" t="s">
         <v>348</v>
       </c>
       <c r="C231" t="s">
         <v>352</v>
+      </c>
+      <c r="D231" t="s">
+        <v>359</v>
+      </c>
+      <c r="E231" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B232" t="s">
         <v>348</v>
       </c>
       <c r="C232" t="s">
         <v>352</v>
-      </c>
-      <c r="D232" t="s">
-        <v>357</v>
-      </c>
-      <c r="E232" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="B233" t="s">
         <v>348</v>
@@ -5929,15 +5939,15 @@
         <v>352</v>
       </c>
       <c r="D233" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E233" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="B234" t="s">
         <v>348</v>
@@ -5949,12 +5959,12 @@
         <v>359</v>
       </c>
       <c r="E234" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="B235" t="s">
         <v>348</v>
@@ -5971,7 +5981,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="B236" t="s">
         <v>348</v>
@@ -5988,18 +5998,24 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="B237" t="s">
         <v>348</v>
       </c>
       <c r="C237" t="s">
         <v>352</v>
+      </c>
+      <c r="D237" t="s">
+        <v>359</v>
+      </c>
+      <c r="E237" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>457</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
         <v>348</v>
@@ -6010,7 +6026,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>110</v>
+        <v>457</v>
       </c>
       <c r="B239" t="s">
         <v>348</v>
@@ -6021,7 +6037,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="B240" t="s">
         <v>348</v>
@@ -6032,7 +6048,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B241" t="s">
         <v>348</v>
@@ -6043,7 +6059,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="B242" t="s">
         <v>348</v>
@@ -6054,7 +6070,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B243" t="s">
         <v>348</v>
@@ -6065,7 +6081,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B244" t="s">
         <v>348</v>
@@ -6076,7 +6092,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B245" t="s">
         <v>348</v>
@@ -6087,7 +6103,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="B246" t="s">
         <v>348</v>
@@ -6098,7 +6114,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>417</v>
+        <v>261</v>
       </c>
       <c r="B247" t="s">
         <v>348</v>
@@ -6109,7 +6125,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="B248" t="s">
         <v>348</v>
@@ -6120,7 +6136,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="B249" t="s">
         <v>348</v>
@@ -6131,7 +6147,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="B250" t="s">
         <v>348</v>
@@ -6142,7 +6158,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B251" t="s">
         <v>348</v>
@@ -6153,7 +6169,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="B252" t="s">
         <v>348</v>
@@ -6164,7 +6180,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B253" t="s">
         <v>348</v>
@@ -6175,7 +6191,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>466</v>
+        <v>267</v>
       </c>
       <c r="B254" t="s">
         <v>348</v>
@@ -6186,126 +6202,123 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>268</v>
+        <v>466</v>
       </c>
       <c r="B255" t="s">
         <v>348</v>
       </c>
       <c r="C255" t="s">
         <v>352</v>
-      </c>
-      <c r="D255" t="s">
-        <v>359</v>
-      </c>
-      <c r="E255" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>268</v>
+      </c>
+      <c r="B256" t="s">
+        <v>348</v>
+      </c>
+      <c r="C256" t="s">
+        <v>352</v>
+      </c>
+      <c r="D256" t="s">
+        <v>359</v>
+      </c>
+      <c r="E256" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>67</v>
       </c>
-      <c r="B256" t="s">
-        <v>348</v>
-      </c>
-      <c r="C256" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B257" t="s">
+        <v>348</v>
+      </c>
+      <c r="C257" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>455</v>
       </c>
-      <c r="B257" t="s">
-        <v>348</v>
-      </c>
-      <c r="C257" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B258" t="s">
+        <v>348</v>
+      </c>
+      <c r="C258" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>462</v>
       </c>
-      <c r="B258" t="s">
-        <v>348</v>
-      </c>
-      <c r="C258" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B259" t="s">
+        <v>348</v>
+      </c>
+      <c r="C259" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>256</v>
       </c>
-      <c r="B259" t="s">
-        <v>348</v>
-      </c>
-      <c r="C259" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B260" t="s">
+        <v>348</v>
+      </c>
+      <c r="C260" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>62</v>
       </c>
-      <c r="B260" t="s">
-        <v>348</v>
-      </c>
-      <c r="C260" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B261" t="s">
+        <v>348</v>
+      </c>
+      <c r="C261" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>140</v>
       </c>
-      <c r="B261" t="s">
-        <v>348</v>
-      </c>
-      <c r="C261" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B262" t="s">
+        <v>348</v>
+      </c>
+      <c r="C262" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>312</v>
       </c>
-      <c r="B262" t="s">
-        <v>348</v>
-      </c>
-      <c r="C262" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B263" t="s">
+        <v>348</v>
+      </c>
+      <c r="C263" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>184</v>
       </c>
-      <c r="B263" t="s">
-        <v>348</v>
-      </c>
-      <c r="C263" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B264" t="s">
+        <v>348</v>
+      </c>
+      <c r="C264" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>124</v>
-      </c>
-      <c r="B264" t="s">
-        <v>348</v>
-      </c>
-      <c r="C264" t="s">
-        <v>352</v>
-      </c>
-      <c r="D264" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>125</v>
       </c>
       <c r="B265" t="s">
         <v>348</v>
@@ -6317,148 +6330,145 @@
         <v>392</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>125</v>
+      </c>
+      <c r="B266" t="s">
+        <v>348</v>
+      </c>
+      <c r="C266" t="s">
+        <v>352</v>
+      </c>
+      <c r="D266" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>294</v>
       </c>
-      <c r="B266" t="s">
-        <v>348</v>
-      </c>
-      <c r="C266" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B267" t="s">
+        <v>348</v>
+      </c>
+      <c r="C267" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>126</v>
       </c>
-      <c r="B267" t="s">
-        <v>348</v>
-      </c>
-      <c r="C267" t="s">
-        <v>352</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="B268" t="s">
+        <v>348</v>
+      </c>
+      <c r="C268" t="s">
+        <v>352</v>
+      </c>
+      <c r="D268" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>17</v>
       </c>
-      <c r="B268" t="s">
-        <v>348</v>
-      </c>
-      <c r="C268" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="B269" t="s">
+        <v>348</v>
+      </c>
+      <c r="C269" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>244</v>
       </c>
-      <c r="B269" t="s">
-        <v>348</v>
-      </c>
-      <c r="C269" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
+        <v>348</v>
+      </c>
+      <c r="C270" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>212</v>
       </c>
-      <c r="B270" t="s">
-        <v>348</v>
-      </c>
-      <c r="C270" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B271" t="s">
+        <v>348</v>
+      </c>
+      <c r="C271" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>456</v>
       </c>
-      <c r="B271" t="s">
-        <v>348</v>
-      </c>
-      <c r="C271" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B272" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>129</v>
       </c>
-      <c r="B272" t="s">
-        <v>348</v>
-      </c>
-      <c r="C272" t="s">
-        <v>352</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="B273" t="s">
+        <v>348</v>
+      </c>
+      <c r="C273" t="s">
+        <v>352</v>
+      </c>
+      <c r="D273" t="s">
         <v>375</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E273" t="s">
         <v>360</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F273" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>413</v>
       </c>
-      <c r="B273" t="s">
-        <v>348</v>
-      </c>
-      <c r="C273" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B274" t="s">
+        <v>348</v>
+      </c>
+      <c r="C274" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>414</v>
       </c>
-      <c r="B274" t="s">
-        <v>348</v>
-      </c>
-      <c r="C274" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B275" t="s">
+        <v>348</v>
+      </c>
+      <c r="C275" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>412</v>
       </c>
-      <c r="B275" t="s">
-        <v>348</v>
-      </c>
-      <c r="C275" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>84</v>
-      </c>
-      <c r="B276" t="s">
-        <v>348</v>
-      </c>
-      <c r="C276" t="s">
-        <v>352</v>
-      </c>
-      <c r="D276" t="s">
-        <v>354</v>
-      </c>
-      <c r="E276" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>51</v>
       </c>
       <c r="B277" t="s">
         <v>348</v>
@@ -6470,128 +6480,134 @@
         <v>354</v>
       </c>
       <c r="E277" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>51</v>
+      </c>
+      <c r="B278" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" t="s">
+        <v>352</v>
+      </c>
+      <c r="D278" t="s">
+        <v>354</v>
+      </c>
+      <c r="E278" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>134</v>
       </c>
-      <c r="B278" t="s">
-        <v>348</v>
-      </c>
-      <c r="C278" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B279" t="s">
+        <v>348</v>
+      </c>
+      <c r="C279" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>133</v>
       </c>
-      <c r="B279" t="s">
-        <v>348</v>
-      </c>
-      <c r="C279" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B280" t="s">
+        <v>348</v>
+      </c>
+      <c r="C280" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>135</v>
       </c>
-      <c r="B280" t="s">
-        <v>348</v>
-      </c>
-      <c r="C280" t="s">
-        <v>352</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="B281" t="s">
+        <v>348</v>
+      </c>
+      <c r="C281" t="s">
+        <v>352</v>
+      </c>
+      <c r="D281" t="s">
         <v>365</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E281" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>132</v>
       </c>
-      <c r="B281" t="s">
-        <v>348</v>
-      </c>
-      <c r="C281" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B282" t="s">
+        <v>348</v>
+      </c>
+      <c r="C282" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>7</v>
       </c>
-      <c r="B282" t="s">
-        <v>348</v>
-      </c>
-      <c r="C282" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B283" t="s">
+        <v>348</v>
+      </c>
+      <c r="C283" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>6</v>
       </c>
-      <c r="B283" t="s">
-        <v>348</v>
-      </c>
-      <c r="C283" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B284" t="s">
+        <v>348</v>
+      </c>
+      <c r="C284" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>196</v>
       </c>
-      <c r="B284" t="s">
-        <v>348</v>
-      </c>
-      <c r="C284" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B285" t="s">
+        <v>348</v>
+      </c>
+      <c r="C285" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>68</v>
       </c>
-      <c r="B285" t="s">
-        <v>348</v>
-      </c>
-      <c r="C285" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B286" t="s">
+        <v>348</v>
+      </c>
+      <c r="C286" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>475</v>
+      </c>
+      <c r="B287" t="s">
+        <v>348</v>
+      </c>
+      <c r="C287" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>138</v>
-      </c>
-      <c r="B286" t="s">
-        <v>348</v>
-      </c>
-      <c r="C286" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>96</v>
-      </c>
-      <c r="B287" t="s">
-        <v>348</v>
-      </c>
-      <c r="C287" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>100</v>
       </c>
       <c r="B288" t="s">
         <v>348</v>
@@ -6602,7 +6618,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B289" t="s">
         <v>348</v>
@@ -6613,7 +6629,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B290" t="s">
         <v>348</v>
@@ -6624,7 +6640,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B291" t="s">
         <v>348</v>
@@ -6635,7 +6651,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="B292" t="s">
         <v>348</v>
@@ -6646,7 +6662,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="B293" t="s">
         <v>348</v>
@@ -6657,24 +6673,18 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="B294" t="s">
         <v>348</v>
       </c>
       <c r="C294" t="s">
         <v>352</v>
-      </c>
-      <c r="D294" t="s">
-        <v>359</v>
-      </c>
-      <c r="E294" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B295" t="s">
         <v>348</v>
@@ -6685,18 +6695,24 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="B296" t="s">
         <v>348</v>
       </c>
       <c r="C296" t="s">
         <v>352</v>
+      </c>
+      <c r="D296" t="s">
+        <v>359</v>
+      </c>
+      <c r="E296" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>461</v>
+        <v>289</v>
       </c>
       <c r="B297" t="s">
         <v>348</v>
@@ -6707,7 +6723,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
       <c r="B298" t="s">
         <v>348</v>
@@ -6718,7 +6734,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B299" t="s">
         <v>348</v>
@@ -6729,7 +6745,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="B300" t="s">
         <v>348</v>
@@ -6740,41 +6756,29 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="B301" t="s">
         <v>348</v>
       </c>
       <c r="C301" t="s">
         <v>352</v>
-      </c>
-      <c r="D301" t="s">
-        <v>365</v>
-      </c>
-      <c r="E301" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B302" t="s">
         <v>348</v>
       </c>
       <c r="C302" t="s">
         <v>352</v>
-      </c>
-      <c r="D302" t="s">
-        <v>359</v>
-      </c>
-      <c r="E302" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="B303" t="s">
         <v>348</v>
@@ -6783,15 +6787,15 @@
         <v>352</v>
       </c>
       <c r="D303" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E303" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="B304" t="s">
         <v>348</v>
@@ -6808,18 +6812,24 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B305" t="s">
         <v>348</v>
       </c>
       <c r="C305" t="s">
         <v>352</v>
+      </c>
+      <c r="D305" t="s">
+        <v>359</v>
+      </c>
+      <c r="E305" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="B306" t="s">
         <v>348</v>
@@ -6828,15 +6838,15 @@
         <v>352</v>
       </c>
       <c r="D306" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E306" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="B307" t="s">
         <v>348</v>
@@ -6847,18 +6857,24 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="B308" t="s">
         <v>348</v>
       </c>
       <c r="C308" t="s">
         <v>352</v>
+      </c>
+      <c r="D308" t="s">
+        <v>365</v>
+      </c>
+      <c r="E308" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="B309" t="s">
         <v>348</v>
@@ -6869,7 +6885,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
         <v>348</v>
@@ -6880,7 +6896,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="B311" t="s">
         <v>348</v>
@@ -6891,7 +6907,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="B312" t="s">
         <v>348</v>
@@ -6902,83 +6918,74 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="B313" t="s">
         <v>348</v>
       </c>
       <c r="C313" t="s">
         <v>352</v>
-      </c>
-      <c r="D313" t="s">
-        <v>390</v>
-      </c>
-      <c r="E313" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B314" t="s">
         <v>348</v>
       </c>
       <c r="C314" t="s">
         <v>352</v>
-      </c>
-      <c r="D314" t="s">
-        <v>390</v>
-      </c>
-      <c r="E314" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="B315" t="s">
         <v>348</v>
       </c>
       <c r="C315" t="s">
         <v>352</v>
+      </c>
+      <c r="D315" t="s">
+        <v>390</v>
+      </c>
+      <c r="E315" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="B316" t="s">
         <v>348</v>
       </c>
       <c r="C316" t="s">
         <v>352</v>
+      </c>
+      <c r="D316" t="s">
+        <v>390</v>
+      </c>
+      <c r="E316" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="B317" t="s">
         <v>348</v>
       </c>
       <c r="C317" t="s">
         <v>352</v>
-      </c>
-      <c r="D317" t="s">
-        <v>357</v>
-      </c>
-      <c r="E317" t="s">
-        <v>358</v>
-      </c>
-      <c r="F317" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="B318" t="s">
         <v>348</v>
@@ -6989,7 +6996,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="B319" t="s">
         <v>348</v>
@@ -6998,10 +7005,10 @@
         <v>352</v>
       </c>
       <c r="D319" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E319" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="F319" t="s">
         <v>372</v>
@@ -7009,24 +7016,18 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="B320" t="s">
         <v>348</v>
       </c>
       <c r="C320" t="s">
         <v>352</v>
-      </c>
-      <c r="D320" t="s">
-        <v>357</v>
-      </c>
-      <c r="E320" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B321" t="s">
         <v>348</v>
@@ -7035,18 +7036,18 @@
         <v>352</v>
       </c>
       <c r="D321" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E321" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="F321" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B322" t="s">
         <v>348</v>
@@ -7063,29 +7064,44 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="B323" t="s">
         <v>348</v>
       </c>
       <c r="C323" t="s">
         <v>352</v>
+      </c>
+      <c r="D323" t="s">
+        <v>357</v>
+      </c>
+      <c r="E323" t="s">
+        <v>360</v>
+      </c>
+      <c r="F323" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B324" t="s">
         <v>348</v>
       </c>
       <c r="C324" t="s">
         <v>352</v>
+      </c>
+      <c r="D324" t="s">
+        <v>357</v>
+      </c>
+      <c r="E324" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B325" t="s">
         <v>348</v>
@@ -7096,7 +7112,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c r="B326" t="s">
         <v>348</v>
@@ -7107,7 +7123,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B327" t="s">
         <v>348</v>
@@ -7118,24 +7134,18 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>122</v>
+        <v>321</v>
       </c>
       <c r="B328" t="s">
         <v>348</v>
       </c>
       <c r="C328" t="s">
         <v>352</v>
-      </c>
-      <c r="D328" t="s">
-        <v>354</v>
-      </c>
-      <c r="E328" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B329" t="s">
         <v>348</v>
@@ -7146,7 +7156,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="B330" t="s">
         <v>348</v>
@@ -7154,49 +7164,55 @@
       <c r="C330" t="s">
         <v>352</v>
       </c>
-      <c r="F330" t="s">
-        <v>372</v>
+      <c r="D330" t="s">
+        <v>354</v>
+      </c>
+      <c r="E330" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="B331" t="s">
         <v>348</v>
       </c>
       <c r="C331" t="s">
         <v>352</v>
-      </c>
-      <c r="D331" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="B332" t="s">
         <v>348</v>
       </c>
       <c r="C332" t="s">
         <v>352</v>
+      </c>
+      <c r="F332" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="B333" t="s">
         <v>348</v>
       </c>
       <c r="C333" t="s">
         <v>352</v>
+      </c>
+      <c r="D333" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B334" t="s">
         <v>348</v>
@@ -7207,7 +7223,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B335" t="s">
         <v>348</v>
@@ -7218,7 +7234,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B336" t="s">
         <v>348</v>
@@ -7229,38 +7245,29 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="B337" t="s">
         <v>348</v>
       </c>
       <c r="C337" t="s">
         <v>352</v>
-      </c>
-      <c r="D337" t="s">
-        <v>357</v>
-      </c>
-      <c r="E337" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B338" t="s">
         <v>348</v>
       </c>
       <c r="C338" t="s">
         <v>352</v>
-      </c>
-      <c r="D338" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="B339" t="s">
         <v>348</v>
@@ -7272,15 +7279,12 @@
         <v>357</v>
       </c>
       <c r="E339" t="s">
-        <v>358</v>
-      </c>
-      <c r="F339" t="s">
-        <v>444</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="B340" t="s">
         <v>348</v>
@@ -7291,16 +7295,10 @@
       <c r="D340" t="s">
         <v>357</v>
       </c>
-      <c r="E340" t="s">
-        <v>358</v>
-      </c>
-      <c r="F340" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B341" t="s">
         <v>348</v>
@@ -7311,10 +7309,16 @@
       <c r="D341" t="s">
         <v>357</v>
       </c>
+      <c r="E341" t="s">
+        <v>358</v>
+      </c>
+      <c r="F341" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="B342" t="s">
         <v>348</v>
@@ -7325,33 +7329,27 @@
       <c r="D342" t="s">
         <v>357</v>
       </c>
+      <c r="E342" t="s">
+        <v>358</v>
+      </c>
+      <c r="F342" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>225</v>
+        <v>474</v>
       </c>
       <c r="B343" t="s">
         <v>348</v>
       </c>
       <c r="C343" t="s">
         <v>352</v>
-      </c>
-      <c r="D343" t="s">
-        <v>357</v>
-      </c>
-      <c r="E343" t="s">
-        <v>358</v>
-      </c>
-      <c r="F343" t="s">
-        <v>444</v>
-      </c>
-      <c r="G343" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="B344" t="s">
         <v>348</v>
@@ -7360,45 +7358,63 @@
         <v>352</v>
       </c>
       <c r="D344" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="B345" t="s">
         <v>348</v>
       </c>
       <c r="C345" t="s">
         <v>352</v>
+      </c>
+      <c r="D345" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="B346" t="s">
         <v>348</v>
       </c>
       <c r="C346" t="s">
         <v>352</v>
+      </c>
+      <c r="D346" t="s">
+        <v>357</v>
+      </c>
+      <c r="E346" t="s">
+        <v>358</v>
+      </c>
+      <c r="F346" t="s">
+        <v>444</v>
+      </c>
+      <c r="G346" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
       </c>
       <c r="C347" t="s">
         <v>352</v>
+      </c>
+      <c r="D347" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B348" t="s">
         <v>348</v>
@@ -7409,7 +7425,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="B349" t="s">
         <v>348</v>
@@ -7420,7 +7436,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B350" t="s">
         <v>348</v>
@@ -7431,7 +7447,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="B351" t="s">
         <v>348</v>
@@ -7442,7 +7458,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="B352" t="s">
         <v>348</v>
@@ -7453,21 +7469,18 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="B353" t="s">
         <v>348</v>
       </c>
       <c r="C353" t="s">
         <v>352</v>
-      </c>
-      <c r="D353" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="B354" t="s">
         <v>348</v>
@@ -7478,41 +7491,32 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="B355" t="s">
         <v>348</v>
       </c>
       <c r="C355" t="s">
         <v>352</v>
-      </c>
-      <c r="D355" t="s">
-        <v>357</v>
-      </c>
-      <c r="E355" t="s">
-        <v>358</v>
-      </c>
-      <c r="F355" t="s">
-        <v>444</v>
-      </c>
-      <c r="G355" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>308</v>
+        <v>50</v>
       </c>
       <c r="B356" t="s">
         <v>348</v>
       </c>
       <c r="C356" t="s">
         <v>352</v>
+      </c>
+      <c r="D356" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>307</v>
+        <v>476</v>
       </c>
       <c r="B357" t="s">
         <v>348</v>
@@ -7523,7 +7527,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B358" t="s">
         <v>348</v>
@@ -7534,35 +7538,41 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="B359" t="s">
         <v>348</v>
       </c>
       <c r="C359" t="s">
         <v>352</v>
+      </c>
+      <c r="D359" t="s">
+        <v>357</v>
+      </c>
+      <c r="E359" t="s">
+        <v>358</v>
+      </c>
+      <c r="F359" t="s">
+        <v>444</v>
+      </c>
+      <c r="G359" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B360" t="s">
         <v>348</v>
       </c>
       <c r="C360" t="s">
         <v>352</v>
-      </c>
-      <c r="D360" t="s">
-        <v>359</v>
-      </c>
-      <c r="E360" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="B361" t="s">
         <v>348</v>
@@ -7573,7 +7583,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B362" t="s">
         <v>348</v>
@@ -7584,7 +7594,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="B363" t="s">
         <v>348</v>
@@ -7595,7 +7605,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="B364" t="s">
         <v>348</v>
@@ -7604,7 +7614,7 @@
         <v>352</v>
       </c>
       <c r="D364" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E364" t="s">
         <v>358</v>
@@ -7612,7 +7622,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B365" t="s">
         <v>348</v>
@@ -7623,7 +7633,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B366" t="s">
         <v>348</v>
@@ -7634,7 +7644,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B367" t="s">
         <v>348</v>
@@ -7645,18 +7655,24 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="B368" t="s">
         <v>348</v>
       </c>
       <c r="C368" t="s">
         <v>352</v>
+      </c>
+      <c r="D368" t="s">
+        <v>357</v>
+      </c>
+      <c r="E368" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B369" t="s">
         <v>348</v>
@@ -7667,7 +7683,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c r="B370" t="s">
         <v>348</v>
@@ -7678,24 +7694,18 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B371" t="s">
         <v>348</v>
       </c>
       <c r="C371" t="s">
         <v>352</v>
-      </c>
-      <c r="D371" t="s">
-        <v>375</v>
-      </c>
-      <c r="E371" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="B372" t="s">
         <v>348</v>
@@ -7706,7 +7716,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="B373" t="s">
         <v>348</v>
@@ -7717,35 +7727,35 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="B374" t="s">
         <v>348</v>
       </c>
       <c r="C374" t="s">
         <v>352</v>
-      </c>
-      <c r="D374" t="s">
-        <v>357</v>
-      </c>
-      <c r="F374" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B375" t="s">
         <v>348</v>
       </c>
       <c r="C375" t="s">
         <v>352</v>
+      </c>
+      <c r="D375" t="s">
+        <v>375</v>
+      </c>
+      <c r="E375" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="B376" t="s">
         <v>348</v>
@@ -7756,21 +7766,18 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="B377" t="s">
         <v>348</v>
       </c>
       <c r="C377" t="s">
         <v>352</v>
-      </c>
-      <c r="D377" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>396</v>
+        <v>36</v>
       </c>
       <c r="B378" t="s">
         <v>348</v>
@@ -7779,15 +7786,15 @@
         <v>352</v>
       </c>
       <c r="D378" t="s">
-        <v>375</v>
-      </c>
-      <c r="E378" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="F378" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B379" t="s">
         <v>348</v>
@@ -7798,7 +7805,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B380" t="s">
         <v>348</v>
@@ -7809,29 +7816,38 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>463</v>
+        <v>183</v>
       </c>
       <c r="B381" t="s">
         <v>348</v>
       </c>
       <c r="C381" t="s">
         <v>352</v>
+      </c>
+      <c r="D381" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>14</v>
+        <v>396</v>
       </c>
       <c r="B382" t="s">
         <v>348</v>
       </c>
       <c r="C382" t="s">
         <v>352</v>
+      </c>
+      <c r="D382" t="s">
+        <v>375</v>
+      </c>
+      <c r="E382" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="B383" t="s">
         <v>348</v>
@@ -7842,7 +7858,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="B384" t="s">
         <v>348</v>
@@ -7853,7 +7869,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>114</v>
+        <v>463</v>
       </c>
       <c r="B385" t="s">
         <v>348</v>
@@ -7864,21 +7880,18 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B386" t="s">
         <v>348</v>
       </c>
       <c r="C386" t="s">
         <v>352</v>
-      </c>
-      <c r="F386" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="B387" t="s">
         <v>348</v>
@@ -7889,7 +7902,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="B388" t="s">
         <v>348</v>
@@ -7900,7 +7913,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="B389" t="s">
         <v>348</v>
@@ -7911,7 +7924,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B390" t="s">
         <v>348</v>
@@ -7919,16 +7932,13 @@
       <c r="C390" t="s">
         <v>352</v>
       </c>
-      <c r="D390" t="s">
-        <v>365</v>
-      </c>
-      <c r="E390" t="s">
-        <v>366</v>
+      <c r="F390" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="B391" t="s">
         <v>348</v>
@@ -7939,7 +7949,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="B392" t="s">
         <v>348</v>
@@ -7950,35 +7960,35 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B393" t="s">
         <v>348</v>
       </c>
       <c r="C393" t="s">
         <v>352</v>
-      </c>
-      <c r="D393" t="s">
-        <v>361</v>
-      </c>
-      <c r="E393" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="B394" t="s">
         <v>348</v>
       </c>
       <c r="C394" t="s">
         <v>352</v>
+      </c>
+      <c r="D394" t="s">
+        <v>365</v>
+      </c>
+      <c r="E394" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="B395" t="s">
         <v>348</v>
@@ -7989,24 +7999,18 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
       <c r="B396" t="s">
         <v>348</v>
       </c>
       <c r="C396" t="s">
         <v>352</v>
-      </c>
-      <c r="D396" t="s">
-        <v>363</v>
-      </c>
-      <c r="E396" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="B397" t="s">
         <v>348</v>
@@ -8015,15 +8019,15 @@
         <v>352</v>
       </c>
       <c r="D397" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E397" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="B398" t="s">
         <v>348</v>
@@ -8034,54 +8038,110 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="B399" t="s">
         <v>348</v>
       </c>
       <c r="C399" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>255</v>
+      </c>
+      <c r="B400" t="s">
+        <v>348</v>
+      </c>
+      <c r="C400" t="s">
+        <v>352</v>
+      </c>
+      <c r="D400" t="s">
+        <v>363</v>
+      </c>
+      <c r="E400" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>340</v>
+      </c>
+      <c r="B401" t="s">
+        <v>348</v>
+      </c>
+      <c r="C401" t="s">
+        <v>352</v>
+      </c>
+      <c r="D401" t="s">
+        <v>363</v>
+      </c>
+      <c r="E401" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>454</v>
+      </c>
+      <c r="B402" t="s">
+        <v>348</v>
+      </c>
+      <c r="C402" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>241</v>
+      </c>
+      <c r="B403" t="s">
+        <v>348</v>
+      </c>
+      <c r="C403" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
         <v>242</v>
       </c>
-      <c r="B400" t="s">
-        <v>348</v>
-      </c>
-      <c r="C400" t="s">
+      <c r="B404" t="s">
+        <v>348</v>
+      </c>
+      <c r="C404" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
         <v>416</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B405" t="s">
         <v>418</v>
       </c>
-      <c r="C401" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="C405" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>415</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B406" t="s">
         <v>418</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C406" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G380"/>
-  <sortState ref="A2:H402">
-    <sortCondition ref="B2:B402"/>
-    <sortCondition ref="C2:C402"/>
-    <sortCondition ref="A2:A402"/>
+  <sortState ref="A2:H406">
+    <sortCondition ref="B2:B406"/>
+    <sortCondition ref="C2:C406"/>
+    <sortCondition ref="A2:A406"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8090,10 +8150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8101,82 +8161,86 @@
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f ca="1">MID(CELL("nomefile",A1),FIND("]",CELL("nomefile",A1))+1,255)</f>
+        <v>PS4-HD2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -8737,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8748,82 +8812,86 @@
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f ca="1">MID(CELL("nomefile",A1),FIND("]",CELL("nomefile",A1))+1,255)</f>
+        <v>PS4-HD3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>471</v>
       </c>
@@ -9116,6 +9184,26 @@
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -9129,38 +9217,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f ca="1">MID(CELL("nomefile",A1),FIND("]",CELL("nomefile",A1))+1,255)</f>
+        <v>PS4-disco interno</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -9172,10 +9265,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9183,82 +9276,86 @@
     <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f ca="1">MID(CELL("nomefile",A1),FIND("]",CELL("nomefile",A1))+1,255)</f>
+        <v>nintendo switch</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -9281,7 +9378,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9295,10 +9392,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,82 +9403,86 @@
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f ca="1">MID(CELL("nomefile",A1),FIND("]",CELL("nomefile",A1))+1,255)</f>
+        <v>PS3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>412</v>
       </c>
